--- a/inv_analysis/report.xlsx
+++ b/inv_analysis/report.xlsx
@@ -516,298 +516,298 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>6898083.91</v>
+        <v>6013134.5</v>
       </c>
       <c r="G2" t="n">
-        <v>6512464.53</v>
+        <v>6547408.130000001</v>
       </c>
       <c r="H2" t="n">
-        <v>5465932.61</v>
+        <v>5475932.48</v>
       </c>
       <c r="I2" t="n">
-        <v>5465932.609999999</v>
+        <v>4401701.65</v>
       </c>
       <c r="J2" t="n">
-        <v>1046531.92</v>
+        <v>2145706.48</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3285046607418769</v>
+        <v>0.3771865723339297</v>
       </c>
       <c r="L2" t="n">
-        <v>1432151.3</v>
+        <v>1611432.85</v>
       </c>
       <c r="M2" t="n">
-        <v>26.2014</v>
+        <v>29.4276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>富国中证红利指数增强A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000968</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.3146</v>
+        <v>1.128</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0623</v>
+        <v>1.047</v>
       </c>
       <c r="E3" t="n">
-        <v>581886.84</v>
+        <v>623997.8199999999</v>
       </c>
       <c r="F3" t="n">
-        <v>764948.4399999999</v>
+        <v>703869.54</v>
       </c>
       <c r="G3" t="n">
-        <v>618155.4</v>
+        <v>653308.6</v>
       </c>
       <c r="H3" t="n">
-        <v>618155.4</v>
+        <v>653308.6</v>
       </c>
       <c r="I3" t="n">
-        <v>618155.4</v>
+        <v>653308.6</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2719821162444113</v>
+        <v>0.2687776141384389</v>
       </c>
       <c r="L3" t="n">
-        <v>146793.04</v>
+        <v>50560.94</v>
       </c>
       <c r="M3" t="n">
-        <v>23.7469</v>
+        <v>7.7392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>000968</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.106</v>
+        <v>1.3674</v>
       </c>
       <c r="D4" t="n">
-        <v>1.047</v>
+        <v>0.9964</v>
       </c>
       <c r="E4" t="n">
-        <v>623997.8199999999</v>
+        <v>477276.64</v>
       </c>
       <c r="F4" t="n">
-        <v>690141.59</v>
+        <v>652628.08</v>
       </c>
       <c r="G4" t="n">
-        <v>653308.6</v>
+        <v>618155.4</v>
       </c>
       <c r="H4" t="n">
-        <v>653308.6</v>
+        <v>618155.4</v>
       </c>
       <c r="I4" t="n">
-        <v>653308.6</v>
+        <v>475540.54</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>142614.86</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2719821162444113</v>
+        <v>0.3307873964868377</v>
       </c>
       <c r="L4" t="n">
-        <v>36832.99</v>
+        <v>177087.54</v>
       </c>
       <c r="M4" t="n">
-        <v>5.6379</v>
+        <v>28.6477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001180</t>
+          <t>000478</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.2928</v>
+        <v>2.7087</v>
       </c>
       <c r="D5" t="n">
-        <v>0.778</v>
+        <v>2.4296</v>
       </c>
       <c r="E5" t="n">
-        <v>504976.51</v>
+        <v>237614.96</v>
       </c>
       <c r="F5" t="n">
-        <v>652833.63</v>
+        <v>643627.64</v>
       </c>
       <c r="G5" t="n">
-        <v>496666</v>
+        <v>976159.2</v>
       </c>
       <c r="H5" t="n">
-        <v>480892</v>
+        <v>696985</v>
       </c>
       <c r="I5" t="n">
-        <v>392871.1</v>
+        <v>577305.5699999999</v>
       </c>
       <c r="J5" t="n">
-        <v>103794.9</v>
+        <v>398853.63</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3396077004899725</v>
+        <v>0.5302447941593332</v>
       </c>
       <c r="L5" t="n">
-        <v>259962.53</v>
+        <v>66322.07000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>54.0584</v>
+        <v>9.515599999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>001180</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.6956</v>
+        <v>1.3609</v>
       </c>
       <c r="D6" t="n">
-        <v>2.4296</v>
+        <v>0.7282</v>
       </c>
       <c r="E6" t="n">
-        <v>237614.96</v>
+        <v>464976.51</v>
       </c>
       <c r="F6" t="n">
-        <v>640514.89</v>
+        <v>632786.53</v>
       </c>
       <c r="G6" t="n">
-        <v>976159.2</v>
+        <v>496666</v>
       </c>
       <c r="H6" t="n">
-        <v>696985</v>
+        <v>480892</v>
       </c>
       <c r="I6" t="n">
-        <v>577305.5699999999</v>
+        <v>338598.41</v>
       </c>
       <c r="J6" t="n">
-        <v>398853.63</v>
+        <v>158067.59</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5365666396932746</v>
+        <v>0.3659402365115138</v>
       </c>
       <c r="L6" t="n">
-        <v>63209.32</v>
+        <v>294188.12</v>
       </c>
       <c r="M6" t="n">
-        <v>9.069000000000001</v>
+        <v>61.1755</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>汇添富价值精选混合A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001064</t>
+          <t>519069</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9499</v>
+        <v>4.429</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6113</v>
+        <v>2.4883</v>
       </c>
       <c r="E7" t="n">
-        <v>482337.8</v>
+        <v>87940.31</v>
       </c>
       <c r="F7" t="n">
-        <v>458172.68</v>
+        <v>389487.63</v>
       </c>
       <c r="G7" t="n">
-        <v>323557.7</v>
+        <v>218819.8</v>
       </c>
       <c r="H7" t="n">
-        <v>323557.7</v>
+        <v>218819.8</v>
       </c>
       <c r="I7" t="n">
-        <v>294838.12</v>
+        <v>218819.8</v>
       </c>
       <c r="J7" t="n">
-        <v>28719.58</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2961237520208143</v>
+        <v>0.2687776141384389</v>
       </c>
       <c r="L7" t="n">
-        <v>163334.56</v>
+        <v>170667.83</v>
       </c>
       <c r="M7" t="n">
-        <v>50.4808</v>
+        <v>77.99469999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>汇添富价值精选混合A</t>
+          <t>创成长</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519069</t>
+          <t>SZ159967</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.16</v>
+        <v>0.756</v>
       </c>
       <c r="D8" t="n">
-        <v>2.4883</v>
+        <v>0.7504999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>87940.31</v>
+        <v>478200</v>
       </c>
       <c r="F8" t="n">
-        <v>365831.69</v>
+        <v>361519.2</v>
       </c>
       <c r="G8" t="n">
-        <v>218819.8</v>
+        <v>358911.58</v>
       </c>
       <c r="H8" t="n">
-        <v>218819.8</v>
+        <v>358911.58</v>
       </c>
       <c r="I8" t="n">
-        <v>218819.8</v>
+        <v>358911.58</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2719821162444113</v>
+        <v>15.20833333333333</v>
       </c>
       <c r="L8" t="n">
-        <v>147011.89</v>
+        <v>2607.62</v>
       </c>
       <c r="M8" t="n">
-        <v>67.184</v>
+        <v>0.7265</v>
       </c>
     </row>
     <row r="9">
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.7078</v>
+        <v>3.8546</v>
       </c>
       <c r="D9" t="n">
-        <v>2.3549</v>
+        <v>2.181</v>
       </c>
       <c r="E9" t="n">
-        <v>96246.7</v>
+        <v>86246.7</v>
       </c>
       <c r="F9" t="n">
-        <v>356863.51</v>
+        <v>332446.53</v>
       </c>
       <c r="G9" t="n">
         <v>226649.6</v>
@@ -840,154 +840,154 @@
         <v>226649.6</v>
       </c>
       <c r="I9" t="n">
-        <v>226649.6</v>
+        <v>188103.6</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>38546</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2719821162444113</v>
+        <v>0.3144882702109855</v>
       </c>
       <c r="L9" t="n">
-        <v>130213.91</v>
+        <v>144342.93</v>
       </c>
       <c r="M9" t="n">
-        <v>57.4516</v>
+        <v>63.6855</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>创成长</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SZ159967</t>
+          <t>001064</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.721</v>
+        <v>0.9533</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7504999999999999</v>
+        <v>0.4601</v>
       </c>
       <c r="E10" t="n">
-        <v>478200</v>
+        <v>333649.3</v>
       </c>
       <c r="F10" t="n">
-        <v>344782.2</v>
+        <v>318067.88</v>
       </c>
       <c r="G10" t="n">
-        <v>358911.58</v>
+        <v>323557.7</v>
       </c>
       <c r="H10" t="n">
-        <v>358911.58</v>
+        <v>323557.7</v>
       </c>
       <c r="I10" t="n">
-        <v>358911.58</v>
+        <v>153518.61</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>170039.09</v>
       </c>
       <c r="K10" t="n">
-        <v>45.625</v>
+        <v>0.4100281574587532</v>
       </c>
       <c r="L10" t="n">
-        <v>-14129.38</v>
+        <v>164549.27</v>
       </c>
       <c r="M10" t="n">
-        <v>-3.9367</v>
+        <v>50.8562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SH512980</t>
+          <t>001469</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.874</v>
+        <v>1.1841</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8778</v>
+        <v>1.101</v>
       </c>
       <c r="E11" t="n">
-        <v>359200</v>
+        <v>258053.33</v>
       </c>
       <c r="F11" t="n">
-        <v>313940.8</v>
+        <v>305560.95</v>
       </c>
       <c r="G11" t="n">
-        <v>315322.73</v>
+        <v>284108.9</v>
       </c>
       <c r="H11" t="n">
-        <v>315322.73</v>
+        <v>284108.9</v>
       </c>
       <c r="I11" t="n">
-        <v>315322.73</v>
+        <v>284108.9</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2715773809523809</v>
+        <v>0.2687776141384389</v>
       </c>
       <c r="L11" t="n">
-        <v>-1381.93</v>
+        <v>21452.05</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.4383</v>
+        <v>7.5506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001469</t>
+          <t>SH512980</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.1624</v>
+        <v>0.837</v>
       </c>
       <c r="D12" t="n">
-        <v>1.101</v>
+        <v>0.8778</v>
       </c>
       <c r="E12" t="n">
-        <v>258053.33</v>
+        <v>359200</v>
       </c>
       <c r="F12" t="n">
-        <v>299961.19</v>
+        <v>300650.4</v>
       </c>
       <c r="G12" t="n">
-        <v>284108.9</v>
+        <v>315322.73</v>
       </c>
       <c r="H12" t="n">
-        <v>284108.9</v>
+        <v>315322.73</v>
       </c>
       <c r="I12" t="n">
-        <v>284108.9</v>
+        <v>315322.73</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2719821162444113</v>
+        <v>0.2683823529411765</v>
       </c>
       <c r="L12" t="n">
-        <v>15852.29</v>
+        <v>-14672.33</v>
       </c>
       <c r="M12" t="n">
-        <v>5.5797</v>
+        <v>-4.6531</v>
       </c>
     </row>
     <row r="13">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.2097</v>
+        <v>1.2641</v>
       </c>
       <c r="D13" t="n">
         <v>1.1181</v>
@@ -1011,7 +1011,7 @@
         <v>237406.31</v>
       </c>
       <c r="F13" t="n">
-        <v>287190.41</v>
+        <v>300105.32</v>
       </c>
       <c r="G13" t="n">
         <v>265444</v>
@@ -1026,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>4.451219512195122</v>
+        <v>3.724489795918367</v>
       </c>
       <c r="L13" t="n">
-        <v>21746.41</v>
+        <v>34661.32</v>
       </c>
       <c r="M13" t="n">
-        <v>8.192500000000001</v>
+        <v>13.0579</v>
       </c>
     </row>
     <row r="14">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.8607</v>
+        <v>1.9139</v>
       </c>
       <c r="D14" t="n">
         <v>1.662</v>
@@ -1056,7 +1056,7 @@
         <v>146453.77</v>
       </c>
       <c r="F14" t="n">
-        <v>272506.53</v>
+        <v>280297.87</v>
       </c>
       <c r="G14" t="n">
         <v>243400</v>
@@ -1071,883 +1071,883 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2719821162444113</v>
+        <v>0.2687776141384389</v>
       </c>
       <c r="L14" t="n">
-        <v>29106.53</v>
+        <v>36897.87</v>
       </c>
       <c r="M14" t="n">
-        <v>11.9583</v>
+        <v>15.1594</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>易方达消费行业股票</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>340001</t>
+          <t>110022</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.1813</v>
+        <v>5.754</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9431</v>
+        <v>-0.4194</v>
       </c>
       <c r="E15" t="n">
-        <v>224231.14</v>
+        <v>29918.77</v>
       </c>
       <c r="F15" t="n">
-        <v>264884.25</v>
+        <v>172152.6</v>
       </c>
       <c r="G15" t="n">
-        <v>211467.6</v>
+        <v>222919.2</v>
       </c>
       <c r="H15" t="n">
-        <v>211467.6</v>
+        <v>185038.68</v>
       </c>
       <c r="I15" t="n">
-        <v>211467.6</v>
+        <v>-12548.35999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>235467.56</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2719821162444113</v>
+        <v>0.6658288942909082</v>
       </c>
       <c r="L15" t="n">
-        <v>53416.65</v>
+        <v>184700.96</v>
       </c>
       <c r="M15" t="n">
-        <v>25.26</v>
+        <v>99.8175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>110027</t>
+          <t>SH510900</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.063</v>
+        <v>1.246</v>
       </c>
       <c r="D16" t="n">
-        <v>1.6937</v>
+        <v>1.1815</v>
       </c>
       <c r="E16" t="n">
-        <v>104594.73</v>
+        <v>108400</v>
       </c>
       <c r="F16" t="n">
-        <v>215778.93</v>
+        <v>135066.4</v>
       </c>
       <c r="G16" t="n">
-        <v>177157.2</v>
+        <v>172687.68</v>
       </c>
       <c r="H16" t="n">
-        <v>177157.2</v>
+        <v>172687.68</v>
       </c>
       <c r="I16" t="n">
-        <v>177157.2</v>
+        <v>128076.14</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>44611.54</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2719821162444113</v>
+        <v>0.3377153248910539</v>
       </c>
       <c r="L16" t="n">
-        <v>38621.73</v>
+        <v>6990.26</v>
       </c>
       <c r="M16" t="n">
-        <v>21.8008</v>
+        <v>4.0479</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>易方达消费行业股票</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>110022</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.349</v>
+        <v>1.807</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3622</v>
+        <v>1.85</v>
       </c>
       <c r="E17" t="n">
-        <v>34382.77</v>
+        <v>68491.67999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>183913.44</v>
+        <v>123764.47</v>
       </c>
       <c r="G17" t="n">
-        <v>222919.2</v>
+        <v>126709.6</v>
       </c>
       <c r="H17" t="n">
-        <v>185038.68</v>
+        <v>126709.6</v>
       </c>
       <c r="I17" t="n">
-        <v>12451.85000000001</v>
+        <v>126709.6</v>
       </c>
       <c r="J17" t="n">
-        <v>210467.35</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6370202760896501</v>
+        <v>3.882978723404255</v>
       </c>
       <c r="L17" t="n">
-        <v>171461.59</v>
+        <v>-2945.13</v>
       </c>
       <c r="M17" t="n">
-        <v>92.6626</v>
+        <v>-2.3243</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SH510900</t>
+          <t>000614</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.218</v>
+        <v>1.335</v>
       </c>
       <c r="D18" t="n">
-        <v>1.1815</v>
+        <v>1.0966</v>
       </c>
       <c r="E18" t="n">
-        <v>108400</v>
+        <v>64495.66</v>
       </c>
       <c r="F18" t="n">
-        <v>132031.2</v>
+        <v>86101.71000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>172687.68</v>
+        <v>70726.8</v>
       </c>
       <c r="H18" t="n">
-        <v>172687.68</v>
+        <v>70726.8</v>
       </c>
       <c r="I18" t="n">
-        <v>128076.14</v>
+        <v>70726.8</v>
       </c>
       <c r="J18" t="n">
-        <v>44611.54</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3417357454254712</v>
+        <v>0.2687776141384389</v>
       </c>
       <c r="L18" t="n">
-        <v>3955.06</v>
+        <v>15374.91</v>
       </c>
       <c r="M18" t="n">
-        <v>2.2903</v>
+        <v>21.7384</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>易方达证券公司(LOF)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>502010</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.783</v>
+        <v>1.237</v>
       </c>
       <c r="D19" t="n">
-        <v>1.85</v>
+        <v>1.1314</v>
       </c>
       <c r="E19" t="n">
-        <v>68491.67999999999</v>
+        <v>57016.21</v>
       </c>
       <c r="F19" t="n">
-        <v>122120.67</v>
+        <v>70529.05</v>
       </c>
       <c r="G19" t="n">
-        <v>126709.6</v>
+        <v>64507.2</v>
       </c>
       <c r="H19" t="n">
-        <v>126709.6</v>
+        <v>64507.2</v>
       </c>
       <c r="I19" t="n">
-        <v>126709.6</v>
+        <v>64507.2</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4.67948717948718</v>
+        <v>0.2687776141384389</v>
       </c>
       <c r="L19" t="n">
-        <v>-4588.93</v>
+        <v>6021.85</v>
       </c>
       <c r="M19" t="n">
-        <v>-3.6216</v>
+        <v>9.3352</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SH510050</t>
+          <t>161017</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.704</v>
+        <v>2.242</v>
       </c>
       <c r="D20" t="n">
-        <v>2.921</v>
+        <v>1.8973</v>
       </c>
       <c r="E20" t="n">
-        <v>26300</v>
+        <v>29097.24</v>
       </c>
       <c r="F20" t="n">
-        <v>97415.2</v>
+        <v>65236.01</v>
       </c>
       <c r="G20" t="n">
-        <v>76822.3</v>
+        <v>55205.1</v>
       </c>
       <c r="H20" t="n">
-        <v>76822.3</v>
+        <v>55205.1</v>
       </c>
       <c r="I20" t="n">
-        <v>76822.3</v>
+        <v>55205.1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2715773809523809</v>
+        <v>0.2687776141384389</v>
       </c>
       <c r="L20" t="n">
-        <v>20592.9</v>
+        <v>10030.91</v>
       </c>
       <c r="M20" t="n">
-        <v>26.8059</v>
+        <v>18.1703</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>华宝油气</t>
+          <t>易方达蓝筹精选混合</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SZ162411</t>
+          <t>005827</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.321</v>
+        <v>3.3807</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3088</v>
+        <v>3.2359</v>
       </c>
       <c r="E21" t="n">
-        <v>285000</v>
+        <v>16979.57</v>
       </c>
       <c r="F21" t="n">
-        <v>91485</v>
+        <v>57402.83</v>
       </c>
       <c r="G21" t="n">
-        <v>88009.94</v>
+        <v>54943.6</v>
       </c>
       <c r="H21" t="n">
-        <v>88009.94</v>
+        <v>54943.6</v>
       </c>
       <c r="I21" t="n">
-        <v>88009.94</v>
+        <v>54943.6</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3489483747609943</v>
+        <v>15.20833333333333</v>
       </c>
       <c r="L21" t="n">
-        <v>3475.06</v>
+        <v>2459.23</v>
       </c>
       <c r="M21" t="n">
-        <v>3.9485</v>
+        <v>4.4759</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>恒生ETF</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>000614</t>
+          <t>SZ159920</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.322</v>
+        <v>1.526</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0966</v>
+        <v>1.5175</v>
       </c>
       <c r="E22" t="n">
-        <v>64495.66</v>
+        <v>20800</v>
       </c>
       <c r="F22" t="n">
-        <v>85263.25999999999</v>
+        <v>31740.8</v>
       </c>
       <c r="G22" t="n">
-        <v>70726.8</v>
+        <v>31564</v>
       </c>
       <c r="H22" t="n">
-        <v>70726.8</v>
+        <v>31564</v>
       </c>
       <c r="I22" t="n">
-        <v>70726.8</v>
+        <v>31564</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2719821162444113</v>
+        <v>0.2683823529411765</v>
       </c>
       <c r="L22" t="n">
-        <v>14536.46</v>
+        <v>176.8</v>
       </c>
       <c r="M22" t="n">
-        <v>20.553</v>
+        <v>0.5601</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>易方达证券公司(LOF)</t>
+          <t>鹏扬泓利债券C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>502010</t>
+          <t>006060</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.2947</v>
+        <v>1.09</v>
       </c>
       <c r="D23" t="n">
-        <v>1.1314</v>
+        <v>1.0854</v>
       </c>
       <c r="E23" t="n">
-        <v>57016.21</v>
+        <v>9213.530000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>73818.89</v>
+        <v>10042.75</v>
       </c>
       <c r="G23" t="n">
-        <v>64507.2</v>
+        <v>10000</v>
       </c>
       <c r="H23" t="n">
-        <v>64507.2</v>
+        <v>10000</v>
       </c>
       <c r="I23" t="n">
-        <v>64507.2</v>
+        <v>10000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2719821162444113</v>
+        <v>5.367647058823529</v>
       </c>
       <c r="L23" t="n">
-        <v>9311.690000000001</v>
+        <v>42.75</v>
       </c>
       <c r="M23" t="n">
-        <v>14.4351</v>
+        <v>0.4275</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>广发趋势优选灵活配置混合C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>008127</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.237</v>
+        <v>1.6146</v>
       </c>
       <c r="D24" t="n">
-        <v>1.8973</v>
+        <v>1.6121</v>
       </c>
       <c r="E24" t="n">
-        <v>29097.24</v>
+        <v>6203.21</v>
       </c>
       <c r="F24" t="n">
-        <v>65090.53</v>
+        <v>10015.7</v>
       </c>
       <c r="G24" t="n">
-        <v>55205.1</v>
+        <v>10000</v>
       </c>
       <c r="H24" t="n">
-        <v>55205.1</v>
+        <v>10000</v>
       </c>
       <c r="I24" t="n">
-        <v>55205.1</v>
+        <v>10000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2719821162444114</v>
+        <v>5.367647058823529</v>
       </c>
       <c r="L24" t="n">
-        <v>9885.43</v>
+        <v>15.7</v>
       </c>
       <c r="M24" t="n">
-        <v>17.9067</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>工银瑞信双利债券B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SZ159920</t>
+          <t>485011</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.477</v>
+        <v>1.644</v>
       </c>
       <c r="D25" t="n">
-        <v>1.5175</v>
+        <v>1.644</v>
       </c>
       <c r="E25" t="n">
-        <v>20800</v>
+        <v>6082.76</v>
       </c>
       <c r="F25" t="n">
-        <v>30721.6</v>
+        <v>10000.06</v>
       </c>
       <c r="G25" t="n">
-        <v>31564</v>
+        <v>10000</v>
       </c>
       <c r="H25" t="n">
-        <v>31564</v>
+        <v>10000</v>
       </c>
       <c r="I25" t="n">
-        <v>31564</v>
+        <v>10000</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2715773809523809</v>
+        <v>5.367647058823529</v>
       </c>
       <c r="L25" t="n">
-        <v>-842.4</v>
+        <v>0.06</v>
       </c>
       <c r="M25" t="n">
-        <v>-2.6689</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>易方达蓝筹精选混合</t>
+          <t>东方红策略精选混合C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005827</t>
+          <t>001406</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.1327</v>
+        <v>1.2702</v>
       </c>
       <c r="D26" t="n">
-        <v>3.1937</v>
+        <v>1.2719</v>
       </c>
       <c r="E26" t="n">
-        <v>9393.540000000001</v>
+        <v>7862.35</v>
       </c>
       <c r="F26" t="n">
-        <v>29427.14</v>
+        <v>9986.76</v>
       </c>
       <c r="G26" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="H26" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="I26" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>45.625</v>
+        <v>5.367647058823529</v>
       </c>
       <c r="L26" t="n">
-        <v>-572.86</v>
+        <v>-13.24</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.9095</v>
+        <v>-0.1324</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>德国30ETF</t>
+          <t>南方安裕混合C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SH513030</t>
+          <t>006586</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.106</v>
+        <v>1.146</v>
       </c>
       <c r="D27" t="n">
-        <v>0.965</v>
+        <v>1.1435</v>
       </c>
       <c r="E27" t="n">
-        <v>16800</v>
+        <v>5246.91</v>
       </c>
       <c r="F27" t="n">
-        <v>18580.8</v>
+        <v>6012.96</v>
       </c>
       <c r="G27" t="n">
-        <v>16212</v>
+        <v>6000</v>
       </c>
       <c r="H27" t="n">
-        <v>16212</v>
+        <v>6000</v>
       </c>
       <c r="I27" t="n">
-        <v>16212</v>
+        <v>6000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2715773809523809</v>
+        <v>9.605263157894736</v>
       </c>
       <c r="L27" t="n">
-        <v>2368.8</v>
+        <v>12.96</v>
       </c>
       <c r="M27" t="n">
-        <v>14.6114</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>鹏扬泓利债券C</t>
+          <t>南方宝元债券C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>006060</t>
+          <t>006585</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.085</v>
+        <v>2.5149</v>
       </c>
       <c r="D28" t="n">
-        <v>1.0846</v>
+        <v>2.4932</v>
       </c>
       <c r="E28" t="n">
-        <v>7375.8</v>
+        <v>1604.37</v>
       </c>
       <c r="F28" t="n">
-        <v>8002.74</v>
+        <v>4034.83</v>
       </c>
       <c r="G28" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="H28" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="I28" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.019230769230769</v>
+        <v>5.367647058823529</v>
       </c>
       <c r="L28" t="n">
-        <v>2.74</v>
+        <v>34.83</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0343</v>
+        <v>0.8708</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>工银瑞信双利债券B</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>485011</t>
+          <t>SZ159915</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.638</v>
+        <v>3.084</v>
       </c>
       <c r="D29" t="n">
-        <v>1.643</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>4869.17</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>7975.7</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>8000</v>
+        <v>117972.4</v>
       </c>
       <c r="H29" t="n">
-        <v>8000</v>
+        <v>117972.4</v>
       </c>
       <c r="I29" t="n">
-        <v>8000</v>
+        <v>-112052.6</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>230025</v>
       </c>
       <c r="K29" t="n">
-        <v>7.019230769230769</v>
+        <v>0.7916797575484756</v>
       </c>
       <c r="L29" t="n">
-        <v>-24.3</v>
+        <v>112052.6</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.3038</v>
+        <v>94.982</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>东方红策略精选混合C</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001406</t>
+          <t>SH510050</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.2661</v>
+        <v>3.875</v>
       </c>
       <c r="D30" t="n">
-        <v>1.272</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>6289.4</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>7963.01</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>8000</v>
+        <v>76822.3</v>
       </c>
       <c r="H30" t="n">
-        <v>8000</v>
+        <v>76822.3</v>
       </c>
       <c r="I30" t="n">
-        <v>8000</v>
+        <v>-24895.92999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>101718.23</v>
       </c>
       <c r="K30" t="n">
-        <v>7.019230769230769</v>
+        <v>0.6237398195154884</v>
       </c>
       <c r="L30" t="n">
-        <v>-36.99</v>
+        <v>24895.93</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.4624</v>
+        <v>32.4072</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>广发趋势优选灵活配置混合C</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>008127</t>
+          <t>340001</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.6029</v>
+        <v>1.1767</v>
       </c>
       <c r="D31" t="n">
-        <v>1.6107</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>4966.66</v>
+        <v>-0</v>
       </c>
       <c r="F31" t="n">
-        <v>7961.06</v>
+        <v>-0</v>
       </c>
       <c r="G31" t="n">
-        <v>8000</v>
+        <v>211467.6</v>
       </c>
       <c r="H31" t="n">
-        <v>8000</v>
+        <v>211467.6</v>
       </c>
       <c r="I31" t="n">
-        <v>8000</v>
+        <v>-51549.76999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>263017.37</v>
       </c>
       <c r="K31" t="n">
-        <v>7.019230769230769</v>
+        <v>0.6030755452899108</v>
       </c>
       <c r="L31" t="n">
-        <v>-38.94</v>
+        <v>51549.77</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.4867</v>
+        <v>24.3771</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>南方宝元债券C</t>
+          <t>德国30ETF</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>006585</t>
+          <t>SH513030</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.4873</v>
+        <v>1.142</v>
       </c>
       <c r="D32" t="n">
-        <v>2.4932</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1604.37</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>3990.55</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4000</v>
+        <v>16212</v>
       </c>
       <c r="H32" t="n">
-        <v>4000</v>
+        <v>16212</v>
       </c>
       <c r="I32" t="n">
-        <v>4000</v>
+        <v>-2954.880000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>19166.88</v>
       </c>
       <c r="K32" t="n">
-        <v>7.019230769230769</v>
+        <v>0.5856814124613576</v>
       </c>
       <c r="L32" t="n">
-        <v>-9.449999999999999</v>
+        <v>2954.88</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.2363</v>
+        <v>18.2265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>南方安裕混合C</t>
+          <t>华宝油气</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>006586</t>
+          <t>SZ162411</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.1355</v>
+        <v>0.339</v>
       </c>
       <c r="D33" t="n">
-        <v>1.1434</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>3498.35</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>3972.38</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>4000</v>
+        <v>88009.94</v>
       </c>
       <c r="H33" t="n">
-        <v>4000</v>
+        <v>88009.94</v>
       </c>
       <c r="I33" t="n">
-        <v>4000</v>
+        <v>-8595.399999999994</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>96605.34</v>
       </c>
       <c r="K33" t="n">
-        <v>16.59090909090909</v>
+        <v>0.7209485390489235</v>
       </c>
       <c r="L33" t="n">
-        <v>-27.62</v>
+        <v>8595.4</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.6905</v>
+        <v>9.766400000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>广发中证100ETF联接C</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SZ159915</t>
+          <t>007136</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3.029</v>
+        <v>1.5265</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1959,40 +1959,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>117972.4</v>
+        <v>30000</v>
       </c>
       <c r="H34" t="n">
-        <v>117972.4</v>
+        <v>30000</v>
       </c>
       <c r="I34" t="n">
-        <v>-112052.6</v>
+        <v>-59.91999999999825</v>
       </c>
       <c r="J34" t="n">
-        <v>230025</v>
+        <v>30059.92</v>
       </c>
       <c r="K34" t="n">
-        <v>0.8011045165669098</v>
+        <v>5.799436719576719</v>
       </c>
       <c r="L34" t="n">
-        <v>112052.6</v>
+        <v>59.92</v>
       </c>
       <c r="M34" t="n">
-        <v>94.982</v>
+        <v>0.1997</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>广发中证100ETF联接C</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>007136</t>
+          <t>110027</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.4608</v>
+        <v>2.075</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>30000</v>
+        <v>177157.2</v>
       </c>
       <c r="H35" t="n">
-        <v>30000</v>
+        <v>177157.2</v>
       </c>
       <c r="I35" t="n">
-        <v>-59.91999999999825</v>
+        <v>-39756.26999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>30059.92</v>
+        <v>216913.47</v>
       </c>
       <c r="K35" t="n">
-        <v>6.642991151515151</v>
+        <v>0.5978722540463277</v>
       </c>
       <c r="L35" t="n">
-        <v>59.92</v>
+        <v>39756.27</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1997</v>
+        <v>22.4412</v>
       </c>
     </row>
   </sheetData>

--- a/inv_analysis/report.xlsx
+++ b/inv_analysis/report.xlsx
@@ -516,28 +516,28 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>6013134.5</v>
+        <v>4641406.56</v>
       </c>
       <c r="G2" t="n">
-        <v>6547408.130000001</v>
+        <v>6551388.130000001</v>
       </c>
       <c r="H2" t="n">
         <v>5475932.48</v>
       </c>
       <c r="I2" t="n">
-        <v>4401701.65</v>
+        <v>2964727.87</v>
       </c>
       <c r="J2" t="n">
-        <v>2145706.48</v>
+        <v>3586660.26</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3771865723339297</v>
+        <v>0.438584781829398</v>
       </c>
       <c r="L2" t="n">
-        <v>1611432.85</v>
+        <v>1676678.69</v>
       </c>
       <c r="M2" t="n">
-        <v>29.4276</v>
+        <v>30.6191</v>
       </c>
     </row>
     <row r="3">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.128</v>
+        <v>1.204</v>
       </c>
       <c r="D3" t="n">
-        <v>1.047</v>
+        <v>1.0161</v>
       </c>
       <c r="E3" t="n">
-        <v>623997.8199999999</v>
+        <v>508458.86</v>
       </c>
       <c r="F3" t="n">
-        <v>703869.54</v>
+        <v>612184.47</v>
       </c>
       <c r="G3" t="n">
         <v>653308.6</v>
@@ -570,19 +570,19 @@
         <v>653308.6</v>
       </c>
       <c r="I3" t="n">
-        <v>653308.6</v>
+        <v>516646.29</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>136662.31</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2687776141384389</v>
+        <v>0.3184361452739138</v>
       </c>
       <c r="L3" t="n">
-        <v>50560.94</v>
+        <v>95538.17999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>7.7392</v>
+        <v>14.6237</v>
       </c>
     </row>
     <row r="4">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.3674</v>
+        <v>1.3624</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9964</v>
+        <v>0.8595</v>
       </c>
       <c r="E4" t="n">
-        <v>477276.64</v>
+        <v>357620.64</v>
       </c>
       <c r="F4" t="n">
-        <v>652628.08</v>
+        <v>487222.36</v>
       </c>
       <c r="G4" t="n">
         <v>618155.4</v>
@@ -615,853 +615,853 @@
         <v>618155.4</v>
       </c>
       <c r="I4" t="n">
-        <v>475540.54</v>
+        <v>307389.91</v>
       </c>
       <c r="J4" t="n">
-        <v>142614.86</v>
+        <v>310765.49</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3307873964868377</v>
+        <v>0.3957406805934457</v>
       </c>
       <c r="L4" t="n">
-        <v>177087.54</v>
+        <v>179832.45</v>
       </c>
       <c r="M4" t="n">
-        <v>28.6477</v>
+        <v>29.0918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>001180</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.7087</v>
+        <v>1.3326</v>
       </c>
       <c r="D5" t="n">
-        <v>2.4296</v>
+        <v>0.5457</v>
       </c>
       <c r="E5" t="n">
-        <v>237614.96</v>
+        <v>364326.51</v>
       </c>
       <c r="F5" t="n">
-        <v>643627.64</v>
+        <v>485501.51</v>
       </c>
       <c r="G5" t="n">
-        <v>976159.2</v>
+        <v>496666</v>
       </c>
       <c r="H5" t="n">
-        <v>696985</v>
+        <v>480892</v>
       </c>
       <c r="I5" t="n">
-        <v>577305.5699999999</v>
+        <v>198816.83</v>
       </c>
       <c r="J5" t="n">
-        <v>398853.63</v>
+        <v>297849.17</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5302447941593332</v>
+        <v>0.4350951834619166</v>
       </c>
       <c r="L5" t="n">
-        <v>66322.07000000001</v>
+        <v>286684.68</v>
       </c>
       <c r="M5" t="n">
-        <v>9.515599999999999</v>
+        <v>59.6152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>创成长</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001180</t>
+          <t>SZ159967</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.3609</v>
+        <v>0.701</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7282</v>
+        <v>0.7504999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>464976.51</v>
+        <v>478200</v>
       </c>
       <c r="F6" t="n">
-        <v>632786.53</v>
+        <v>335218.2</v>
       </c>
       <c r="G6" t="n">
-        <v>496666</v>
+        <v>358911.58</v>
       </c>
       <c r="H6" t="n">
-        <v>480892</v>
+        <v>358911.58</v>
       </c>
       <c r="I6" t="n">
-        <v>338598.41</v>
+        <v>358911.58</v>
       </c>
       <c r="J6" t="n">
-        <v>158067.59</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3659402365115138</v>
+        <v>7.019230769230769</v>
       </c>
       <c r="L6" t="n">
-        <v>294188.12</v>
+        <v>-23693.38</v>
       </c>
       <c r="M6" t="n">
-        <v>61.1755</v>
+        <v>-6.6015</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>汇添富价值精选混合A</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519069</t>
+          <t>SH512980</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.429</v>
+        <v>0.865</v>
       </c>
       <c r="D7" t="n">
-        <v>2.4883</v>
+        <v>0.8778</v>
       </c>
       <c r="E7" t="n">
-        <v>87940.31</v>
+        <v>359200</v>
       </c>
       <c r="F7" t="n">
-        <v>389487.63</v>
+        <v>310708</v>
       </c>
       <c r="G7" t="n">
-        <v>218819.8</v>
+        <v>315322.73</v>
       </c>
       <c r="H7" t="n">
-        <v>218819.8</v>
+        <v>315322.73</v>
       </c>
       <c r="I7" t="n">
-        <v>218819.8</v>
+        <v>315322.73</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2687776141384389</v>
+        <v>0.2629682997118156</v>
       </c>
       <c r="L7" t="n">
-        <v>170667.83</v>
+        <v>-4614.73</v>
       </c>
       <c r="M7" t="n">
-        <v>77.99469999999999</v>
+        <v>-1.4635</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>创成长</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SZ159967</t>
+          <t>001469</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.756</v>
+        <v>1.2026</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7504999999999999</v>
+        <v>1.101</v>
       </c>
       <c r="E8" t="n">
-        <v>478200</v>
+        <v>258053.33</v>
       </c>
       <c r="F8" t="n">
-        <v>361519.2</v>
+        <v>310334.93</v>
       </c>
       <c r="G8" t="n">
-        <v>358911.58</v>
+        <v>284108.9</v>
       </c>
       <c r="H8" t="n">
-        <v>358911.58</v>
+        <v>284108.9</v>
       </c>
       <c r="I8" t="n">
-        <v>358911.58</v>
+        <v>284108.9</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>15.20833333333333</v>
+        <v>0.2633477633477633</v>
       </c>
       <c r="L8" t="n">
-        <v>2607.62</v>
+        <v>26226.03</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7265</v>
+        <v>9.231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强A</t>
+          <t>中欧价值发现混合A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>310318</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.8546</v>
+        <v>2.0629</v>
       </c>
       <c r="D9" t="n">
-        <v>2.181</v>
+        <v>1.662</v>
       </c>
       <c r="E9" t="n">
-        <v>86246.7</v>
+        <v>146453.77</v>
       </c>
       <c r="F9" t="n">
-        <v>332446.53</v>
+        <v>302119.48</v>
       </c>
       <c r="G9" t="n">
-        <v>226649.6</v>
+        <v>243400</v>
       </c>
       <c r="H9" t="n">
-        <v>226649.6</v>
+        <v>243400</v>
       </c>
       <c r="I9" t="n">
-        <v>188103.6</v>
+        <v>243400</v>
       </c>
       <c r="J9" t="n">
-        <v>38546</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3144882702109855</v>
+        <v>0.2633477633477633</v>
       </c>
       <c r="L9" t="n">
-        <v>144342.93</v>
+        <v>58719.48</v>
       </c>
       <c r="M9" t="n">
-        <v>63.6855</v>
+        <v>24.1247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>申万菱信沪深300指数增强A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001064</t>
+          <t>310318</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9533</v>
+        <v>3.8633</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4601</v>
+        <v>1.928</v>
       </c>
       <c r="E10" t="n">
-        <v>333649.3</v>
+        <v>75401.7</v>
       </c>
       <c r="F10" t="n">
-        <v>318067.88</v>
+        <v>291299.39</v>
       </c>
       <c r="G10" t="n">
-        <v>323557.7</v>
+        <v>226649.6</v>
       </c>
       <c r="H10" t="n">
-        <v>323557.7</v>
+        <v>226649.6</v>
       </c>
       <c r="I10" t="n">
-        <v>153518.61</v>
+        <v>145377.11</v>
       </c>
       <c r="J10" t="n">
-        <v>170039.09</v>
+        <v>81272.49000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4100281574587532</v>
+        <v>0.3577795579028981</v>
       </c>
       <c r="L10" t="n">
-        <v>164549.27</v>
+        <v>145922.28</v>
       </c>
       <c r="M10" t="n">
-        <v>50.8562</v>
+        <v>64.3823</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>天弘创业板ETF联接基金C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001469</t>
+          <t>001593</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.1841</v>
+        <v>1.2136</v>
       </c>
       <c r="D11" t="n">
-        <v>1.101</v>
+        <v>1.1181</v>
       </c>
       <c r="E11" t="n">
-        <v>258053.33</v>
+        <v>237406.31</v>
       </c>
       <c r="F11" t="n">
-        <v>305560.95</v>
+        <v>288116.3</v>
       </c>
       <c r="G11" t="n">
-        <v>284108.9</v>
+        <v>265444</v>
       </c>
       <c r="H11" t="n">
-        <v>284108.9</v>
+        <v>265444</v>
       </c>
       <c r="I11" t="n">
-        <v>284108.9</v>
+        <v>265444</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2687776141384389</v>
+        <v>2.896825396825397</v>
       </c>
       <c r="L11" t="n">
-        <v>21452.05</v>
+        <v>22672.3</v>
       </c>
       <c r="M11" t="n">
-        <v>7.5506</v>
+        <v>8.5413</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SH512980</t>
+          <t>001064</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.837</v>
+        <v>0.9453</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8778</v>
+        <v>0.4004</v>
       </c>
       <c r="E12" t="n">
-        <v>359200</v>
+        <v>303649.3</v>
       </c>
       <c r="F12" t="n">
-        <v>300650.4</v>
+        <v>287039.68</v>
       </c>
       <c r="G12" t="n">
-        <v>315322.73</v>
+        <v>323557.7</v>
       </c>
       <c r="H12" t="n">
-        <v>315322.73</v>
+        <v>323557.7</v>
       </c>
       <c r="I12" t="n">
-        <v>315322.73</v>
+        <v>121568.27</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>201989.43</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2683823529411765</v>
+        <v>0.427749551994393</v>
       </c>
       <c r="L12" t="n">
-        <v>-14672.33</v>
+        <v>165471.41</v>
       </c>
       <c r="M12" t="n">
-        <v>-4.6531</v>
+        <v>51.1412</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>天弘创业板ETF联接基金C</t>
+          <t>汇添富价值精选混合A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001593</t>
+          <t>519069</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.2641</v>
+        <v>4.304</v>
       </c>
       <c r="D13" t="n">
-        <v>1.1181</v>
+        <v>1.8758</v>
       </c>
       <c r="E13" t="n">
-        <v>237406.31</v>
+        <v>65660.31</v>
       </c>
       <c r="F13" t="n">
-        <v>300105.32</v>
+        <v>282601.97</v>
       </c>
       <c r="G13" t="n">
-        <v>265444</v>
+        <v>218819.8</v>
       </c>
       <c r="H13" t="n">
-        <v>265444</v>
+        <v>218819.8</v>
       </c>
       <c r="I13" t="n">
-        <v>265444</v>
+        <v>123166.41</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>95653.39</v>
       </c>
       <c r="K13" t="n">
-        <v>3.724489795918367</v>
+        <v>0.3784658025431713</v>
       </c>
       <c r="L13" t="n">
-        <v>34661.32</v>
+        <v>159435.56</v>
       </c>
       <c r="M13" t="n">
-        <v>13.0579</v>
+        <v>72.8616</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>中欧价值发现混合A</t>
+          <t>易方达消费行业股票</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>110022</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.9139</v>
+        <v>5.524</v>
       </c>
       <c r="D14" t="n">
-        <v>1.662</v>
+        <v>-0.5659</v>
       </c>
       <c r="E14" t="n">
-        <v>146453.77</v>
+        <v>29242.57</v>
       </c>
       <c r="F14" t="n">
-        <v>280297.87</v>
+        <v>161535.96</v>
       </c>
       <c r="G14" t="n">
-        <v>243400</v>
+        <v>222919.2</v>
       </c>
       <c r="H14" t="n">
-        <v>243400</v>
+        <v>185038.68</v>
       </c>
       <c r="I14" t="n">
-        <v>243400</v>
+        <v>-16548.40999999997</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>239467.61</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2687776141384389</v>
+        <v>0.6580706921115479</v>
       </c>
       <c r="L14" t="n">
-        <v>36897.87</v>
+        <v>178084.37</v>
       </c>
       <c r="M14" t="n">
-        <v>15.1594</v>
+        <v>96.24169999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>易方达消费行业股票</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>110022</t>
+          <t>SH510900</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.754</v>
+        <v>1.289</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4194</v>
+        <v>1.1815</v>
       </c>
       <c r="E15" t="n">
-        <v>29918.77</v>
+        <v>108400</v>
       </c>
       <c r="F15" t="n">
-        <v>172152.6</v>
+        <v>139727.6</v>
       </c>
       <c r="G15" t="n">
-        <v>222919.2</v>
+        <v>172687.68</v>
       </c>
       <c r="H15" t="n">
-        <v>185038.68</v>
+        <v>172687.68</v>
       </c>
       <c r="I15" t="n">
-        <v>-12548.35999999999</v>
+        <v>128076.14</v>
       </c>
       <c r="J15" t="n">
-        <v>235467.56</v>
+        <v>44611.54</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6658288942909082</v>
+        <v>0.33090262381256</v>
       </c>
       <c r="L15" t="n">
-        <v>184700.96</v>
+        <v>11651.46</v>
       </c>
       <c r="M15" t="n">
-        <v>99.8175</v>
+        <v>6.7471</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SH510900</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.246</v>
+        <v>1.932</v>
       </c>
       <c r="D16" t="n">
-        <v>1.1815</v>
+        <v>1.85</v>
       </c>
       <c r="E16" t="n">
-        <v>108400</v>
+        <v>68491.67999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>135066.4</v>
+        <v>132325.93</v>
       </c>
       <c r="G16" t="n">
-        <v>172687.68</v>
+        <v>126709.6</v>
       </c>
       <c r="H16" t="n">
-        <v>172687.68</v>
+        <v>126709.6</v>
       </c>
       <c r="I16" t="n">
-        <v>128076.14</v>
+        <v>126709.6</v>
       </c>
       <c r="J16" t="n">
-        <v>44611.54</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3377153248910539</v>
+        <v>2.991803278688525</v>
       </c>
       <c r="L16" t="n">
-        <v>6990.26</v>
+        <v>5616.33</v>
       </c>
       <c r="M16" t="n">
-        <v>4.0479</v>
+        <v>4.4324</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>易方达证券公司(LOF)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>502010</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.807</v>
+        <v>1.2661</v>
       </c>
       <c r="D17" t="n">
-        <v>1.85</v>
+        <v>1.1314</v>
       </c>
       <c r="E17" t="n">
-        <v>68491.67999999999</v>
+        <v>57016.21</v>
       </c>
       <c r="F17" t="n">
-        <v>123764.47</v>
+        <v>72188.22</v>
       </c>
       <c r="G17" t="n">
-        <v>126709.6</v>
+        <v>64507.2</v>
       </c>
       <c r="H17" t="n">
-        <v>126709.6</v>
+        <v>64507.2</v>
       </c>
       <c r="I17" t="n">
-        <v>126709.6</v>
+        <v>64507.2</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>3.882978723404255</v>
+        <v>0.2633477633477633</v>
       </c>
       <c r="L17" t="n">
-        <v>-2945.13</v>
+        <v>7681.02</v>
       </c>
       <c r="M17" t="n">
-        <v>-2.3243</v>
+        <v>11.9072</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达蓝筹精选混合</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000614</t>
+          <t>005827</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.335</v>
+        <v>3.3015</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0966</v>
+        <v>3.2506</v>
       </c>
       <c r="E18" t="n">
-        <v>64495.66</v>
+        <v>18126.88</v>
       </c>
       <c r="F18" t="n">
-        <v>86101.71000000001</v>
+        <v>59845.89</v>
       </c>
       <c r="G18" t="n">
-        <v>70726.8</v>
+        <v>58923.6</v>
       </c>
       <c r="H18" t="n">
-        <v>70726.8</v>
+        <v>58923.6</v>
       </c>
       <c r="I18" t="n">
-        <v>70726.8</v>
+        <v>58923.6</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2687776141384389</v>
+        <v>7.019230769230769</v>
       </c>
       <c r="L18" t="n">
-        <v>15374.91</v>
+        <v>922.29</v>
       </c>
       <c r="M18" t="n">
-        <v>21.7384</v>
+        <v>1.5652</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>易方达证券公司(LOF)</t>
+          <t>恒生ETF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>502010</t>
+          <t>SZ159920</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.237</v>
+        <v>1.587</v>
       </c>
       <c r="D19" t="n">
-        <v>1.1314</v>
+        <v>1.5175</v>
       </c>
       <c r="E19" t="n">
-        <v>57016.21</v>
+        <v>20800</v>
       </c>
       <c r="F19" t="n">
-        <v>70529.05</v>
+        <v>33009.6</v>
       </c>
       <c r="G19" t="n">
-        <v>64507.2</v>
+        <v>31564</v>
       </c>
       <c r="H19" t="n">
-        <v>64507.2</v>
+        <v>31564</v>
       </c>
       <c r="I19" t="n">
-        <v>64507.2</v>
+        <v>31564</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2687776141384389</v>
+        <v>0.2629682997118156</v>
       </c>
       <c r="L19" t="n">
-        <v>6021.85</v>
+        <v>1445.6</v>
       </c>
       <c r="M19" t="n">
-        <v>9.3352</v>
+        <v>4.5799</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>鹏扬泓利债券C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>006060</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.242</v>
+        <v>1.1009</v>
       </c>
       <c r="D20" t="n">
-        <v>1.8973</v>
+        <v>1.0854</v>
       </c>
       <c r="E20" t="n">
-        <v>29097.24</v>
+        <v>9213.530000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>65236.01</v>
+        <v>10143.18</v>
       </c>
       <c r="G20" t="n">
-        <v>55205.1</v>
+        <v>10000</v>
       </c>
       <c r="H20" t="n">
-        <v>55205.1</v>
+        <v>10000</v>
       </c>
       <c r="I20" t="n">
-        <v>55205.1</v>
+        <v>10000</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2687776141384389</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="L20" t="n">
-        <v>10030.91</v>
+        <v>143.18</v>
       </c>
       <c r="M20" t="n">
-        <v>18.1703</v>
+        <v>1.4318</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>易方达蓝筹精选混合</t>
+          <t>广发趋势优选灵活配置混合C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005827</t>
+          <t>008127</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.3807</v>
+        <v>1.6292</v>
       </c>
       <c r="D21" t="n">
-        <v>3.2359</v>
+        <v>1.6121</v>
       </c>
       <c r="E21" t="n">
-        <v>16979.57</v>
+        <v>6203.21</v>
       </c>
       <c r="F21" t="n">
-        <v>57402.83</v>
+        <v>10106.27</v>
       </c>
       <c r="G21" t="n">
-        <v>54943.6</v>
+        <v>10000</v>
       </c>
       <c r="H21" t="n">
-        <v>54943.6</v>
+        <v>10000</v>
       </c>
       <c r="I21" t="n">
-        <v>54943.6</v>
+        <v>10000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>15.20833333333333</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="L21" t="n">
-        <v>2459.23</v>
+        <v>106.27</v>
       </c>
       <c r="M21" t="n">
-        <v>4.4759</v>
+        <v>1.0627</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>工银瑞信双利债券B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SZ159920</t>
+          <t>485011</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.526</v>
+        <v>1.654</v>
       </c>
       <c r="D22" t="n">
-        <v>1.5175</v>
+        <v>1.644</v>
       </c>
       <c r="E22" t="n">
-        <v>20800</v>
+        <v>6082.76</v>
       </c>
       <c r="F22" t="n">
-        <v>31740.8</v>
+        <v>10060.89</v>
       </c>
       <c r="G22" t="n">
-        <v>31564</v>
+        <v>10000</v>
       </c>
       <c r="H22" t="n">
-        <v>31564</v>
+        <v>10000</v>
       </c>
       <c r="I22" t="n">
-        <v>31564</v>
+        <v>10000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2683823529411765</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="L22" t="n">
-        <v>176.8</v>
+        <v>60.89</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5601</v>
+        <v>0.6089</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>鹏扬泓利债券C</t>
+          <t>东方红策略精选混合C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006060</t>
+          <t>001406</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.09</v>
+        <v>1.2792</v>
       </c>
       <c r="D23" t="n">
-        <v>1.0854</v>
+        <v>1.2719</v>
       </c>
       <c r="E23" t="n">
-        <v>9213.530000000001</v>
+        <v>7862.35</v>
       </c>
       <c r="F23" t="n">
-        <v>10042.75</v>
+        <v>10057.52</v>
       </c>
       <c r="G23" t="n">
         <v>10000</v>
@@ -1476,253 +1476,253 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.367647058823529</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="L23" t="n">
-        <v>42.75</v>
+        <v>57.52</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4275</v>
+        <v>0.5752</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>广发趋势优选灵活配置混合C</t>
+          <t>南方安裕混合C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008127</t>
+          <t>006586</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.6146</v>
+        <v>1.1457</v>
       </c>
       <c r="D24" t="n">
-        <v>1.6121</v>
+        <v>1.1435</v>
       </c>
       <c r="E24" t="n">
-        <v>6203.21</v>
+        <v>5246.91</v>
       </c>
       <c r="F24" t="n">
-        <v>10015.7</v>
+        <v>6011.38</v>
       </c>
       <c r="G24" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="H24" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="I24" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>5.367647058823529</v>
+        <v>5.53030303030303</v>
       </c>
       <c r="L24" t="n">
-        <v>15.7</v>
+        <v>11.38</v>
       </c>
       <c r="M24" t="n">
-        <v>0.157</v>
+        <v>0.1897</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>工银瑞信双利债券B</t>
+          <t>南方宝元债券C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>485011</t>
+          <t>006585</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.644</v>
+        <v>2.523</v>
       </c>
       <c r="D25" t="n">
-        <v>1.644</v>
+        <v>2.4932</v>
       </c>
       <c r="E25" t="n">
-        <v>6082.76</v>
+        <v>1604.37</v>
       </c>
       <c r="F25" t="n">
-        <v>10000.06</v>
+        <v>4047.83</v>
       </c>
       <c r="G25" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="H25" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="I25" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>5.367647058823529</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06</v>
+        <v>47.83</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0005999999999999999</v>
+        <v>1.1957</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>东方红策略精选混合C</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001406</t>
+          <t>000614</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.2702</v>
+        <v>1.343</v>
       </c>
       <c r="D26" t="n">
-        <v>1.2719</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7862.35</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>9986.76</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>10000</v>
+        <v>70726.8</v>
       </c>
       <c r="H26" t="n">
-        <v>10000</v>
+        <v>70726.8</v>
       </c>
       <c r="I26" t="n">
-        <v>10000</v>
+        <v>-15651.95999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>86378.75999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>5.367647058823529</v>
+        <v>0.5849748304107896</v>
       </c>
       <c r="L26" t="n">
-        <v>-13.24</v>
+        <v>15651.96</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.1324</v>
+        <v>22.1302</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>南方安裕混合C</t>
+          <t>华宝油气</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>006586</t>
+          <t>SZ162411</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.146</v>
+        <v>0.373</v>
       </c>
       <c r="D27" t="n">
-        <v>1.1435</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>5246.91</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>6012.96</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>6000</v>
+        <v>88009.94</v>
       </c>
       <c r="H27" t="n">
-        <v>6000</v>
+        <v>88009.94</v>
       </c>
       <c r="I27" t="n">
-        <v>6000</v>
+        <v>-8595.399999999994</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>96605.34</v>
       </c>
       <c r="K27" t="n">
-        <v>9.605263157894736</v>
+        <v>0.7024287600641805</v>
       </c>
       <c r="L27" t="n">
-        <v>12.96</v>
+        <v>8595.4</v>
       </c>
       <c r="M27" t="n">
-        <v>0.216</v>
+        <v>9.766400000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>南方宝元债券C</t>
+          <t>德国30ETF</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>006585</t>
+          <t>SH513030</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.5149</v>
+        <v>1.131</v>
       </c>
       <c r="D28" t="n">
-        <v>2.4932</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1604.37</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4034.83</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4000</v>
+        <v>16212</v>
       </c>
       <c r="H28" t="n">
-        <v>4000</v>
+        <v>16212</v>
       </c>
       <c r="I28" t="n">
-        <v>4000</v>
+        <v>-2954.880000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>19166.88</v>
       </c>
       <c r="K28" t="n">
-        <v>5.367647058823529</v>
+        <v>0.573866513650898</v>
       </c>
       <c r="L28" t="n">
-        <v>34.83</v>
+        <v>2954.88</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8708</v>
+        <v>18.2265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>广发中证100ETF联接C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SZ159915</t>
+          <t>007136</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3.084</v>
+        <v>1.5243</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1734,130 +1734,130 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>117972.4</v>
+        <v>30000</v>
       </c>
       <c r="H29" t="n">
-        <v>117972.4</v>
+        <v>30000</v>
       </c>
       <c r="I29" t="n">
-        <v>-112052.6</v>
+        <v>-59.91999999999825</v>
       </c>
       <c r="J29" t="n">
-        <v>230025</v>
+        <v>30059.92</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7916797575484756</v>
+        <v>4.744993679653679</v>
       </c>
       <c r="L29" t="n">
-        <v>112052.6</v>
+        <v>59.92</v>
       </c>
       <c r="M29" t="n">
-        <v>94.982</v>
+        <v>0.1997</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SH510050</t>
+          <t>161017</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.875</v>
+        <v>2.337</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G30" t="n">
-        <v>76822.3</v>
+        <v>55205.1</v>
       </c>
       <c r="H30" t="n">
-        <v>76822.3</v>
+        <v>55205.1</v>
       </c>
       <c r="I30" t="n">
-        <v>-24895.92999999999</v>
+        <v>-12455.15</v>
       </c>
       <c r="J30" t="n">
-        <v>101718.23</v>
+        <v>67660.25</v>
       </c>
       <c r="K30" t="n">
-        <v>0.6237398195154884</v>
+        <v>0.5861109773452112</v>
       </c>
       <c r="L30" t="n">
-        <v>24895.93</v>
+        <v>12455.15</v>
       </c>
       <c r="M30" t="n">
-        <v>32.4072</v>
+        <v>22.5616</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>340001</t>
+          <t>SH510050</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.1767</v>
+        <v>3.873</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>211467.6</v>
+        <v>76822.3</v>
       </c>
       <c r="H31" t="n">
-        <v>211467.6</v>
+        <v>76822.3</v>
       </c>
       <c r="I31" t="n">
-        <v>-51549.76999999999</v>
+        <v>-24895.92999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>263017.37</v>
+        <v>101718.23</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6030755452899108</v>
+        <v>0.6111571718595563</v>
       </c>
       <c r="L31" t="n">
-        <v>51549.77</v>
+        <v>24895.93</v>
       </c>
       <c r="M31" t="n">
-        <v>24.3771</v>
+        <v>32.4072</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>德国30ETF</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SH513030</t>
+          <t>SZ159915</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.142</v>
+        <v>3.032</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1869,40 +1869,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>16212</v>
+        <v>117972.4</v>
       </c>
       <c r="H32" t="n">
-        <v>16212</v>
+        <v>117972.4</v>
       </c>
       <c r="I32" t="n">
-        <v>-2954.880000000001</v>
+        <v>-112052.6</v>
       </c>
       <c r="J32" t="n">
-        <v>19166.88</v>
+        <v>230025</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5856814124613576</v>
+        <v>0.7757092725258838</v>
       </c>
       <c r="L32" t="n">
-        <v>2954.88</v>
+        <v>112052.6</v>
       </c>
       <c r="M32" t="n">
-        <v>18.2265</v>
+        <v>94.982</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>华宝油气</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SZ162411</t>
+          <t>000478</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.339</v>
+        <v>2.8214</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1914,70 +1914,70 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>88009.94</v>
+        <v>976159.2</v>
       </c>
       <c r="H33" t="n">
-        <v>88009.94</v>
+        <v>696985</v>
       </c>
       <c r="I33" t="n">
-        <v>-8595.399999999994</v>
+        <v>-90684.41000000015</v>
       </c>
       <c r="J33" t="n">
-        <v>96605.34</v>
+        <v>1066843.61</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7209485390489235</v>
+        <v>0.7719251067479148</v>
       </c>
       <c r="L33" t="n">
-        <v>8595.4</v>
+        <v>90684.41</v>
       </c>
       <c r="M33" t="n">
-        <v>9.766400000000001</v>
+        <v>13.011</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>广发中证100ETF联接C</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>007136</t>
+          <t>340001</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.5265</v>
+        <v>1.2251</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G34" t="n">
-        <v>30000</v>
+        <v>211467.6</v>
       </c>
       <c r="H34" t="n">
-        <v>30000</v>
+        <v>211467.6</v>
       </c>
       <c r="I34" t="n">
-        <v>-59.91999999999825</v>
+        <v>-51549.76999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>30059.92</v>
+        <v>263017.37</v>
       </c>
       <c r="K34" t="n">
-        <v>5.799436719576719</v>
+        <v>0.5908922009406197</v>
       </c>
       <c r="L34" t="n">
-        <v>59.92</v>
+        <v>51549.77</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1997</v>
+        <v>24.3771</v>
       </c>
     </row>
     <row r="35">
@@ -2016,7 +2016,7 @@
         <v>216913.47</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5978722540463277</v>
+        <v>0.5857940266918564</v>
       </c>
       <c r="L35" t="n">
         <v>39756.27</v>

--- a/inv_analysis/report.xlsx
+++ b/inv_analysis/report.xlsx
@@ -516,28 +516,28 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>4285818.109999999</v>
+        <v>4213872.26</v>
       </c>
       <c r="G2" t="n">
-        <v>7001010.03</v>
+        <v>7176067.73</v>
       </c>
       <c r="H2" t="n">
         <v>5475932.48</v>
       </c>
       <c r="I2" t="n">
-        <v>2701146.3</v>
+        <v>2694996.73</v>
       </c>
       <c r="J2" t="n">
-        <v>4299863.73</v>
+        <v>4481071</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4493004229162484</v>
+        <v>0.4463922301038488</v>
       </c>
       <c r="L2" t="n">
-        <v>1584671.81</v>
+        <v>1518875.53</v>
       </c>
       <c r="M2" t="n">
-        <v>28.9388</v>
+        <v>27.7373</v>
       </c>
     </row>
     <row r="3">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.199</v>
+        <v>1.186</v>
       </c>
       <c r="D3" t="n">
         <v>1.0161</v>
@@ -561,7 +561,7 @@
         <v>508458.86</v>
       </c>
       <c r="F3" t="n">
-        <v>609642.17</v>
+        <v>603032.21</v>
       </c>
       <c r="G3" t="n">
         <v>653308.6</v>
@@ -576,13 +576,13 @@
         <v>136662.31</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3170635756822159</v>
+        <v>0.3148020665831986</v>
       </c>
       <c r="L3" t="n">
-        <v>92995.88</v>
+        <v>86385.92</v>
       </c>
       <c r="M3" t="n">
-        <v>14.2346</v>
+        <v>13.2228</v>
       </c>
     </row>
     <row r="4">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.32</v>
+        <v>1.3003</v>
       </c>
       <c r="D4" t="n">
         <v>0.8595</v>
@@ -606,7 +606,7 @@
         <v>357620.64</v>
       </c>
       <c r="F4" t="n">
-        <v>472059.24</v>
+        <v>465014.12</v>
       </c>
       <c r="G4" t="n">
         <v>618155.4</v>
@@ -621,238 +621,238 @@
         <v>310765.49</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3940349017977843</v>
+        <v>0.391224381813492</v>
       </c>
       <c r="L4" t="n">
-        <v>164669.33</v>
+        <v>157624.21</v>
       </c>
       <c r="M4" t="n">
-        <v>26.6388</v>
+        <v>25.4991</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>中证100ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001180</t>
+          <t>SH512910</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.2881</v>
+        <v>1.551</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3691</v>
+        <v>1.6293</v>
       </c>
       <c r="E5" t="n">
-        <v>294326.51</v>
+        <v>203900</v>
       </c>
       <c r="F5" t="n">
-        <v>379121.98</v>
+        <v>316248.9</v>
       </c>
       <c r="G5" t="n">
-        <v>496666</v>
+        <v>332206.6</v>
       </c>
       <c r="H5" t="n">
-        <v>480892</v>
+        <v>332206.6</v>
       </c>
       <c r="I5" t="n">
-        <v>108649.83</v>
+        <v>332206.6</v>
       </c>
       <c r="J5" t="n">
-        <v>388016.17</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4823845075622639</v>
+        <v>26.07142857142857</v>
       </c>
       <c r="L5" t="n">
-        <v>270472.15</v>
+        <v>-15957.7</v>
       </c>
       <c r="M5" t="n">
-        <v>56.2438</v>
+        <v>-4.8035</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>中证100ETF</t>
+          <t>中欧价值发现混合A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SH512910</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.597</v>
+        <v>2.075</v>
       </c>
       <c r="D6" t="n">
-        <v>1.6293</v>
+        <v>1.662</v>
       </c>
       <c r="E6" t="n">
-        <v>203900</v>
+        <v>146453.77</v>
       </c>
       <c r="F6" t="n">
-        <v>325628.3</v>
+        <v>303891.57</v>
       </c>
       <c r="G6" t="n">
-        <v>332206.6</v>
+        <v>243400</v>
       </c>
       <c r="H6" t="n">
-        <v>332206.6</v>
+        <v>243400</v>
       </c>
       <c r="I6" t="n">
-        <v>332206.6</v>
+        <v>243400</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>91.25</v>
+        <v>0.2603423680456491</v>
       </c>
       <c r="L6" t="n">
-        <v>-6578.3</v>
+        <v>60491.57</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.9802</v>
+        <v>24.8527</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001469</t>
+          <t>SH512980</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.2201</v>
+        <v>0.845</v>
       </c>
       <c r="D7" t="n">
-        <v>1.101</v>
+        <v>0.8778</v>
       </c>
       <c r="E7" t="n">
-        <v>258053.33</v>
+        <v>359200</v>
       </c>
       <c r="F7" t="n">
-        <v>314850.87</v>
+        <v>303524</v>
       </c>
       <c r="G7" t="n">
-        <v>284108.9</v>
+        <v>315322.73</v>
       </c>
       <c r="H7" t="n">
-        <v>284108.9</v>
+        <v>315322.73</v>
       </c>
       <c r="I7" t="n">
-        <v>284108.9</v>
+        <v>315322.73</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2622126436781609</v>
+        <v>0.25997150997151</v>
       </c>
       <c r="L7" t="n">
-        <v>30741.97</v>
+        <v>-11798.73</v>
       </c>
       <c r="M7" t="n">
-        <v>10.8205</v>
+        <v>-3.7418</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SH512980</t>
+          <t>001469</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.848</v>
+        <v>1.1758</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8778</v>
+        <v>1.101</v>
       </c>
       <c r="E8" t="n">
-        <v>359200</v>
+        <v>258053.33</v>
       </c>
       <c r="F8" t="n">
-        <v>304601.6</v>
+        <v>303419.11</v>
       </c>
       <c r="G8" t="n">
-        <v>315322.73</v>
+        <v>284108.9</v>
       </c>
       <c r="H8" t="n">
-        <v>315322.73</v>
+        <v>284108.9</v>
       </c>
       <c r="I8" t="n">
-        <v>315322.73</v>
+        <v>284108.9</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2618364418938307</v>
+        <v>0.2603423680456491</v>
       </c>
       <c r="L8" t="n">
-        <v>-10721.13</v>
+        <v>19310.21</v>
       </c>
       <c r="M8" t="n">
-        <v>-3.4</v>
+        <v>6.7968</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>中欧价值发现混合A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>001064</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.0704</v>
+        <v>0.9239000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>1.662</v>
+        <v>0.4004</v>
       </c>
       <c r="E9" t="n">
-        <v>146453.77</v>
+        <v>303649.3</v>
       </c>
       <c r="F9" t="n">
-        <v>303217.89</v>
+        <v>280541.59</v>
       </c>
       <c r="G9" t="n">
-        <v>243400</v>
+        <v>323557.7</v>
       </c>
       <c r="H9" t="n">
-        <v>243400</v>
+        <v>323557.7</v>
       </c>
       <c r="I9" t="n">
-        <v>243400</v>
+        <v>121568.27</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>201989.43</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2622126436781609</v>
+        <v>0.4228679593896068</v>
       </c>
       <c r="L9" t="n">
-        <v>59817.89</v>
+        <v>158973.32</v>
       </c>
       <c r="M9" t="n">
-        <v>24.576</v>
+        <v>49.1329</v>
       </c>
     </row>
     <row r="10">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.7599</v>
+        <v>3.6824</v>
       </c>
       <c r="D10" t="n">
         <v>1.928</v>
@@ -876,7 +876,7 @@
         <v>75401.7</v>
       </c>
       <c r="F10" t="n">
-        <v>283502.85</v>
+        <v>277659.22</v>
       </c>
       <c r="G10" t="n">
         <v>226649.6</v>
@@ -891,283 +891,283 @@
         <v>81272.49000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3562374046360752</v>
+        <v>0.3536964816358179</v>
       </c>
       <c r="L10" t="n">
-        <v>138125.74</v>
+        <v>132282.11</v>
       </c>
       <c r="M10" t="n">
-        <v>60.9424</v>
+        <v>58.3641</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>汇添富价值精选混合A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001064</t>
+          <t>519069</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9043</v>
+        <v>4.055</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4004</v>
+        <v>1.8758</v>
       </c>
       <c r="E11" t="n">
-        <v>303649.3</v>
+        <v>65660.31</v>
       </c>
       <c r="F11" t="n">
-        <v>274590.06</v>
+        <v>266252.56</v>
       </c>
       <c r="G11" t="n">
-        <v>323557.7</v>
+        <v>218819.8</v>
       </c>
       <c r="H11" t="n">
-        <v>323557.7</v>
+        <v>218819.8</v>
       </c>
       <c r="I11" t="n">
-        <v>121568.27</v>
+        <v>123166.41</v>
       </c>
       <c r="J11" t="n">
-        <v>201989.43</v>
+        <v>95653.39</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4259058039254516</v>
+        <v>0.3741466493044475</v>
       </c>
       <c r="L11" t="n">
-        <v>153021.79</v>
+        <v>143086.15</v>
       </c>
       <c r="M11" t="n">
-        <v>47.2935</v>
+        <v>65.3899</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>汇添富价值精选混合A</t>
+          <t>中欧医疗健康混合A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519069</t>
+          <t>003095</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.159</v>
+        <v>3.421</v>
       </c>
       <c r="D12" t="n">
-        <v>1.8758</v>
+        <v>3.4833</v>
       </c>
       <c r="E12" t="n">
-        <v>65660.31</v>
+        <v>74824.5</v>
       </c>
       <c r="F12" t="n">
-        <v>273081.23</v>
+        <v>255974.61</v>
       </c>
       <c r="G12" t="n">
-        <v>218819.8</v>
+        <v>260635.2</v>
       </c>
       <c r="H12" t="n">
-        <v>218819.8</v>
+        <v>260635.2</v>
       </c>
       <c r="I12" t="n">
-        <v>123166.41</v>
+        <v>260635.2</v>
       </c>
       <c r="J12" t="n">
-        <v>95653.39</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3768344844287611</v>
+        <v>36.5</v>
       </c>
       <c r="L12" t="n">
-        <v>149914.82</v>
+        <v>-4660.59</v>
       </c>
       <c r="M12" t="n">
-        <v>68.5106</v>
+        <v>-1.7882</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>易方达消费行业股票</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>110022</t>
+          <t>001180</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.259</v>
+        <v>1.2664</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.752</v>
+        <v>-0.4572</v>
       </c>
       <c r="E13" t="n">
-        <v>28373.67</v>
+        <v>154326.51</v>
       </c>
       <c r="F13" t="n">
-        <v>149217.13</v>
+        <v>195439.09</v>
       </c>
       <c r="G13" t="n">
-        <v>222919.2</v>
+        <v>496666</v>
       </c>
       <c r="H13" t="n">
-        <v>185038.68</v>
+        <v>480892</v>
       </c>
       <c r="I13" t="n">
-        <v>-21336.91999999998</v>
+        <v>-70557.17000000004</v>
       </c>
       <c r="J13" t="n">
-        <v>244256.12</v>
+        <v>567223.17</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6620198313044107</v>
+        <v>0.5759618081729787</v>
       </c>
       <c r="L13" t="n">
-        <v>170554.05</v>
+        <v>265996.26</v>
       </c>
       <c r="M13" t="n">
-        <v>92.1721</v>
+        <v>55.3131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>易方达消费行业股票</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SH510900</t>
+          <t>110022</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.26</v>
+        <v>5.077</v>
       </c>
       <c r="D14" t="n">
-        <v>1.1815</v>
+        <v>-0.8339</v>
       </c>
       <c r="E14" t="n">
-        <v>108400</v>
+        <v>27986.17</v>
       </c>
       <c r="F14" t="n">
-        <v>136584</v>
+        <v>142085.79</v>
       </c>
       <c r="G14" t="n">
-        <v>172687.68</v>
+        <v>222919.2</v>
       </c>
       <c r="H14" t="n">
-        <v>172687.68</v>
+        <v>185038.68</v>
       </c>
       <c r="I14" t="n">
-        <v>128076.14</v>
+        <v>-23337.19</v>
       </c>
       <c r="J14" t="n">
-        <v>44611.54</v>
+        <v>246256.39</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3294783657473697</v>
+        <v>0.6601121675198643</v>
       </c>
       <c r="L14" t="n">
-        <v>8507.860000000001</v>
+        <v>165422.98</v>
       </c>
       <c r="M14" t="n">
-        <v>4.9267</v>
+        <v>89.3991</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>SH510900</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.924</v>
+        <v>1.23</v>
       </c>
       <c r="D15" t="n">
-        <v>1.85</v>
+        <v>1.1815</v>
       </c>
       <c r="E15" t="n">
-        <v>68491.67999999999</v>
+        <v>108400</v>
       </c>
       <c r="F15" t="n">
-        <v>131777.99</v>
+        <v>133332</v>
       </c>
       <c r="G15" t="n">
-        <v>126709.6</v>
+        <v>172687.68</v>
       </c>
       <c r="H15" t="n">
-        <v>126709.6</v>
+        <v>172687.68</v>
       </c>
       <c r="I15" t="n">
-        <v>126709.6</v>
+        <v>128076.14</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44611.54</v>
       </c>
       <c r="K15" t="n">
-        <v>2.8515625</v>
+        <v>0.327131653740622</v>
       </c>
       <c r="L15" t="n">
-        <v>5068.39</v>
+        <v>5255.86</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3.0436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>中欧医疗健康混合A</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003095</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.523</v>
+        <v>1.906</v>
       </c>
       <c r="D16" t="n">
-        <v>3.523</v>
+        <v>1.85</v>
       </c>
       <c r="E16" t="n">
-        <v>24855.98</v>
+        <v>68491.67999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>87567.62</v>
+        <v>130545.14</v>
       </c>
       <c r="G16" t="n">
-        <v>87567.60000000001</v>
+        <v>126709.6</v>
       </c>
       <c r="H16" t="n">
-        <v>87567.60000000001</v>
+        <v>126709.6</v>
       </c>
       <c r="I16" t="n">
-        <v>87567.60000000001</v>
+        <v>126709.6</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.644927536231884</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02</v>
+        <v>3835.54</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>3.027</v>
       </c>
     </row>
     <row r="17">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.2536</v>
+        <v>1.2127</v>
       </c>
       <c r="D17" t="n">
         <v>1.1314</v>
@@ -1191,7 +1191,7 @@
         <v>57016.21</v>
       </c>
       <c r="F17" t="n">
-        <v>71475.52</v>
+        <v>69143.56</v>
       </c>
       <c r="G17" t="n">
         <v>64507.2</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2622126436781609</v>
+        <v>0.2603423680456491</v>
       </c>
       <c r="L17" t="n">
-        <v>6968.32</v>
+        <v>4636.36</v>
       </c>
       <c r="M17" t="n">
-        <v>10.8024</v>
+        <v>7.1874</v>
       </c>
     </row>
     <row r="18">
@@ -1227,37 +1227,37 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.1122</v>
+        <v>3.0117</v>
       </c>
       <c r="D18" t="n">
-        <v>3.2542</v>
+        <v>3.2481</v>
       </c>
       <c r="E18" t="n">
-        <v>19600.7</v>
+        <v>20249.89</v>
       </c>
       <c r="F18" t="n">
-        <v>61001.3</v>
+        <v>60986.59</v>
       </c>
       <c r="G18" t="n">
-        <v>63784.1</v>
+        <v>65774.2</v>
       </c>
       <c r="H18" t="n">
-        <v>63784.1</v>
+        <v>65774.2</v>
       </c>
       <c r="I18" t="n">
-        <v>63784.1</v>
+        <v>65774.2</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>6.293103448275862</v>
+        <v>5.367647058823529</v>
       </c>
       <c r="L18" t="n">
-        <v>-2782.8</v>
+        <v>-4787.61</v>
       </c>
       <c r="M18" t="n">
-        <v>-4.3628</v>
+        <v>-7.2789</v>
       </c>
     </row>
     <row r="19">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.564</v>
+        <v>1.514</v>
       </c>
       <c r="D19" t="n">
         <v>1.5175</v>
@@ -1281,7 +1281,7 @@
         <v>20800</v>
       </c>
       <c r="F19" t="n">
-        <v>32531.2</v>
+        <v>31491.2</v>
       </c>
       <c r="G19" t="n">
         <v>31564</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2618364418938307</v>
+        <v>0.25997150997151</v>
       </c>
       <c r="L19" t="n">
-        <v>967.2</v>
+        <v>-72.8</v>
       </c>
       <c r="M19" t="n">
-        <v>3.0643</v>
+        <v>-0.2306</v>
       </c>
     </row>
     <row r="20">
@@ -1341,7 +1341,7 @@
         <v>86378.75999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6380169547819393</v>
+        <v>0.6334661919090296</v>
       </c>
       <c r="L20" t="n">
         <v>15764.13</v>
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.1014</v>
+        <v>1.0995</v>
       </c>
       <c r="D21" t="n">
         <v>1.0881</v>
@@ -1371,7 +1371,7 @@
         <v>11028.74</v>
       </c>
       <c r="F21" t="n">
-        <v>12147.05</v>
+        <v>12126.1</v>
       </c>
       <c r="G21" t="n">
         <v>12000</v>
@@ -1386,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>3.57843137254902</v>
+        <v>3.258928571428572</v>
       </c>
       <c r="L21" t="n">
-        <v>147.05</v>
+        <v>126.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.2254</v>
+        <v>1.0508</v>
       </c>
     </row>
     <row r="22">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.6224</v>
+        <v>1.6242</v>
       </c>
       <c r="D22" t="n">
         <v>1.6147</v>
@@ -1416,7 +1416,7 @@
         <v>7431.56</v>
       </c>
       <c r="F22" t="n">
-        <v>12056.96</v>
+        <v>12070.34</v>
       </c>
       <c r="G22" t="n">
         <v>12000</v>
@@ -1431,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.57843137254902</v>
+        <v>3.258928571428572</v>
       </c>
       <c r="L22" t="n">
-        <v>56.96</v>
+        <v>70.34</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4747</v>
+        <v>0.5862000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.2772</v>
+        <v>1.2755</v>
       </c>
       <c r="D23" t="n">
         <v>1.2729</v>
@@ -1461,7 +1461,7 @@
         <v>9427.66</v>
       </c>
       <c r="F23" t="n">
-        <v>12041.01</v>
+        <v>12024.98</v>
       </c>
       <c r="G23" t="n">
         <v>12000</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>3.57843137254902</v>
+        <v>3.258928571428572</v>
       </c>
       <c r="L23" t="n">
-        <v>41.01</v>
+        <v>24.98</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3417</v>
+        <v>0.2082</v>
       </c>
     </row>
     <row r="24">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.648</v>
+        <v>1.645</v>
       </c>
       <c r="D24" t="n">
         <v>1.6455</v>
@@ -1506,7 +1506,7 @@
         <v>7292.68</v>
       </c>
       <c r="F24" t="n">
-        <v>12018.34</v>
+        <v>11996.46</v>
       </c>
       <c r="G24" t="n">
         <v>12000</v>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>3.57843137254902</v>
+        <v>3.258928571428572</v>
       </c>
       <c r="L24" t="n">
-        <v>18.34</v>
+        <v>-3.54</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1528</v>
+        <v>-0.0295</v>
       </c>
     </row>
     <row r="25">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.1411</v>
+        <v>1.1391</v>
       </c>
       <c r="D25" t="n">
         <v>1.1438</v>
@@ -1551,7 +1551,7 @@
         <v>6994.4</v>
       </c>
       <c r="F25" t="n">
-        <v>7981.31</v>
+        <v>7967.32</v>
       </c>
       <c r="G25" t="n">
         <v>8000</v>
@@ -1566,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>5.069444444444445</v>
+        <v>4.451219512195122</v>
       </c>
       <c r="L25" t="n">
-        <v>-18.69</v>
+        <v>-32.68</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.2336</v>
+        <v>-0.4085</v>
       </c>
     </row>
     <row r="26">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.5076</v>
+        <v>2.4972</v>
       </c>
       <c r="D26" t="n">
         <v>2.4932</v>
@@ -1596,7 +1596,7 @@
         <v>1604.37</v>
       </c>
       <c r="F26" t="n">
-        <v>4023.12</v>
+        <v>4006.43</v>
       </c>
       <c r="G26" t="n">
         <v>4000</v>
@@ -1611,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>3.57843137254902</v>
+        <v>3.258928571428572</v>
       </c>
       <c r="L26" t="n">
-        <v>23.12</v>
+        <v>6.43</v>
       </c>
       <c r="M26" t="n">
-        <v>0.578</v>
+        <v>0.1608</v>
       </c>
     </row>
     <row r="27">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.7368</v>
+        <v>2.7091</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>1066843.61</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7685978433567601</v>
+        <v>0.7631156904084236</v>
       </c>
       <c r="L27" t="n">
         <v>90684.41</v>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.878</v>
+        <v>2.859</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>230025</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7723704951692445</v>
+        <v>0.7668692808161872</v>
       </c>
       <c r="L28" t="n">
         <v>112052.6</v>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.2062</v>
+        <v>1.1998</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>263017.37</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5883452517986342</v>
+        <v>0.584148780673109</v>
       </c>
       <c r="L29" t="n">
         <v>51549.77</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.843</v>
+        <v>3.707</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>101718.23</v>
       </c>
       <c r="K30" t="n">
-        <v>0.6085266531858423</v>
+        <v>0.6041924177642908</v>
       </c>
       <c r="L30" t="n">
         <v>24895.93</v>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.288</v>
+        <v>2.266</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>67660.25</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5835846369256198</v>
+        <v>0.5794221216836396</v>
       </c>
       <c r="L31" t="n">
         <v>12455.15</v>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.4996</v>
+        <v>1.4598</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>30059.92</v>
       </c>
       <c r="K32" t="n">
-        <v>4.567056416666667</v>
+        <v>4.298406039215686</v>
       </c>
       <c r="L32" t="n">
         <v>59.92</v>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.15</v>
+        <v>1.135</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>19166.88</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5713964999623001</v>
+        <v>0.567326724321543</v>
       </c>
       <c r="L33" t="n">
         <v>2954.88</v>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.403</v>
+        <v>0.389</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>96605.34</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6985833471441212</v>
+        <v>0.6922670420162358</v>
       </c>
       <c r="L34" t="n">
         <v>8595.4</v>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.662</v>
+        <v>0.654</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>332315.8</v>
       </c>
       <c r="K35" t="n">
-        <v>12.11988035777695</v>
+        <v>10.33754501104504</v>
       </c>
       <c r="L35" t="n">
         <v>-26595.78</v>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.1551</v>
+        <v>1.1513</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>285932.16</v>
       </c>
       <c r="K36" t="n">
-        <v>5.743729842235741</v>
+        <v>5.339241825176886</v>
       </c>
       <c r="L36" t="n">
         <v>20488.16</v>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.052</v>
+        <v>2.053</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>216913.47</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5832690524388743</v>
+        <v>0.5791087881561433</v>
       </c>
       <c r="L37" t="n">
         <v>39756.27</v>

--- a/inv_analysis/report.xlsx
+++ b/inv_analysis/report.xlsx
@@ -516,7 +516,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>3980016.91</v>
+        <v>3802018.55</v>
       </c>
       <c r="G2" t="n">
         <v>7272100.73</v>
@@ -525,19 +525,19 @@
         <v>5475932.48</v>
       </c>
       <c r="I2" t="n">
-        <v>2597106.59</v>
+        <v>2485609.25</v>
       </c>
       <c r="J2" t="n">
-        <v>4674994.14</v>
+        <v>4786491.48</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4431513235954956</v>
+        <v>0.4433871447645504</v>
       </c>
       <c r="L2" t="n">
-        <v>1382910.32</v>
+        <v>1316409.3</v>
       </c>
       <c r="M2" t="n">
-        <v>25.2543</v>
+        <v>24.0399</v>
       </c>
     </row>
     <row r="3">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.091</v>
+        <v>1.062</v>
       </c>
       <c r="D3" t="n">
         <v>0.9177</v>
@@ -561,7 +561,7 @@
         <v>562953.52</v>
       </c>
       <c r="F3" t="n">
-        <v>614182.29</v>
+        <v>597856.64</v>
       </c>
       <c r="G3" t="n">
         <v>653308.6</v>
@@ -576,553 +576,553 @@
         <v>136662.31</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3086381100347165</v>
+        <v>0.3052230272127556</v>
       </c>
       <c r="L3" t="n">
-        <v>97536</v>
+        <v>81210.35000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>14.9295</v>
+        <v>12.4306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>中欧医疗健康混合A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000968</t>
+          <t>003095</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.2237</v>
+        <v>3.151</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7473</v>
+        <v>3.468</v>
       </c>
       <c r="E4" t="n">
-        <v>270462.64</v>
+        <v>102846.38</v>
       </c>
       <c r="F4" t="n">
-        <v>330965.13</v>
+        <v>324068.94</v>
       </c>
       <c r="G4" t="n">
-        <v>618155.4</v>
+        <v>356668.2</v>
       </c>
       <c r="H4" t="n">
-        <v>618155.4</v>
+        <v>356668.2</v>
       </c>
       <c r="I4" t="n">
-        <v>202114.77</v>
+        <v>356668.2</v>
       </c>
       <c r="J4" t="n">
-        <v>416040.63</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.427033578534536</v>
+        <v>6.75925925925926</v>
       </c>
       <c r="L4" t="n">
-        <v>128850.36</v>
+        <v>-32599.26</v>
       </c>
       <c r="M4" t="n">
-        <v>20.8443</v>
+        <v>-9.139900000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>中欧医疗健康混合A</t>
+          <t>中欧价值发现混合A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003095</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.119</v>
+        <v>2.0758</v>
       </c>
       <c r="D5" t="n">
-        <v>3.468</v>
+        <v>1.662</v>
       </c>
       <c r="E5" t="n">
-        <v>102846.38</v>
+        <v>146453.77</v>
       </c>
       <c r="F5" t="n">
-        <v>320777.86</v>
+        <v>304008.74</v>
       </c>
       <c r="G5" t="n">
-        <v>356668.2</v>
+        <v>243400</v>
       </c>
       <c r="H5" t="n">
-        <v>356668.2</v>
+        <v>243400</v>
       </c>
       <c r="I5" t="n">
-        <v>356668.2</v>
+        <v>243400</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>9.605263157894736</v>
+        <v>0.2524204702627939</v>
       </c>
       <c r="L5" t="n">
-        <v>-35890.34</v>
+        <v>60608.74</v>
       </c>
       <c r="M5" t="n">
-        <v>-10.0627</v>
+        <v>24.9009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>中欧价值发现混合A</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>001469</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.1293</v>
+        <v>1.1589</v>
       </c>
       <c r="D6" t="n">
-        <v>1.662</v>
+        <v>1.101</v>
       </c>
       <c r="E6" t="n">
-        <v>146453.77</v>
+        <v>258053.33</v>
       </c>
       <c r="F6" t="n">
-        <v>311844.01</v>
+        <v>299058</v>
       </c>
       <c r="G6" t="n">
-        <v>243400</v>
+        <v>284108.9</v>
       </c>
       <c r="H6" t="n">
-        <v>243400</v>
+        <v>284108.9</v>
       </c>
       <c r="I6" t="n">
-        <v>243400</v>
+        <v>284108.9</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2552447552447553</v>
+        <v>0.2524204702627939</v>
       </c>
       <c r="L6" t="n">
-        <v>68444.00999999999</v>
+        <v>14949.1</v>
       </c>
       <c r="M6" t="n">
-        <v>28.12</v>
+        <v>5.2617</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>中证100ETF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001469</t>
+          <t>SH512910</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1932</v>
+        <v>1.444</v>
       </c>
       <c r="D7" t="n">
-        <v>1.101</v>
+        <v>1.6293</v>
       </c>
       <c r="E7" t="n">
-        <v>258053.33</v>
+        <v>203900</v>
       </c>
       <c r="F7" t="n">
-        <v>307909.23</v>
+        <v>294431.6</v>
       </c>
       <c r="G7" t="n">
-        <v>284108.9</v>
+        <v>332206.6</v>
       </c>
       <c r="H7" t="n">
-        <v>284108.9</v>
+        <v>332206.6</v>
       </c>
       <c r="I7" t="n">
-        <v>284108.9</v>
+        <v>332206.6</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2552447552447553</v>
+        <v>6.293103448275862</v>
       </c>
       <c r="L7" t="n">
-        <v>23800.33</v>
+        <v>-37775</v>
       </c>
       <c r="M7" t="n">
-        <v>8.3772</v>
+        <v>-11.3709</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>中证100ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SH512910</t>
+          <t>SH512980</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.489</v>
+        <v>0.803</v>
       </c>
       <c r="D8" t="n">
-        <v>1.6293</v>
+        <v>0.8778</v>
       </c>
       <c r="E8" t="n">
-        <v>203900</v>
+        <v>359200</v>
       </c>
       <c r="F8" t="n">
-        <v>303607.1</v>
+        <v>288437.6</v>
       </c>
       <c r="G8" t="n">
-        <v>332206.6</v>
+        <v>315322.73</v>
       </c>
       <c r="H8" t="n">
-        <v>332206.6</v>
+        <v>315322.73</v>
       </c>
       <c r="I8" t="n">
-        <v>332206.6</v>
+        <v>315322.73</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>8.69047619047619</v>
+        <v>0.2520718232044199</v>
       </c>
       <c r="L8" t="n">
-        <v>-28599.5</v>
+        <v>-26885.13</v>
       </c>
       <c r="M8" t="n">
-        <v>-8.6089</v>
+        <v>-8.526199999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SH512980</t>
+          <t>000968</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.805</v>
+        <v>1.2299</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8778</v>
+        <v>0.6234</v>
       </c>
       <c r="E9" t="n">
-        <v>359200</v>
+        <v>216462.64</v>
       </c>
       <c r="F9" t="n">
-        <v>289156</v>
+        <v>266227.4</v>
       </c>
       <c r="G9" t="n">
-        <v>315322.73</v>
+        <v>618155.4</v>
       </c>
       <c r="H9" t="n">
-        <v>315322.73</v>
+        <v>618155.4</v>
       </c>
       <c r="I9" t="n">
-        <v>315322.73</v>
+        <v>134935.71</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>483219.69</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2548882681564246</v>
+        <v>0.4497406609301268</v>
       </c>
       <c r="L9" t="n">
-        <v>-26166.73</v>
+        <v>131291.69</v>
       </c>
       <c r="M9" t="n">
-        <v>-8.298400000000001</v>
+        <v>21.2393</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>310318</t>
+          <t>001064</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.5</v>
+        <v>0.8222</v>
       </c>
       <c r="D10" t="n">
-        <v>1.928</v>
+        <v>0.4004</v>
       </c>
       <c r="E10" t="n">
-        <v>75401.7</v>
+        <v>303649.3</v>
       </c>
       <c r="F10" t="n">
-        <v>263905.95</v>
+        <v>249660.45</v>
       </c>
       <c r="G10" t="n">
-        <v>226649.6</v>
+        <v>323557.7</v>
       </c>
       <c r="H10" t="n">
-        <v>226649.6</v>
+        <v>323557.7</v>
       </c>
       <c r="I10" t="n">
-        <v>145377.11</v>
+        <v>121568.27</v>
       </c>
       <c r="J10" t="n">
-        <v>81272.49000000001</v>
+        <v>201989.43</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3467709561212704</v>
+        <v>0.4100006079282356</v>
       </c>
       <c r="L10" t="n">
-        <v>118528.84</v>
+        <v>128092.18</v>
       </c>
       <c r="M10" t="n">
-        <v>52.2961</v>
+        <v>39.5887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>汇添富价值精选混合A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001064</t>
+          <t>519069</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8505</v>
+        <v>3.663</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4004</v>
+        <v>1.8758</v>
       </c>
       <c r="E11" t="n">
-        <v>303649.3</v>
+        <v>65660.31</v>
       </c>
       <c r="F11" t="n">
-        <v>258253.73</v>
+        <v>240513.72</v>
       </c>
       <c r="G11" t="n">
-        <v>323557.7</v>
+        <v>218819.8</v>
       </c>
       <c r="H11" t="n">
-        <v>323557.7</v>
+        <v>218819.8</v>
       </c>
       <c r="I11" t="n">
-        <v>121568.27</v>
+        <v>123166.41</v>
       </c>
       <c r="J11" t="n">
-        <v>201989.43</v>
+        <v>95653.39</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4145880273176424</v>
+        <v>0.3627618273339111</v>
       </c>
       <c r="L11" t="n">
-        <v>136685.46</v>
+        <v>117347.31</v>
       </c>
       <c r="M11" t="n">
-        <v>42.2445</v>
+        <v>53.6274</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>汇添富价值精选混合A</t>
+          <t>申万菱信沪深300指数增强A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519069</t>
+          <t>310318</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.824</v>
+        <v>3.4446</v>
       </c>
       <c r="D12" t="n">
-        <v>1.8758</v>
+        <v>1.7646</v>
       </c>
       <c r="E12" t="n">
-        <v>65660.31</v>
+        <v>68501.7</v>
       </c>
       <c r="F12" t="n">
-        <v>251085.03</v>
+        <v>235960.96</v>
       </c>
       <c r="G12" t="n">
-        <v>218819.8</v>
+        <v>226649.6</v>
       </c>
       <c r="H12" t="n">
-        <v>218819.8</v>
+        <v>226649.6</v>
       </c>
       <c r="I12" t="n">
-        <v>123166.41</v>
+        <v>120880.04</v>
       </c>
       <c r="J12" t="n">
-        <v>95653.39</v>
+        <v>105769.56</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3668207009264584</v>
+        <v>0.3702164075805248</v>
       </c>
       <c r="L12" t="n">
-        <v>127918.62</v>
+        <v>115080.92</v>
       </c>
       <c r="M12" t="n">
-        <v>58.4584</v>
+        <v>50.7748</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>易方达消费行业股票</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>110022</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.954</v>
+        <v>4.757</v>
       </c>
       <c r="D13" t="n">
-        <v>1.85</v>
+        <v>-0.8339</v>
       </c>
       <c r="E13" t="n">
-        <v>68491.67999999999</v>
+        <v>27986.17</v>
       </c>
       <c r="F13" t="n">
-        <v>133832.74</v>
+        <v>133130.21</v>
       </c>
       <c r="G13" t="n">
-        <v>126709.6</v>
+        <v>222919.2</v>
       </c>
       <c r="H13" t="n">
-        <v>126709.6</v>
+        <v>185038.68</v>
       </c>
       <c r="I13" t="n">
-        <v>126709.6</v>
+        <v>-23337.19</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>246256.39</v>
       </c>
       <c r="K13" t="n">
-        <v>2.198795180722891</v>
+        <v>0.6400257668484438</v>
       </c>
       <c r="L13" t="n">
-        <v>7123.14</v>
+        <v>156467.4</v>
       </c>
       <c r="M13" t="n">
-        <v>5.6216</v>
+        <v>84.55929999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SH510900</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.223</v>
+        <v>1.905</v>
       </c>
       <c r="D14" t="n">
-        <v>1.1815</v>
+        <v>1.85</v>
       </c>
       <c r="E14" t="n">
-        <v>108400</v>
+        <v>68491.67999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>132573.2</v>
+        <v>130476.65</v>
       </c>
       <c r="G14" t="n">
-        <v>172687.68</v>
+        <v>126709.6</v>
       </c>
       <c r="H14" t="n">
-        <v>172687.68</v>
+        <v>126709.6</v>
       </c>
       <c r="I14" t="n">
-        <v>128076.14</v>
+        <v>126709.6</v>
       </c>
       <c r="J14" t="n">
-        <v>44611.54</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3207352247568668</v>
+        <v>2.005494505494505</v>
       </c>
       <c r="L14" t="n">
-        <v>4497.06</v>
+        <v>3767.05</v>
       </c>
       <c r="M14" t="n">
-        <v>2.6042</v>
+        <v>2.973</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>易方达消费行业股票</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>110022</t>
+          <t>SH510900</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.692</v>
+        <v>1.176</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.8339</v>
+        <v>1.1815</v>
       </c>
       <c r="E15" t="n">
-        <v>27986.17</v>
+        <v>108400</v>
       </c>
       <c r="F15" t="n">
-        <v>131311.11</v>
+        <v>127478.4</v>
       </c>
       <c r="G15" t="n">
-        <v>222919.2</v>
+        <v>172687.68</v>
       </c>
       <c r="H15" t="n">
-        <v>185038.68</v>
+        <v>172687.68</v>
       </c>
       <c r="I15" t="n">
-        <v>-23337.19</v>
+        <v>128076.14</v>
       </c>
       <c r="J15" t="n">
-        <v>246256.39</v>
+        <v>44611.54</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6471868943096851</v>
+        <v>0.3171911891241943</v>
       </c>
       <c r="L15" t="n">
-        <v>154648.3</v>
+        <v>-597.74</v>
       </c>
       <c r="M15" t="n">
-        <v>83.5762</v>
+        <v>-0.3461</v>
       </c>
     </row>
     <row r="16">
@@ -1137,16 +1137,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.1759</v>
+        <v>1.1868</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.888</v>
+        <v>-2.6395</v>
       </c>
       <c r="E16" t="n">
-        <v>84326.50999999999</v>
+        <v>67826.50999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>99159.53999999999</v>
+        <v>80496.5</v>
       </c>
       <c r="G16" t="n">
         <v>496666</v>
@@ -1155,19 +1155,19 @@
         <v>480892</v>
       </c>
       <c r="I16" t="n">
-        <v>-159205.17</v>
+        <v>-179026.38</v>
       </c>
       <c r="J16" t="n">
-        <v>655871.17</v>
+        <v>675692.38</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6117362481952971</v>
+        <v>0.6153715462019065</v>
       </c>
       <c r="L16" t="n">
-        <v>258364.71</v>
+        <v>259522.88</v>
       </c>
       <c r="M16" t="n">
-        <v>53.7261</v>
+        <v>53.967</v>
       </c>
     </row>
     <row r="17">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.1681</v>
+        <v>1.1953</v>
       </c>
       <c r="D17" t="n">
         <v>1.1314</v>
@@ -1191,7 +1191,7 @@
         <v>57016.21</v>
       </c>
       <c r="F17" t="n">
-        <v>66600.63</v>
+        <v>68151.48</v>
       </c>
       <c r="G17" t="n">
         <v>64507.2</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2552447552447553</v>
+        <v>0.2524204702627939</v>
       </c>
       <c r="L17" t="n">
-        <v>2093.43</v>
+        <v>3644.28</v>
       </c>
       <c r="M17" t="n">
-        <v>3.2453</v>
+        <v>5.6494</v>
       </c>
     </row>
     <row r="18">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.8573</v>
+        <v>2.7775</v>
       </c>
       <c r="D18" t="n">
         <v>3.2481</v>
@@ -1236,7 +1236,7 @@
         <v>20249.89</v>
       </c>
       <c r="F18" t="n">
-        <v>57860.01</v>
+        <v>56244.07</v>
       </c>
       <c r="G18" t="n">
         <v>65774.2</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>3.802083333333333</v>
+        <v>3.258928571428572</v>
       </c>
       <c r="L18" t="n">
-        <v>-7914.19</v>
+        <v>-9530.129999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>-12.0324</v>
+        <v>-14.4892</v>
       </c>
     </row>
     <row r="19">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.515</v>
+        <v>1.462</v>
       </c>
       <c r="D19" t="n">
         <v>1.5175</v>
@@ -1281,7 +1281,7 @@
         <v>20800</v>
       </c>
       <c r="F19" t="n">
-        <v>31512</v>
+        <v>30409.6</v>
       </c>
       <c r="G19" t="n">
         <v>31564</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2548882681564246</v>
+        <v>0.2520718232044199</v>
       </c>
       <c r="L19" t="n">
-        <v>-52</v>
+        <v>-1154.4</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.1647</v>
+        <v>-3.6573</v>
       </c>
     </row>
     <row r="20">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.376</v>
+        <v>1.392</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0593</v>
@@ -1326,7 +1326,7 @@
         <v>11217.96</v>
       </c>
       <c r="F20" t="n">
-        <v>15435.91</v>
+        <v>15615.4</v>
       </c>
       <c r="G20" t="n">
         <v>85714</v>
@@ -1341,13 +1341,13 @@
         <v>86378.75999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6210626580814402</v>
+        <v>0.61419059547473</v>
       </c>
       <c r="L20" t="n">
-        <v>16100.67</v>
+        <v>16280.16</v>
       </c>
       <c r="M20" t="n">
-        <v>22.7646</v>
+        <v>23.0184</v>
       </c>
     </row>
     <row r="21">
@@ -1362,16 +1362,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.0999</v>
+        <v>1.0685</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0881</v>
+        <v>1.0603</v>
       </c>
       <c r="E21" t="n">
-        <v>11028.74</v>
+        <v>11317.23</v>
       </c>
       <c r="F21" t="n">
-        <v>12130.51</v>
+        <v>12092.46</v>
       </c>
       <c r="G21" t="n">
         <v>12000</v>
@@ -1386,37 +1386,37 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.607142857142857</v>
+        <v>2.33974358974359</v>
       </c>
       <c r="L21" t="n">
-        <v>130.51</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>1.0876</v>
+        <v>0.7705</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>东方红策略精选混合C</t>
+          <t>广发趋势优选灵活配置混合C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001406</t>
+          <t>008127</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.2756</v>
+        <v>1.6098</v>
       </c>
       <c r="D22" t="n">
-        <v>1.2729</v>
+        <v>1.6147</v>
       </c>
       <c r="E22" t="n">
-        <v>9427.66</v>
+        <v>7431.56</v>
       </c>
       <c r="F22" t="n">
-        <v>12025.92</v>
+        <v>11963.33</v>
       </c>
       <c r="G22" t="n">
         <v>12000</v>
@@ -1431,37 +1431,37 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.607142857142857</v>
+        <v>2.33974358974359</v>
       </c>
       <c r="L22" t="n">
-        <v>25.92</v>
+        <v>-36.67</v>
       </c>
       <c r="M22" t="n">
-        <v>0.216</v>
+        <v>-0.3056</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>广发趋势优选灵活配置混合C</t>
+          <t>东方红策略精选混合C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008127</t>
+          <t>001406</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.6166</v>
+        <v>1.2677</v>
       </c>
       <c r="D23" t="n">
-        <v>1.6147</v>
+        <v>1.2729</v>
       </c>
       <c r="E23" t="n">
-        <v>7431.56</v>
+        <v>9427.66</v>
       </c>
       <c r="F23" t="n">
-        <v>12013.86</v>
+        <v>11951.44</v>
       </c>
       <c r="G23" t="n">
         <v>12000</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2.607142857142857</v>
+        <v>2.33974358974359</v>
       </c>
       <c r="L23" t="n">
-        <v>13.86</v>
+        <v>-48.56</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1155</v>
+        <v>-0.4047</v>
       </c>
     </row>
     <row r="24">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.638</v>
+        <v>1.635</v>
       </c>
       <c r="D24" t="n">
         <v>1.6455</v>
@@ -1506,7 +1506,7 @@
         <v>7292.68</v>
       </c>
       <c r="F24" t="n">
-        <v>11945.41</v>
+        <v>11923.53</v>
       </c>
       <c r="G24" t="n">
         <v>12000</v>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>2.607142857142857</v>
+        <v>2.33974358974359</v>
       </c>
       <c r="L24" t="n">
-        <v>-54.59</v>
+        <v>-76.47</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.4549</v>
+        <v>-0.6372</v>
       </c>
     </row>
     <row r="25">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.1365</v>
+        <v>1.131</v>
       </c>
       <c r="D25" t="n">
         <v>1.1438</v>
@@ -1551,7 +1551,7 @@
         <v>6994.4</v>
       </c>
       <c r="F25" t="n">
-        <v>7949.14</v>
+        <v>7910.67</v>
       </c>
       <c r="G25" t="n">
         <v>8000</v>
@@ -1566,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.318181818181818</v>
+        <v>2.896825396825397</v>
       </c>
       <c r="L25" t="n">
-        <v>-50.86</v>
+        <v>-89.33</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.6358</v>
+        <v>-1.1166</v>
       </c>
     </row>
     <row r="26">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.4811</v>
+        <v>2.4625</v>
       </c>
       <c r="D26" t="n">
         <v>2.4932</v>
@@ -1596,7 +1596,7 @@
         <v>1604.37</v>
       </c>
       <c r="F26" t="n">
-        <v>3980.6</v>
+        <v>3950.76</v>
       </c>
       <c r="G26" t="n">
         <v>4000</v>
@@ -1611,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.607142857142857</v>
+        <v>2.33974358974359</v>
       </c>
       <c r="L26" t="n">
-        <v>-19.4</v>
+        <v>-49.24</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.485</v>
+        <v>-1.231</v>
       </c>
     </row>
     <row r="27">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.5869</v>
+        <v>2.5489</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>1066843.61</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7481735650018252</v>
+        <v>0.7398950193309889</v>
       </c>
       <c r="L27" t="n">
         <v>90684.41</v>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.579</v>
+        <v>2.543</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>230025</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7518746300739713</v>
+        <v>0.743566623111828</v>
       </c>
       <c r="L28" t="n">
         <v>112052.6</v>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.1716</v>
+        <v>1.1487</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>263017.37</v>
       </c>
       <c r="K29" t="n">
-        <v>0.572710902450139</v>
+        <v>0.5663738523538719</v>
       </c>
       <c r="L29" t="n">
         <v>51549.77</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.582</v>
+        <v>3.454</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>101718.23</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5923785995398493</v>
+        <v>0.5858329796554311</v>
       </c>
       <c r="L30" t="n">
         <v>24895.93</v>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.184</v>
+        <v>2.16</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>67660.25</v>
       </c>
       <c r="K31" t="n">
-        <v>0.568076793426897</v>
+        <v>0.5617910197790199</v>
       </c>
       <c r="L31" t="n">
         <v>12455.15</v>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.4047</v>
+        <v>1.3622</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>30059.92</v>
       </c>
       <c r="K32" t="n">
-        <v>3.69055063973064</v>
+        <v>3.414621619937694</v>
       </c>
       <c r="L32" t="n">
         <v>59.92</v>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.167</v>
+        <v>1.174</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>19166.88</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5562337436783844</v>
+        <v>0.5500875144664685</v>
       </c>
       <c r="L33" t="n">
         <v>2954.88</v>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.427</v>
+        <v>0.382</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>96605.34</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6751740286331188</v>
+        <v>0.6657803030173537</v>
       </c>
       <c r="L34" t="n">
         <v>8595.4</v>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.584</v>
+        <v>0.577</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>332315.8</v>
       </c>
       <c r="K35" t="n">
-        <v>7.322427716156906</v>
+        <v>6.276366613848777</v>
       </c>
       <c r="L35" t="n">
         <v>-26595.78</v>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.0434</v>
+        <v>1.0294</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>285932.16</v>
       </c>
       <c r="K36" t="n">
-        <v>4.459837289265399</v>
+        <v>4.076195371909235</v>
       </c>
       <c r="L36" t="n">
         <v>20488.16</v>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1.983</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>216913.47</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5677695951013377</v>
+        <v>0.5614872206050574</v>
       </c>
       <c r="L37" t="n">
         <v>39756.27</v>

--- a/inv_analysis/report.xlsx
+++ b/inv_analysis/report.xlsx
@@ -516,7 +516,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>3802018.55</v>
+        <v>3880964.26</v>
       </c>
       <c r="G2" t="n">
         <v>7272100.73</v>
@@ -531,13 +531,13 @@
         <v>4786491.48</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4433871447645504</v>
+        <v>0.440346080671515</v>
       </c>
       <c r="L2" t="n">
-        <v>1316409.3</v>
+        <v>1395355.01</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0399</v>
+        <v>25.4816</v>
       </c>
     </row>
     <row r="3">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.062</v>
+        <v>1.084</v>
       </c>
       <c r="D3" t="n">
         <v>0.9177</v>
@@ -561,7 +561,7 @@
         <v>562953.52</v>
       </c>
       <c r="F3" t="n">
-        <v>597856.64</v>
+        <v>610241.62</v>
       </c>
       <c r="G3" t="n">
         <v>653308.6</v>
@@ -576,13 +576,13 @@
         <v>136662.31</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3052230272127556</v>
+        <v>0.3031267152126679</v>
       </c>
       <c r="L3" t="n">
-        <v>81210.35000000001</v>
+        <v>93595.33</v>
       </c>
       <c r="M3" t="n">
-        <v>12.4306</v>
+        <v>14.3264</v>
       </c>
     </row>
     <row r="4">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.151</v>
+        <v>3.328</v>
       </c>
       <c r="D4" t="n">
         <v>3.468</v>
@@ -606,7 +606,7 @@
         <v>102846.38</v>
       </c>
       <c r="F4" t="n">
-        <v>324068.94</v>
+        <v>342272.75</v>
       </c>
       <c r="G4" t="n">
         <v>356668.2</v>
@@ -621,13 +621,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.75925925925926</v>
+        <v>5.703125</v>
       </c>
       <c r="L4" t="n">
-        <v>-32599.26</v>
+        <v>-14395.45</v>
       </c>
       <c r="M4" t="n">
-        <v>-9.139900000000001</v>
+        <v>-4.0361</v>
       </c>
     </row>
     <row r="5">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.0758</v>
+        <v>2.1131</v>
       </c>
       <c r="D5" t="n">
         <v>1.662</v>
@@ -651,7 +651,7 @@
         <v>146453.77</v>
       </c>
       <c r="F5" t="n">
-        <v>304008.74</v>
+        <v>309471.46</v>
       </c>
       <c r="G5" t="n">
         <v>243400</v>
@@ -666,103 +666,103 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2524204702627939</v>
+        <v>0.2506868131868132</v>
       </c>
       <c r="L5" t="n">
-        <v>60608.74</v>
+        <v>66071.46000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>24.9009</v>
+        <v>27.1452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>中证100ETF</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001469</t>
+          <t>SH512910</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1589</v>
+        <v>1.472</v>
       </c>
       <c r="D6" t="n">
-        <v>1.101</v>
+        <v>1.6293</v>
       </c>
       <c r="E6" t="n">
-        <v>258053.33</v>
+        <v>203900</v>
       </c>
       <c r="F6" t="n">
-        <v>299058</v>
+        <v>300140.8</v>
       </c>
       <c r="G6" t="n">
-        <v>284108.9</v>
+        <v>332206.6</v>
       </c>
       <c r="H6" t="n">
-        <v>284108.9</v>
+        <v>332206.6</v>
       </c>
       <c r="I6" t="n">
-        <v>284108.9</v>
+        <v>332206.6</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2524204702627939</v>
+        <v>5.367647058823529</v>
       </c>
       <c r="L6" t="n">
-        <v>14949.1</v>
+        <v>-32065.8</v>
       </c>
       <c r="M6" t="n">
-        <v>5.2617</v>
+        <v>-9.6524</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>中证100ETF</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SH512910</t>
+          <t>001469</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.444</v>
+        <v>1.1627</v>
       </c>
       <c r="D7" t="n">
-        <v>1.6293</v>
+        <v>1.101</v>
       </c>
       <c r="E7" t="n">
-        <v>203900</v>
+        <v>258053.33</v>
       </c>
       <c r="F7" t="n">
-        <v>294431.6</v>
+        <v>300038.61</v>
       </c>
       <c r="G7" t="n">
-        <v>332206.6</v>
+        <v>284108.9</v>
       </c>
       <c r="H7" t="n">
-        <v>332206.6</v>
+        <v>284108.9</v>
       </c>
       <c r="I7" t="n">
-        <v>332206.6</v>
+        <v>284108.9</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.293103448275862</v>
+        <v>0.2506868131868132</v>
       </c>
       <c r="L7" t="n">
-        <v>-37775</v>
+        <v>15929.71</v>
       </c>
       <c r="M7" t="n">
-        <v>-11.3709</v>
+        <v>5.6069</v>
       </c>
     </row>
     <row r="8">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.803</v>
+        <v>0.794</v>
       </c>
       <c r="D8" t="n">
         <v>0.8778</v>
@@ -786,7 +786,7 @@
         <v>359200</v>
       </c>
       <c r="F8" t="n">
-        <v>288437.6</v>
+        <v>285204.8</v>
       </c>
       <c r="G8" t="n">
         <v>315322.73</v>
@@ -801,13 +801,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2520718232044199</v>
+        <v>0.2503429355281207</v>
       </c>
       <c r="L8" t="n">
-        <v>-26885.13</v>
+        <v>-30117.93</v>
       </c>
       <c r="M8" t="n">
-        <v>-8.526199999999999</v>
+        <v>-9.551500000000001</v>
       </c>
     </row>
     <row r="9">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.2299</v>
+        <v>1.2569</v>
       </c>
       <c r="D9" t="n">
         <v>0.6234</v>
@@ -831,7 +831,7 @@
         <v>216462.64</v>
       </c>
       <c r="F9" t="n">
-        <v>266227.4</v>
+        <v>272071.89</v>
       </c>
       <c r="G9" t="n">
         <v>618155.4</v>
@@ -846,13 +846,13 @@
         <v>483219.69</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4497406609301268</v>
+        <v>0.4466517827643979</v>
       </c>
       <c r="L9" t="n">
-        <v>131291.69</v>
+        <v>137136.18</v>
       </c>
       <c r="M9" t="n">
-        <v>21.2393</v>
+        <v>22.1847</v>
       </c>
     </row>
     <row r="10">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8222</v>
+        <v>0.8471</v>
       </c>
       <c r="D10" t="n">
         <v>0.4004</v>
@@ -876,7 +876,7 @@
         <v>303649.3</v>
       </c>
       <c r="F10" t="n">
-        <v>249660.45</v>
+        <v>257221.32</v>
       </c>
       <c r="G10" t="n">
         <v>323557.7</v>
@@ -891,13 +891,13 @@
         <v>201989.43</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4100006079282356</v>
+        <v>0.4071846696869703</v>
       </c>
       <c r="L10" t="n">
-        <v>128092.18</v>
+        <v>135653.05</v>
       </c>
       <c r="M10" t="n">
-        <v>39.5887</v>
+        <v>41.9255</v>
       </c>
     </row>
     <row r="11">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.663</v>
+        <v>3.78</v>
       </c>
       <c r="D11" t="n">
         <v>1.8758</v>
@@ -921,7 +921,7 @@
         <v>65660.31</v>
       </c>
       <c r="F11" t="n">
-        <v>240513.72</v>
+        <v>248195.97</v>
       </c>
       <c r="G11" t="n">
         <v>218819.8</v>
@@ -936,13 +936,13 @@
         <v>95653.39</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3627618273339111</v>
+        <v>0.3602703312670573</v>
       </c>
       <c r="L11" t="n">
-        <v>117347.31</v>
+        <v>125029.56</v>
       </c>
       <c r="M11" t="n">
-        <v>53.6274</v>
+        <v>57.1381</v>
       </c>
     </row>
     <row r="12">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.4446</v>
+        <v>3.5309</v>
       </c>
       <c r="D12" t="n">
         <v>1.7646</v>
@@ -966,7 +966,7 @@
         <v>68501.7</v>
       </c>
       <c r="F12" t="n">
-        <v>235960.96</v>
+        <v>241872.65</v>
       </c>
       <c r="G12" t="n">
         <v>226649.6</v>
@@ -981,13 +981,13 @@
         <v>105769.56</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3702164075805248</v>
+        <v>0.3676737124735158</v>
       </c>
       <c r="L12" t="n">
-        <v>115080.92</v>
+        <v>120992.61</v>
       </c>
       <c r="M12" t="n">
-        <v>50.7748</v>
+        <v>53.3831</v>
       </c>
     </row>
     <row r="13">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.757</v>
+        <v>4.913</v>
       </c>
       <c r="D13" t="n">
         <v>-0.8339</v>
@@ -1011,7 +1011,7 @@
         <v>27986.17</v>
       </c>
       <c r="F13" t="n">
-        <v>133130.21</v>
+        <v>137496.05</v>
       </c>
       <c r="G13" t="n">
         <v>222919.2</v>
@@ -1026,13 +1026,13 @@
         <v>246256.39</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6400257668484438</v>
+        <v>0.6356299854827265</v>
       </c>
       <c r="L13" t="n">
-        <v>156467.4</v>
+        <v>160833.24</v>
       </c>
       <c r="M13" t="n">
-        <v>84.55929999999999</v>
+        <v>86.9187</v>
       </c>
     </row>
     <row r="14">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.905</v>
+        <v>1.942</v>
       </c>
       <c r="D14" t="n">
         <v>1.85</v>
@@ -1056,7 +1056,7 @@
         <v>68491.67999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>130476.65</v>
+        <v>133010.84</v>
       </c>
       <c r="G14" t="n">
         <v>126709.6</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2.005494505494505</v>
+        <v>1.901041666666667</v>
       </c>
       <c r="L14" t="n">
-        <v>3767.05</v>
+        <v>6301.24</v>
       </c>
       <c r="M14" t="n">
-        <v>2.973</v>
+        <v>4.973</v>
       </c>
     </row>
     <row r="15">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.176</v>
+        <v>1.188</v>
       </c>
       <c r="D15" t="n">
         <v>1.1815</v>
@@ -1101,7 +1101,7 @@
         <v>108400</v>
       </c>
       <c r="F15" t="n">
-        <v>127478.4</v>
+        <v>128779.2</v>
       </c>
       <c r="G15" t="n">
         <v>172687.68</v>
@@ -1116,13 +1116,13 @@
         <v>44611.54</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3171911891241943</v>
+        <v>0.3150156665650434</v>
       </c>
       <c r="L15" t="n">
-        <v>-597.74</v>
+        <v>703.0599999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.3461</v>
+        <v>0.4071</v>
       </c>
     </row>
     <row r="16">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.1868</v>
+        <v>1.2261</v>
       </c>
       <c r="D16" t="n">
         <v>-2.6395</v>
@@ -1146,7 +1146,7 @@
         <v>67826.50999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>80496.5</v>
+        <v>83162.08</v>
       </c>
       <c r="G16" t="n">
         <v>496666</v>
@@ -1161,13 +1161,13 @@
         <v>675692.38</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6153715462019065</v>
+        <v>0.6111450932746956</v>
       </c>
       <c r="L16" t="n">
-        <v>259522.88</v>
+        <v>262188.46</v>
       </c>
       <c r="M16" t="n">
-        <v>53.967</v>
+        <v>54.5213</v>
       </c>
     </row>
     <row r="17">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.1953</v>
+        <v>1.1903</v>
       </c>
       <c r="D17" t="n">
         <v>1.1314</v>
@@ -1191,7 +1191,7 @@
         <v>57016.21</v>
       </c>
       <c r="F17" t="n">
-        <v>68151.48</v>
+        <v>67866.39</v>
       </c>
       <c r="G17" t="n">
         <v>64507.2</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2524204702627939</v>
+        <v>0.2506868131868132</v>
       </c>
       <c r="L17" t="n">
-        <v>3644.28</v>
+        <v>3359.19</v>
       </c>
       <c r="M17" t="n">
-        <v>5.6494</v>
+        <v>5.2075</v>
       </c>
     </row>
     <row r="18">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.7775</v>
+        <v>2.8299</v>
       </c>
       <c r="D18" t="n">
         <v>3.2481</v>
@@ -1236,7 +1236,7 @@
         <v>20249.89</v>
       </c>
       <c r="F18" t="n">
-        <v>56244.07</v>
+        <v>57305.16</v>
       </c>
       <c r="G18" t="n">
         <v>65774.2</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>3.258928571428572</v>
+        <v>2.991803278688525</v>
       </c>
       <c r="L18" t="n">
-        <v>-9530.129999999999</v>
+        <v>-8469.040000000001</v>
       </c>
       <c r="M18" t="n">
-        <v>-14.4892</v>
+        <v>-12.8759</v>
       </c>
     </row>
     <row r="19">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.462</v>
+        <v>1.488</v>
       </c>
       <c r="D19" t="n">
         <v>1.5175</v>
@@ -1281,7 +1281,7 @@
         <v>20800</v>
       </c>
       <c r="F19" t="n">
-        <v>30409.6</v>
+        <v>30950.4</v>
       </c>
       <c r="G19" t="n">
         <v>31564</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2520718232044199</v>
+        <v>0.2503429355281207</v>
       </c>
       <c r="L19" t="n">
-        <v>-1154.4</v>
+        <v>-613.6</v>
       </c>
       <c r="M19" t="n">
-        <v>-3.6573</v>
+        <v>-1.944</v>
       </c>
     </row>
     <row r="20">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.392</v>
+        <v>1.39</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0593</v>
@@ -1326,7 +1326,7 @@
         <v>11217.96</v>
       </c>
       <c r="F20" t="n">
-        <v>15615.4</v>
+        <v>15592.96</v>
       </c>
       <c r="G20" t="n">
         <v>85714</v>
@@ -1341,13 +1341,13 @@
         <v>86378.75999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.61419059547473</v>
+        <v>0.609972253472843</v>
       </c>
       <c r="L20" t="n">
-        <v>16280.16</v>
+        <v>16257.72</v>
       </c>
       <c r="M20" t="n">
-        <v>23.0184</v>
+        <v>22.9866</v>
       </c>
     </row>
     <row r="21">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.0685</v>
+        <v>1.072</v>
       </c>
       <c r="D21" t="n">
         <v>1.0603</v>
@@ -1371,7 +1371,7 @@
         <v>11317.23</v>
       </c>
       <c r="F21" t="n">
-        <v>12092.46</v>
+        <v>12132.07</v>
       </c>
       <c r="G21" t="n">
         <v>12000</v>
@@ -1386,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.33974358974359</v>
+        <v>2.198795180722891</v>
       </c>
       <c r="L21" t="n">
-        <v>92.45999999999999</v>
+        <v>132.07</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7705</v>
+        <v>1.1006</v>
       </c>
     </row>
     <row r="22">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.6098</v>
+        <v>1.6182</v>
       </c>
       <c r="D22" t="n">
         <v>1.6147</v>
@@ -1416,7 +1416,7 @@
         <v>7431.56</v>
       </c>
       <c r="F22" t="n">
-        <v>11963.33</v>
+        <v>12025.75</v>
       </c>
       <c r="G22" t="n">
         <v>12000</v>
@@ -1431,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.33974358974359</v>
+        <v>2.198795180722891</v>
       </c>
       <c r="L22" t="n">
-        <v>-36.67</v>
+        <v>25.75</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.3056</v>
+        <v>0.2146</v>
       </c>
     </row>
     <row r="23">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.2677</v>
+        <v>1.2752</v>
       </c>
       <c r="D23" t="n">
         <v>1.2729</v>
@@ -1461,7 +1461,7 @@
         <v>9427.66</v>
       </c>
       <c r="F23" t="n">
-        <v>11951.44</v>
+        <v>12022.15</v>
       </c>
       <c r="G23" t="n">
         <v>12000</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2.33974358974359</v>
+        <v>2.198795180722891</v>
       </c>
       <c r="L23" t="n">
-        <v>-48.56</v>
+        <v>22.15</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.4047</v>
+        <v>0.1846</v>
       </c>
     </row>
     <row r="24">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.635</v>
+        <v>1.637</v>
       </c>
       <c r="D24" t="n">
         <v>1.6455</v>
@@ -1506,7 +1506,7 @@
         <v>7292.68</v>
       </c>
       <c r="F24" t="n">
-        <v>11923.53</v>
+        <v>11938.12</v>
       </c>
       <c r="G24" t="n">
         <v>12000</v>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>2.33974358974359</v>
+        <v>2.198795180722891</v>
       </c>
       <c r="L24" t="n">
-        <v>-76.47</v>
+        <v>-61.88</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.6372</v>
+        <v>-0.5157</v>
       </c>
     </row>
     <row r="25">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.131</v>
+        <v>1.1387</v>
       </c>
       <c r="D25" t="n">
         <v>1.1438</v>
@@ -1551,7 +1551,7 @@
         <v>6994.4</v>
       </c>
       <c r="F25" t="n">
-        <v>7910.67</v>
+        <v>7964.52</v>
       </c>
       <c r="G25" t="n">
         <v>8000</v>
@@ -1566,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2.896825396825397</v>
+        <v>2.683823529411764</v>
       </c>
       <c r="L25" t="n">
-        <v>-89.33</v>
+        <v>-35.48</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.1166</v>
+        <v>-0.4435</v>
       </c>
     </row>
     <row r="26">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.4625</v>
+        <v>2.4849</v>
       </c>
       <c r="D26" t="n">
         <v>2.4932</v>
@@ -1596,7 +1596,7 @@
         <v>1604.37</v>
       </c>
       <c r="F26" t="n">
-        <v>3950.76</v>
+        <v>3986.7</v>
       </c>
       <c r="G26" t="n">
         <v>4000</v>
@@ -1611,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.33974358974359</v>
+        <v>2.198795180722891</v>
       </c>
       <c r="L26" t="n">
-        <v>-49.24</v>
+        <v>-13.3</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.231</v>
+        <v>-0.3325</v>
       </c>
     </row>
     <row r="27">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.5489</v>
+        <v>2.6112</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>1066843.61</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7398950193309889</v>
+        <v>0.7348133227696497</v>
       </c>
       <c r="L27" t="n">
         <v>90684.41</v>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.543</v>
+        <v>2.637</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>230025</v>
       </c>
       <c r="K28" t="n">
-        <v>0.743566623111828</v>
+        <v>0.7384667148600321</v>
       </c>
       <c r="L28" t="n">
         <v>112052.6</v>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.1487</v>
+        <v>1.1712</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>263017.37</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5663738523538719</v>
+        <v>0.5624839220492437</v>
       </c>
       <c r="L29" t="n">
         <v>51549.77</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.454</v>
+        <v>3.521</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>101718.23</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5858329796554311</v>
+        <v>0.5818149208100577</v>
       </c>
       <c r="L30" t="n">
         <v>24895.93</v>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>67660.25</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5617910197790199</v>
+        <v>0.5579325649728453</v>
       </c>
       <c r="L31" t="n">
         <v>12455.15</v>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.3622</v>
+        <v>1.3903</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>30059.92</v>
       </c>
       <c r="K32" t="n">
-        <v>3.414621619937694</v>
+        <v>3.262183154761904</v>
       </c>
       <c r="L32" t="n">
         <v>59.92</v>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.174</v>
+        <v>1.185</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>19166.88</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5500875144664685</v>
+        <v>0.5463146234207451</v>
       </c>
       <c r="L33" t="n">
         <v>2954.88</v>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.382</v>
+        <v>0.399</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>96605.34</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6657803030173537</v>
+        <v>0.6600408176465145</v>
       </c>
       <c r="L34" t="n">
         <v>8595.4</v>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.577</v>
+        <v>0.602</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>332315.8</v>
       </c>
       <c r="K35" t="n">
-        <v>6.276366613848777</v>
+        <v>5.761910334025106</v>
       </c>
       <c r="L35" t="n">
         <v>-26595.78</v>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.0294</v>
+        <v>1.0667</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>285932.16</v>
       </c>
       <c r="K36" t="n">
-        <v>4.076195371909235</v>
+        <v>3.868226220281213</v>
       </c>
       <c r="L36" t="n">
         <v>20488.16</v>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.983</v>
+        <v>2.011</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>216913.47</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5614872206050574</v>
+        <v>0.557630852331671</v>
       </c>
       <c r="L37" t="n">
         <v>39756.27</v>

--- a/inv_analysis/report.xlsx
+++ b/inv_analysis/report.xlsx
@@ -516,7 +516,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>3880964.26</v>
+        <v>3773720.54</v>
       </c>
       <c r="G2" t="n">
         <v>7272100.73</v>
@@ -525,19 +525,19 @@
         <v>5475932.48</v>
       </c>
       <c r="I2" t="n">
-        <v>2485609.25</v>
+        <v>2355155.46</v>
       </c>
       <c r="J2" t="n">
-        <v>4786491.48</v>
+        <v>4916945.27</v>
       </c>
       <c r="K2" t="n">
-        <v>0.440346080671515</v>
+        <v>0.4456986465618364</v>
       </c>
       <c r="L2" t="n">
-        <v>1395355.01</v>
+        <v>1418565.08</v>
       </c>
       <c r="M2" t="n">
-        <v>25.4816</v>
+        <v>25.9055</v>
       </c>
     </row>
     <row r="3">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.084</v>
+        <v>1.083</v>
       </c>
       <c r="D3" t="n">
         <v>0.9177</v>
@@ -561,7 +561,7 @@
         <v>562953.52</v>
       </c>
       <c r="F3" t="n">
-        <v>610241.62</v>
+        <v>609678.66</v>
       </c>
       <c r="G3" t="n">
         <v>653308.6</v>
@@ -576,13 +576,13 @@
         <v>136662.31</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3031267152126679</v>
+        <v>0.3027109035319921</v>
       </c>
       <c r="L3" t="n">
-        <v>93595.33</v>
+        <v>93032.37</v>
       </c>
       <c r="M3" t="n">
-        <v>14.3264</v>
+        <v>14.2402</v>
       </c>
     </row>
     <row r="4">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.328</v>
+        <v>3.407</v>
       </c>
       <c r="D4" t="n">
         <v>3.468</v>
@@ -606,7 +606,7 @@
         <v>102846.38</v>
       </c>
       <c r="F4" t="n">
-        <v>342272.75</v>
+        <v>350397.62</v>
       </c>
       <c r="G4" t="n">
         <v>356668.2</v>
@@ -621,13 +621,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5.703125</v>
+        <v>5.53030303030303</v>
       </c>
       <c r="L4" t="n">
-        <v>-14395.45</v>
+        <v>-6270.58</v>
       </c>
       <c r="M4" t="n">
-        <v>-4.0361</v>
+        <v>-1.7581</v>
       </c>
     </row>
     <row r="5">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.1131</v>
+        <v>2.1036</v>
       </c>
       <c r="D5" t="n">
         <v>1.662</v>
@@ -651,7 +651,7 @@
         <v>146453.77</v>
       </c>
       <c r="F5" t="n">
-        <v>309471.46</v>
+        <v>308080.15</v>
       </c>
       <c r="G5" t="n">
         <v>243400</v>
@@ -666,13 +666,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2506868131868132</v>
+        <v>0.2503429355281207</v>
       </c>
       <c r="L5" t="n">
-        <v>66071.46000000001</v>
+        <v>64680.15</v>
       </c>
       <c r="M5" t="n">
-        <v>27.1452</v>
+        <v>26.5736</v>
       </c>
     </row>
     <row r="6">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.472</v>
+        <v>1.485</v>
       </c>
       <c r="D6" t="n">
         <v>1.6293</v>
@@ -696,7 +696,7 @@
         <v>203900</v>
       </c>
       <c r="F6" t="n">
-        <v>300140.8</v>
+        <v>302791.5</v>
       </c>
       <c r="G6" t="n">
         <v>332206.6</v>
@@ -711,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>5.367647058823529</v>
+        <v>5.214285714285714</v>
       </c>
       <c r="L6" t="n">
-        <v>-32065.8</v>
+        <v>-29415.1</v>
       </c>
       <c r="M6" t="n">
-        <v>-9.6524</v>
+        <v>-8.8545</v>
       </c>
     </row>
     <row r="7">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1627</v>
+        <v>1.1671</v>
       </c>
       <c r="D7" t="n">
         <v>1.101</v>
@@ -741,7 +741,7 @@
         <v>258053.33</v>
       </c>
       <c r="F7" t="n">
-        <v>300038.61</v>
+        <v>301174.04</v>
       </c>
       <c r="G7" t="n">
         <v>284108.9</v>
@@ -756,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2506868131868132</v>
+        <v>0.2503429355281207</v>
       </c>
       <c r="L7" t="n">
-        <v>15929.71</v>
+        <v>17065.14</v>
       </c>
       <c r="M7" t="n">
-        <v>5.6069</v>
+        <v>6.0065</v>
       </c>
     </row>
     <row r="8">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.794</v>
+        <v>0.788</v>
       </c>
       <c r="D8" t="n">
         <v>0.8778</v>
@@ -786,7 +786,7 @@
         <v>359200</v>
       </c>
       <c r="F8" t="n">
-        <v>285204.8</v>
+        <v>283049.6</v>
       </c>
       <c r="G8" t="n">
         <v>315322.73</v>
@@ -801,148 +801,148 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2503429355281207</v>
+        <v>0.25</v>
       </c>
       <c r="L8" t="n">
-        <v>-30117.93</v>
+        <v>-32273.13</v>
       </c>
       <c r="M8" t="n">
-        <v>-9.551500000000001</v>
+        <v>-10.235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000968</t>
+          <t>001064</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.2569</v>
+        <v>0.8619</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6234</v>
+        <v>0.4004</v>
       </c>
       <c r="E9" t="n">
-        <v>216462.64</v>
+        <v>303649.3</v>
       </c>
       <c r="F9" t="n">
-        <v>272071.89</v>
+        <v>261715.33</v>
       </c>
       <c r="G9" t="n">
-        <v>618155.4</v>
+        <v>323557.7</v>
       </c>
       <c r="H9" t="n">
-        <v>618155.4</v>
+        <v>323557.7</v>
       </c>
       <c r="I9" t="n">
-        <v>134935.71</v>
+        <v>121568.27</v>
       </c>
       <c r="J9" t="n">
-        <v>483219.69</v>
+        <v>201989.43</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4466517827643979</v>
+        <v>0.4066261173280032</v>
       </c>
       <c r="L9" t="n">
-        <v>137136.18</v>
+        <v>140147.06</v>
       </c>
       <c r="M9" t="n">
-        <v>22.1847</v>
+        <v>43.3144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>汇添富价值精选混合A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001064</t>
+          <t>519069</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8471</v>
+        <v>3.824</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4004</v>
+        <v>1.8758</v>
       </c>
       <c r="E10" t="n">
-        <v>303649.3</v>
+        <v>65660.31</v>
       </c>
       <c r="F10" t="n">
-        <v>257221.32</v>
+        <v>251085.03</v>
       </c>
       <c r="G10" t="n">
-        <v>323557.7</v>
+        <v>218819.8</v>
       </c>
       <c r="H10" t="n">
-        <v>323557.7</v>
+        <v>218819.8</v>
       </c>
       <c r="I10" t="n">
-        <v>121568.27</v>
+        <v>123166.41</v>
       </c>
       <c r="J10" t="n">
-        <v>201989.43</v>
+        <v>95653.39</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4071846696869703</v>
+        <v>0.3597761332817802</v>
       </c>
       <c r="L10" t="n">
-        <v>135653.05</v>
+        <v>127918.62</v>
       </c>
       <c r="M10" t="n">
-        <v>41.9255</v>
+        <v>58.4584</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>汇添富价值精选混合A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519069</t>
+          <t>000968</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.78</v>
+        <v>1.2639</v>
       </c>
       <c r="D11" t="n">
-        <v>1.8758</v>
+        <v>0.4571</v>
       </c>
       <c r="E11" t="n">
-        <v>65660.31</v>
+        <v>171652.64</v>
       </c>
       <c r="F11" t="n">
-        <v>248195.97</v>
+        <v>216951.77</v>
       </c>
       <c r="G11" t="n">
-        <v>218819.8</v>
+        <v>618155.4</v>
       </c>
       <c r="H11" t="n">
-        <v>218819.8</v>
+        <v>618155.4</v>
       </c>
       <c r="I11" t="n">
-        <v>123166.41</v>
+        <v>78470.26000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>95653.39</v>
+        <v>539685.14</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3602703312670573</v>
+        <v>0.4689066853691878</v>
       </c>
       <c r="L11" t="n">
-        <v>125029.56</v>
+        <v>138481.51</v>
       </c>
       <c r="M11" t="n">
-        <v>57.1381</v>
+        <v>22.4024</v>
       </c>
     </row>
     <row r="12">
@@ -957,16 +957,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.5309</v>
+        <v>3.5619</v>
       </c>
       <c r="D12" t="n">
-        <v>1.7646</v>
+        <v>1.3153</v>
       </c>
       <c r="E12" t="n">
-        <v>68501.7</v>
+        <v>54801.7</v>
       </c>
       <c r="F12" t="n">
-        <v>241872.65</v>
+        <v>195198.18</v>
       </c>
       <c r="G12" t="n">
         <v>226649.6</v>
@@ -975,19 +975,19 @@
         <v>226649.6</v>
       </c>
       <c r="I12" t="n">
-        <v>120880.04</v>
+        <v>72082.01000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>105769.56</v>
+        <v>154567.59</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3676737124735158</v>
+        <v>0.4210686028935473</v>
       </c>
       <c r="L12" t="n">
-        <v>120992.61</v>
+        <v>123116.17</v>
       </c>
       <c r="M12" t="n">
-        <v>53.3831</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="13">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.913</v>
+        <v>4.962</v>
       </c>
       <c r="D13" t="n">
         <v>-0.8339</v>
@@ -1011,7 +1011,7 @@
         <v>27986.17</v>
       </c>
       <c r="F13" t="n">
-        <v>137496.05</v>
+        <v>138867.38</v>
       </c>
       <c r="G13" t="n">
         <v>222919.2</v>
@@ -1026,13 +1026,13 @@
         <v>246256.39</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6356299854827265</v>
+        <v>0.634758065063683</v>
       </c>
       <c r="L13" t="n">
-        <v>160833.24</v>
+        <v>162204.57</v>
       </c>
       <c r="M13" t="n">
-        <v>86.9187</v>
+        <v>87.6598</v>
       </c>
     </row>
     <row r="14">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.942</v>
+        <v>1.939</v>
       </c>
       <c r="D14" t="n">
         <v>1.85</v>
@@ -1056,7 +1056,7 @@
         <v>68491.67999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>133010.84</v>
+        <v>132805.37</v>
       </c>
       <c r="G14" t="n">
         <v>126709.6</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.901041666666667</v>
+        <v>1.881443298969072</v>
       </c>
       <c r="L14" t="n">
-        <v>6301.24</v>
+        <v>6095.77</v>
       </c>
       <c r="M14" t="n">
-        <v>4.973</v>
+        <v>4.8108</v>
       </c>
     </row>
     <row r="15">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.188</v>
+        <v>1.199</v>
       </c>
       <c r="D15" t="n">
         <v>1.1815</v>
@@ -1101,7 +1101,7 @@
         <v>108400</v>
       </c>
       <c r="F15" t="n">
-        <v>128779.2</v>
+        <v>129971.6</v>
       </c>
       <c r="G15" t="n">
         <v>172687.68</v>
@@ -1116,103 +1116,103 @@
         <v>44611.54</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3150156665650434</v>
+        <v>0.3145841382546803</v>
       </c>
       <c r="L15" t="n">
-        <v>703.0599999999999</v>
+        <v>1895.46</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4071</v>
+        <v>1.0976</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>易方达证券公司(LOF)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001180</t>
+          <t>502010</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.2261</v>
+        <v>1.1888</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.6395</v>
+        <v>1.1314</v>
       </c>
       <c r="E16" t="n">
-        <v>67826.50999999999</v>
+        <v>57016.21</v>
       </c>
       <c r="F16" t="n">
-        <v>83162.08</v>
+        <v>67780.87</v>
       </c>
       <c r="G16" t="n">
-        <v>496666</v>
+        <v>64507.2</v>
       </c>
       <c r="H16" t="n">
-        <v>480892</v>
+        <v>64507.2</v>
       </c>
       <c r="I16" t="n">
-        <v>-179026.38</v>
+        <v>64507.2</v>
       </c>
       <c r="J16" t="n">
-        <v>675692.38</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6111450932746956</v>
+        <v>0.2503429355281207</v>
       </c>
       <c r="L16" t="n">
-        <v>262188.46</v>
+        <v>3273.67</v>
       </c>
       <c r="M16" t="n">
-        <v>54.5213</v>
+        <v>5.0749</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>易方达证券公司(LOF)</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>502010</t>
+          <t>001180</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.1903</v>
+        <v>1.2417</v>
       </c>
       <c r="D17" t="n">
-        <v>1.1314</v>
+        <v>-4.3012</v>
       </c>
       <c r="E17" t="n">
-        <v>57016.21</v>
+        <v>47478.51</v>
       </c>
       <c r="F17" t="n">
-        <v>67866.39</v>
+        <v>58954.07</v>
       </c>
       <c r="G17" t="n">
-        <v>64507.2</v>
+        <v>496666</v>
       </c>
       <c r="H17" t="n">
-        <v>64507.2</v>
+        <v>480892</v>
       </c>
       <c r="I17" t="n">
-        <v>64507.2</v>
+        <v>-204216.6899999999</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>700882.6899999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2506868131868132</v>
+        <v>0.6234203407260994</v>
       </c>
       <c r="L17" t="n">
-        <v>3359.19</v>
+        <v>263170.76</v>
       </c>
       <c r="M17" t="n">
-        <v>5.2075</v>
+        <v>54.7255</v>
       </c>
     </row>
     <row r="18">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.8299</v>
+        <v>2.8677</v>
       </c>
       <c r="D18" t="n">
         <v>3.2481</v>
@@ -1236,7 +1236,7 @@
         <v>20249.89</v>
       </c>
       <c r="F18" t="n">
-        <v>57305.16</v>
+        <v>58070.61</v>
       </c>
       <c r="G18" t="n">
         <v>65774.2</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>2.991803278688525</v>
+        <v>2.943548387096774</v>
       </c>
       <c r="L18" t="n">
-        <v>-8469.040000000001</v>
+        <v>-7703.59</v>
       </c>
       <c r="M18" t="n">
-        <v>-12.8759</v>
+        <v>-11.7122</v>
       </c>
     </row>
     <row r="19">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.488</v>
+        <v>1.506</v>
       </c>
       <c r="D19" t="n">
         <v>1.5175</v>
@@ -1281,7 +1281,7 @@
         <v>20800</v>
       </c>
       <c r="F19" t="n">
-        <v>30950.4</v>
+        <v>31324.8</v>
       </c>
       <c r="G19" t="n">
         <v>31564</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2503429355281207</v>
+        <v>0.25</v>
       </c>
       <c r="L19" t="n">
-        <v>-613.6</v>
+        <v>-239.2</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.944</v>
+        <v>-0.7578</v>
       </c>
     </row>
     <row r="20">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.39</v>
+        <v>1.398</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0593</v>
@@ -1326,7 +1326,7 @@
         <v>11217.96</v>
       </c>
       <c r="F20" t="n">
-        <v>15592.96</v>
+        <v>15682.71</v>
       </c>
       <c r="G20" t="n">
         <v>85714</v>
@@ -1341,13 +1341,13 @@
         <v>86378.75999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.609972253472843</v>
+        <v>0.6091355288453083</v>
       </c>
       <c r="L20" t="n">
-        <v>16257.72</v>
+        <v>16347.47</v>
       </c>
       <c r="M20" t="n">
-        <v>22.9866</v>
+        <v>23.1135</v>
       </c>
     </row>
     <row r="21">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.072</v>
+        <v>1.0737</v>
       </c>
       <c r="D21" t="n">
         <v>1.0603</v>
@@ -1371,7 +1371,7 @@
         <v>11317.23</v>
       </c>
       <c r="F21" t="n">
-        <v>12132.07</v>
+        <v>12151.31</v>
       </c>
       <c r="G21" t="n">
         <v>12000</v>
@@ -1386,37 +1386,37 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.198795180722891</v>
+        <v>2.172619047619047</v>
       </c>
       <c r="L21" t="n">
-        <v>132.07</v>
+        <v>151.31</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1006</v>
+        <v>1.2609</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>广发趋势优选灵活配置混合C</t>
+          <t>东方红策略精选混合C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008127</t>
+          <t>001406</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.6182</v>
+        <v>1.2777</v>
       </c>
       <c r="D22" t="n">
-        <v>1.6147</v>
+        <v>1.2729</v>
       </c>
       <c r="E22" t="n">
-        <v>7431.56</v>
+        <v>9427.66</v>
       </c>
       <c r="F22" t="n">
-        <v>12025.75</v>
+        <v>12045.72</v>
       </c>
       <c r="G22" t="n">
         <v>12000</v>
@@ -1431,37 +1431,37 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.198795180722891</v>
+        <v>2.172619047619047</v>
       </c>
       <c r="L22" t="n">
-        <v>25.75</v>
+        <v>45.72</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2146</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>东方红策略精选混合C</t>
+          <t>广发趋势优选灵活配置混合C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001406</t>
+          <t>008127</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.2752</v>
+        <v>1.6195</v>
       </c>
       <c r="D23" t="n">
-        <v>1.2729</v>
+        <v>1.6147</v>
       </c>
       <c r="E23" t="n">
-        <v>9427.66</v>
+        <v>7431.56</v>
       </c>
       <c r="F23" t="n">
-        <v>12022.15</v>
+        <v>12035.41</v>
       </c>
       <c r="G23" t="n">
         <v>12000</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2.198795180722891</v>
+        <v>2.172619047619047</v>
       </c>
       <c r="L23" t="n">
-        <v>22.15</v>
+        <v>35.41</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1846</v>
+        <v>0.2951</v>
       </c>
     </row>
     <row r="24">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.637</v>
+        <v>1.638</v>
       </c>
       <c r="D24" t="n">
         <v>1.6455</v>
@@ -1506,7 +1506,7 @@
         <v>7292.68</v>
       </c>
       <c r="F24" t="n">
-        <v>11938.12</v>
+        <v>11945.41</v>
       </c>
       <c r="G24" t="n">
         <v>12000</v>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>2.198795180722891</v>
+        <v>2.172619047619047</v>
       </c>
       <c r="L24" t="n">
-        <v>-61.88</v>
+        <v>-54.59</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.5157</v>
+        <v>-0.4549</v>
       </c>
     </row>
     <row r="25">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.1387</v>
+        <v>1.1395</v>
       </c>
       <c r="D25" t="n">
         <v>1.1438</v>
@@ -1551,7 +1551,7 @@
         <v>6994.4</v>
       </c>
       <c r="F25" t="n">
-        <v>7964.52</v>
+        <v>7970.12</v>
       </c>
       <c r="G25" t="n">
         <v>8000</v>
@@ -1566,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2.683823529411764</v>
+        <v>2.644927536231884</v>
       </c>
       <c r="L25" t="n">
-        <v>-35.48</v>
+        <v>-29.88</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.4435</v>
+        <v>-0.3735</v>
       </c>
     </row>
     <row r="26">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.4849</v>
+        <v>2.489</v>
       </c>
       <c r="D26" t="n">
         <v>2.4932</v>
@@ -1596,7 +1596,7 @@
         <v>1604.37</v>
       </c>
       <c r="F26" t="n">
-        <v>3986.7</v>
+        <v>3993.28</v>
       </c>
       <c r="G26" t="n">
         <v>4000</v>
@@ -1611,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.198795180722891</v>
+        <v>2.172619047619047</v>
       </c>
       <c r="L26" t="n">
-        <v>-13.3</v>
+        <v>-6.72</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.3325</v>
+        <v>-0.168</v>
       </c>
     </row>
     <row r="27">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.6112</v>
+        <v>2.6293</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>1066843.61</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7348133227696497</v>
+        <v>0.7338053483899931</v>
       </c>
       <c r="L27" t="n">
         <v>90684.41</v>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.637</v>
+        <v>2.673</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>230025</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7384667148600321</v>
+        <v>0.7374551166204978</v>
       </c>
       <c r="L28" t="n">
         <v>112052.6</v>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.1712</v>
+        <v>1.1739</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>263017.37</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5624839220492437</v>
+        <v>0.5617123391657742</v>
       </c>
       <c r="L29" t="n">
         <v>51549.77</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.521</v>
+        <v>3.561</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>101718.23</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5818149208100577</v>
+        <v>0.5810179140692221</v>
       </c>
       <c r="L30" t="n">
         <v>24895.93</v>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.21</v>
+        <v>2.221</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>67660.25</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5579325649728453</v>
+        <v>0.5571672253775465</v>
       </c>
       <c r="L31" t="n">
         <v>12455.15</v>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.3903</v>
+        <v>1.4034</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>30059.92</v>
       </c>
       <c r="K32" t="n">
-        <v>3.262183154761904</v>
+        <v>3.233314277286135</v>
       </c>
       <c r="L32" t="n">
         <v>59.92</v>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.185</v>
+        <v>1.192</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>19166.88</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5463146234207451</v>
+        <v>0.5455662472242784</v>
       </c>
       <c r="L33" t="n">
         <v>2954.88</v>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.399</v>
+        <v>0.398</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>96605.34</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6600408176465145</v>
+        <v>0.658904774931116</v>
       </c>
       <c r="L34" t="n">
         <v>8595.4</v>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.602</v>
+        <v>0.617</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>332315.8</v>
       </c>
       <c r="K35" t="n">
-        <v>5.761910334025106</v>
+        <v>5.668976296379539</v>
       </c>
       <c r="L35" t="n">
         <v>-26595.78</v>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.0667</v>
+        <v>1.0806</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>285932.16</v>
       </c>
       <c r="K36" t="n">
-        <v>3.868226220281213</v>
+        <v>3.829153228157161</v>
       </c>
       <c r="L36" t="n">
         <v>20488.16</v>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.011</v>
+        <v>2.029</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>216913.47</v>
       </c>
       <c r="K37" t="n">
-        <v>0.557630852331671</v>
+        <v>0.5568659266083079</v>
       </c>
       <c r="L37" t="n">
         <v>39756.27</v>

--- a/inv_analysis/report.xlsx
+++ b/inv_analysis/report.xlsx
@@ -516,7 +516,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>3773720.54</v>
+        <v>3572189.19</v>
       </c>
       <c r="G2" t="n">
         <v>7272100.73</v>
@@ -525,19 +525,19 @@
         <v>5475932.48</v>
       </c>
       <c r="I2" t="n">
-        <v>2355155.46</v>
+        <v>2124399</v>
       </c>
       <c r="J2" t="n">
-        <v>4916945.27</v>
+        <v>5147701.73</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4456986465618364</v>
+        <v>0.4549871368344137</v>
       </c>
       <c r="L2" t="n">
-        <v>1418565.08</v>
+        <v>1447790.19</v>
       </c>
       <c r="M2" t="n">
-        <v>25.9055</v>
+        <v>26.4392</v>
       </c>
     </row>
     <row r="3">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.083</v>
+        <v>1.09</v>
       </c>
       <c r="D3" t="n">
         <v>0.9177</v>
@@ -561,7 +561,7 @@
         <v>562953.52</v>
       </c>
       <c r="F3" t="n">
-        <v>609678.66</v>
+        <v>613619.34</v>
       </c>
       <c r="G3" t="n">
         <v>653308.6</v>
@@ -576,13 +576,13 @@
         <v>136662.31</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3027109035319921</v>
+        <v>0.3018826931256118</v>
       </c>
       <c r="L3" t="n">
-        <v>93032.37</v>
+        <v>96973.05</v>
       </c>
       <c r="M3" t="n">
-        <v>14.2402</v>
+        <v>14.8434</v>
       </c>
     </row>
     <row r="4">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.407</v>
+        <v>3.471</v>
       </c>
       <c r="D4" t="n">
         <v>3.468</v>
@@ -606,7 +606,7 @@
         <v>102846.38</v>
       </c>
       <c r="F4" t="n">
-        <v>350397.62</v>
+        <v>356979.78</v>
       </c>
       <c r="G4" t="n">
         <v>356668.2</v>
@@ -621,13 +621,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5.53030303030303</v>
+        <v>5.214285714285714</v>
       </c>
       <c r="L4" t="n">
-        <v>-6270.58</v>
+        <v>311.58</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.7581</v>
+        <v>0.08740000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.1036</v>
+        <v>2.1241</v>
       </c>
       <c r="D5" t="n">
         <v>1.662</v>
@@ -651,7 +651,7 @@
         <v>146453.77</v>
       </c>
       <c r="F5" t="n">
-        <v>308080.15</v>
+        <v>311082.45</v>
       </c>
       <c r="G5" t="n">
         <v>243400</v>
@@ -666,13 +666,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2503429355281207</v>
+        <v>0.2496580027359781</v>
       </c>
       <c r="L5" t="n">
-        <v>64680.15</v>
+        <v>67682.45</v>
       </c>
       <c r="M5" t="n">
-        <v>26.5736</v>
+        <v>27.8071</v>
       </c>
     </row>
     <row r="6">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.485</v>
+        <v>1.493</v>
       </c>
       <c r="D6" t="n">
         <v>1.6293</v>
@@ -696,7 +696,7 @@
         <v>203900</v>
       </c>
       <c r="F6" t="n">
-        <v>302791.5</v>
+        <v>304422.7</v>
       </c>
       <c r="G6" t="n">
         <v>332206.6</v>
@@ -711,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>5.214285714285714</v>
+        <v>4.932432432432432</v>
       </c>
       <c r="L6" t="n">
-        <v>-29415.1</v>
+        <v>-27783.9</v>
       </c>
       <c r="M6" t="n">
-        <v>-8.8545</v>
+        <v>-8.3634</v>
       </c>
     </row>
     <row r="7">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1671</v>
+        <v>1.1627</v>
       </c>
       <c r="D7" t="n">
         <v>1.101</v>
@@ -741,7 +741,7 @@
         <v>258053.33</v>
       </c>
       <c r="F7" t="n">
-        <v>301174.04</v>
+        <v>300038.61</v>
       </c>
       <c r="G7" t="n">
         <v>284108.9</v>
@@ -756,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2503429355281207</v>
+        <v>0.2496580027359781</v>
       </c>
       <c r="L7" t="n">
-        <v>17065.14</v>
+        <v>15929.71</v>
       </c>
       <c r="M7" t="n">
-        <v>6.0065</v>
+        <v>5.6069</v>
       </c>
     </row>
     <row r="8">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.788</v>
+        <v>0.794</v>
       </c>
       <c r="D8" t="n">
         <v>0.8778</v>
@@ -786,7 +786,7 @@
         <v>359200</v>
       </c>
       <c r="F8" t="n">
-        <v>283049.6</v>
+        <v>285204.8</v>
       </c>
       <c r="G8" t="n">
         <v>315322.73</v>
@@ -801,13 +801,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.25</v>
+        <v>0.2493169398907104</v>
       </c>
       <c r="L8" t="n">
-        <v>-32273.13</v>
+        <v>-30117.93</v>
       </c>
       <c r="M8" t="n">
-        <v>-10.235</v>
+        <v>-9.551500000000001</v>
       </c>
     </row>
     <row r="9">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8619</v>
+        <v>0.8731</v>
       </c>
       <c r="D9" t="n">
         <v>0.4004</v>
@@ -831,7 +831,7 @@
         <v>303649.3</v>
       </c>
       <c r="F9" t="n">
-        <v>261715.33</v>
+        <v>265116.2</v>
       </c>
       <c r="G9" t="n">
         <v>323557.7</v>
@@ -846,13 +846,13 @@
         <v>201989.43</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4066261173280032</v>
+        <v>0.405513597171155</v>
       </c>
       <c r="L9" t="n">
-        <v>140147.06</v>
+        <v>143547.93</v>
       </c>
       <c r="M9" t="n">
-        <v>43.3144</v>
+        <v>44.3655</v>
       </c>
     </row>
     <row r="10">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.824</v>
+        <v>3.832</v>
       </c>
       <c r="D10" t="n">
         <v>1.8758</v>
@@ -876,7 +876,7 @@
         <v>65660.31</v>
       </c>
       <c r="F10" t="n">
-        <v>251085.03</v>
+        <v>251610.31</v>
       </c>
       <c r="G10" t="n">
         <v>218819.8</v>
@@ -891,13 +891,13 @@
         <v>95653.39</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3597761332817802</v>
+        <v>0.3587917936558382</v>
       </c>
       <c r="L10" t="n">
-        <v>127918.62</v>
+        <v>128443.9</v>
       </c>
       <c r="M10" t="n">
-        <v>58.4584</v>
+        <v>58.6985</v>
       </c>
     </row>
     <row r="11">
@@ -912,16 +912,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.2639</v>
+        <v>1.2754</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4571</v>
+        <v>0.09950000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>171652.64</v>
+        <v>119373.64</v>
       </c>
       <c r="F11" t="n">
-        <v>216951.77</v>
+        <v>152249.14</v>
       </c>
       <c r="G11" t="n">
         <v>618155.4</v>
@@ -930,154 +930,154 @@
         <v>618155.4</v>
       </c>
       <c r="I11" t="n">
-        <v>78470.26000000001</v>
+        <v>11873.33999999997</v>
       </c>
       <c r="J11" t="n">
-        <v>539685.14</v>
+        <v>606282.0600000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4689066853691878</v>
+        <v>0.4945206508569107</v>
       </c>
       <c r="L11" t="n">
-        <v>138481.51</v>
+        <v>140375.8</v>
       </c>
       <c r="M11" t="n">
-        <v>22.4024</v>
+        <v>22.7088</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强A</t>
+          <t>易方达消费行业股票</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>310318</t>
+          <t>110022</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.5619</v>
+        <v>5.035</v>
       </c>
       <c r="D12" t="n">
-        <v>1.3153</v>
+        <v>-0.8339</v>
       </c>
       <c r="E12" t="n">
-        <v>54801.7</v>
+        <v>27986.17</v>
       </c>
       <c r="F12" t="n">
-        <v>195198.18</v>
+        <v>140910.37</v>
       </c>
       <c r="G12" t="n">
-        <v>226649.6</v>
+        <v>222919.2</v>
       </c>
       <c r="H12" t="n">
-        <v>226649.6</v>
+        <v>185038.68</v>
       </c>
       <c r="I12" t="n">
-        <v>72082.01000000001</v>
+        <v>-23337.19</v>
       </c>
       <c r="J12" t="n">
-        <v>154567.59</v>
+        <v>246256.39</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4210686028935473</v>
+        <v>0.6330213808911421</v>
       </c>
       <c r="L12" t="n">
-        <v>123116.17</v>
+        <v>164247.56</v>
       </c>
       <c r="M12" t="n">
-        <v>54.32</v>
+        <v>88.76390000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>易方达消费行业股票</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>110022</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.962</v>
+        <v>1.948</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8339</v>
+        <v>1.85</v>
       </c>
       <c r="E13" t="n">
-        <v>27986.17</v>
+        <v>68491.67999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>138867.38</v>
+        <v>133421.79</v>
       </c>
       <c r="G13" t="n">
-        <v>222919.2</v>
+        <v>126709.6</v>
       </c>
       <c r="H13" t="n">
-        <v>185038.68</v>
+        <v>126709.6</v>
       </c>
       <c r="I13" t="n">
-        <v>-23337.19</v>
+        <v>126709.6</v>
       </c>
       <c r="J13" t="n">
-        <v>246256.39</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.634758065063683</v>
+        <v>1.843434343434343</v>
       </c>
       <c r="L13" t="n">
-        <v>162204.57</v>
+        <v>6712.19</v>
       </c>
       <c r="M13" t="n">
-        <v>87.6598</v>
+        <v>5.2973</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>申万菱信沪深300指数增强A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>310318</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.939</v>
+        <v>3.5828</v>
       </c>
       <c r="D14" t="n">
-        <v>1.85</v>
+        <v>-0.9522</v>
       </c>
       <c r="E14" t="n">
-        <v>68491.67999999999</v>
+        <v>27400.8</v>
       </c>
       <c r="F14" t="n">
-        <v>132805.37</v>
+        <v>98171.59</v>
       </c>
       <c r="G14" t="n">
-        <v>126709.6</v>
+        <v>226649.6</v>
       </c>
       <c r="H14" t="n">
-        <v>126709.6</v>
+        <v>226649.6</v>
       </c>
       <c r="I14" t="n">
-        <v>126709.6</v>
+        <v>-26089.92999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>252739.53</v>
       </c>
       <c r="K14" t="n">
-        <v>1.881443298969072</v>
+        <v>0.5280544626116178</v>
       </c>
       <c r="L14" t="n">
-        <v>6095.77</v>
+        <v>124261.52</v>
       </c>
       <c r="M14" t="n">
-        <v>4.8108</v>
+        <v>54.8254</v>
       </c>
     </row>
     <row r="15">
@@ -1092,16 +1092,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.199</v>
+        <v>1.215</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1815</v>
+        <v>1.1707</v>
       </c>
       <c r="E15" t="n">
-        <v>108400</v>
+        <v>78400</v>
       </c>
       <c r="F15" t="n">
-        <v>129971.6</v>
+        <v>95256</v>
       </c>
       <c r="G15" t="n">
         <v>172687.68</v>
@@ -1110,19 +1110,19 @@
         <v>172687.68</v>
       </c>
       <c r="I15" t="n">
-        <v>128076.14</v>
+        <v>91779.76999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>44611.54</v>
+        <v>80907.91</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3145841382546803</v>
+        <v>0.3661273141695993</v>
       </c>
       <c r="L15" t="n">
-        <v>1895.46</v>
+        <v>3476.23</v>
       </c>
       <c r="M15" t="n">
-        <v>1.0976</v>
+        <v>2.013</v>
       </c>
     </row>
     <row r="16">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.1888</v>
+        <v>1.1808</v>
       </c>
       <c r="D16" t="n">
         <v>1.1314</v>
@@ -1146,7 +1146,7 @@
         <v>57016.21</v>
       </c>
       <c r="F16" t="n">
-        <v>67780.87</v>
+        <v>67324.74000000001</v>
       </c>
       <c r="G16" t="n">
         <v>64507.2</v>
@@ -1161,148 +1161,148 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2503429355281207</v>
+        <v>0.2496580027359781</v>
       </c>
       <c r="L16" t="n">
-        <v>3273.67</v>
+        <v>2817.54</v>
       </c>
       <c r="M16" t="n">
-        <v>5.0749</v>
+        <v>4.3678</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>易方达蓝筹精选混合</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001180</t>
+          <t>005827</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.2417</v>
+        <v>2.9347</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.3012</v>
+        <v>3.2481</v>
       </c>
       <c r="E17" t="n">
-        <v>47478.51</v>
+        <v>20249.89</v>
       </c>
       <c r="F17" t="n">
-        <v>58954.07</v>
+        <v>59427.35</v>
       </c>
       <c r="G17" t="n">
-        <v>496666</v>
+        <v>65774.2</v>
       </c>
       <c r="H17" t="n">
-        <v>480892</v>
+        <v>65774.2</v>
       </c>
       <c r="I17" t="n">
-        <v>-204216.6899999999</v>
+        <v>65774.2</v>
       </c>
       <c r="J17" t="n">
-        <v>700882.6899999999</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6234203407260994</v>
+        <v>2.8515625</v>
       </c>
       <c r="L17" t="n">
-        <v>263170.76</v>
+        <v>-6346.85</v>
       </c>
       <c r="M17" t="n">
-        <v>54.7255</v>
+        <v>-9.6495</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>易方达蓝筹精选混合</t>
+          <t>恒生ETF</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005827</t>
+          <t>SZ159920</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.8677</v>
+        <v>1.516</v>
       </c>
       <c r="D18" t="n">
-        <v>3.2481</v>
+        <v>1.5175</v>
       </c>
       <c r="E18" t="n">
-        <v>20249.89</v>
+        <v>20800</v>
       </c>
       <c r="F18" t="n">
-        <v>58070.61</v>
+        <v>31532.8</v>
       </c>
       <c r="G18" t="n">
-        <v>65774.2</v>
+        <v>31564</v>
       </c>
       <c r="H18" t="n">
-        <v>65774.2</v>
+        <v>31564</v>
       </c>
       <c r="I18" t="n">
-        <v>65774.2</v>
+        <v>31564</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>2.943548387096774</v>
+        <v>0.2493169398907104</v>
       </c>
       <c r="L18" t="n">
-        <v>-7703.59</v>
+        <v>-31.2</v>
       </c>
       <c r="M18" t="n">
-        <v>-11.7122</v>
+        <v>-0.0988</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SZ159920</t>
+          <t>001180</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.506</v>
+        <v>1.2545</v>
       </c>
       <c r="D19" t="n">
-        <v>1.5175</v>
+        <v>-9.8531</v>
       </c>
       <c r="E19" t="n">
-        <v>20800</v>
+        <v>23739.51</v>
       </c>
       <c r="F19" t="n">
-        <v>31324.8</v>
+        <v>29781.22</v>
       </c>
       <c r="G19" t="n">
-        <v>31564</v>
+        <v>496666</v>
       </c>
       <c r="H19" t="n">
-        <v>31564</v>
+        <v>480892</v>
       </c>
       <c r="I19" t="n">
-        <v>31564</v>
+        <v>-233907.92</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>730573.92</v>
       </c>
       <c r="K19" t="n">
-        <v>0.25</v>
+        <v>0.6371290587180938</v>
       </c>
       <c r="L19" t="n">
-        <v>-239.2</v>
+        <v>263689.14</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.7578</v>
+        <v>54.8333</v>
       </c>
     </row>
     <row r="20">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.398</v>
+        <v>1.413</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0593</v>
@@ -1326,7 +1326,7 @@
         <v>11217.96</v>
       </c>
       <c r="F20" t="n">
-        <v>15682.71</v>
+        <v>15850.98</v>
       </c>
       <c r="G20" t="n">
         <v>85714</v>
@@ -1341,13 +1341,13 @@
         <v>86378.75999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6091355288453083</v>
+        <v>0.6074689473710393</v>
       </c>
       <c r="L20" t="n">
-        <v>16347.47</v>
+        <v>16515.74</v>
       </c>
       <c r="M20" t="n">
-        <v>23.1135</v>
+        <v>23.3515</v>
       </c>
     </row>
     <row r="21">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.0737</v>
+        <v>1.0752</v>
       </c>
       <c r="D21" t="n">
         <v>1.0603</v>
@@ -1371,7 +1371,7 @@
         <v>11317.23</v>
       </c>
       <c r="F21" t="n">
-        <v>12151.31</v>
+        <v>12168.29</v>
       </c>
       <c r="G21" t="n">
         <v>12000</v>
@@ -1386,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.172619047619047</v>
+        <v>2.122093023255814</v>
       </c>
       <c r="L21" t="n">
-        <v>151.31</v>
+        <v>168.29</v>
       </c>
       <c r="M21" t="n">
-        <v>1.2609</v>
+        <v>1.4024</v>
       </c>
     </row>
     <row r="22">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.2777</v>
+        <v>1.2792</v>
       </c>
       <c r="D22" t="n">
         <v>1.2729</v>
@@ -1416,7 +1416,7 @@
         <v>9427.66</v>
       </c>
       <c r="F22" t="n">
-        <v>12045.72</v>
+        <v>12059.86</v>
       </c>
       <c r="G22" t="n">
         <v>12000</v>
@@ -1431,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.172619047619047</v>
+        <v>2.122093023255814</v>
       </c>
       <c r="L22" t="n">
-        <v>45.72</v>
+        <v>59.86</v>
       </c>
       <c r="M22" t="n">
-        <v>0.381</v>
+        <v>0.4988</v>
       </c>
     </row>
     <row r="23">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.6195</v>
+        <v>1.619</v>
       </c>
       <c r="D23" t="n">
         <v>1.6147</v>
@@ -1461,7 +1461,7 @@
         <v>7431.56</v>
       </c>
       <c r="F23" t="n">
-        <v>12035.41</v>
+        <v>12031.7</v>
       </c>
       <c r="G23" t="n">
         <v>12000</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2.172619047619047</v>
+        <v>2.122093023255814</v>
       </c>
       <c r="L23" t="n">
-        <v>35.41</v>
+        <v>31.7</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2951</v>
+        <v>0.2642</v>
       </c>
     </row>
     <row r="24">
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>2.172619047619047</v>
+        <v>2.122093023255814</v>
       </c>
       <c r="L24" t="n">
         <v>-54.59</v>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.1395</v>
+        <v>1.142</v>
       </c>
       <c r="D25" t="n">
         <v>1.1438</v>
@@ -1551,7 +1551,7 @@
         <v>6994.4</v>
       </c>
       <c r="F25" t="n">
-        <v>7970.12</v>
+        <v>7987.6</v>
       </c>
       <c r="G25" t="n">
         <v>8000</v>
@@ -1566,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2.644927536231884</v>
+        <v>2.570422535211268</v>
       </c>
       <c r="L25" t="n">
-        <v>-29.88</v>
+        <v>-12.4</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.3735</v>
+        <v>-0.155</v>
       </c>
     </row>
     <row r="26">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.489</v>
+        <v>2.4908</v>
       </c>
       <c r="D26" t="n">
         <v>2.4932</v>
@@ -1596,7 +1596,7 @@
         <v>1604.37</v>
       </c>
       <c r="F26" t="n">
-        <v>3993.28</v>
+        <v>3996.16</v>
       </c>
       <c r="G26" t="n">
         <v>4000</v>
@@ -1611,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2.172619047619047</v>
+        <v>2.122093023255814</v>
       </c>
       <c r="L26" t="n">
-        <v>-6.72</v>
+        <v>-3.84</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.168</v>
+        <v>-0.096</v>
       </c>
     </row>
     <row r="27">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.6293</v>
+        <v>2.6508</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>1066843.61</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7338053483899931</v>
+        <v>0.7317976730182011</v>
       </c>
       <c r="L27" t="n">
         <v>90684.41</v>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.673</v>
+        <v>2.718</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>230025</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7374551166204978</v>
+        <v>0.7354402119302779</v>
       </c>
       <c r="L28" t="n">
         <v>112052.6</v>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.1739</v>
+        <v>1.1706</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>263017.37</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5617123391657742</v>
+        <v>0.560175506500478</v>
       </c>
       <c r="L29" t="n">
         <v>51549.77</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.561</v>
+        <v>3.567</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>101718.23</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5810179140692221</v>
+        <v>0.5794304334296887</v>
       </c>
       <c r="L30" t="n">
         <v>24895.93</v>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.221</v>
+        <v>2.237</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>67660.25</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5571672253775465</v>
+        <v>0.5556428280440922</v>
       </c>
       <c r="L31" t="n">
         <v>12455.15</v>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.4034</v>
+        <v>1.4066</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>30059.92</v>
       </c>
       <c r="K32" t="n">
-        <v>3.233314277286135</v>
+        <v>3.177082724637681</v>
       </c>
       <c r="L32" t="n">
         <v>59.92</v>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.192</v>
+        <v>1.208</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>19166.88</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5455662472242784</v>
+        <v>0.5440756290624634</v>
       </c>
       <c r="L33" t="n">
         <v>2954.88</v>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.398</v>
+        <v>0.401</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>96605.34</v>
       </c>
       <c r="K34" t="n">
-        <v>0.658904774931116</v>
+        <v>0.6566443811920727</v>
       </c>
       <c r="L34" t="n">
         <v>8595.4</v>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.617</v>
+        <v>0.626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>332315.8</v>
       </c>
       <c r="K35" t="n">
-        <v>5.668976296379539</v>
+        <v>5.491820787117679</v>
       </c>
       <c r="L35" t="n">
         <v>-26595.78</v>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.0806</v>
+        <v>1.0969</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>285932.16</v>
       </c>
       <c r="K36" t="n">
-        <v>3.829153228157161</v>
+        <v>3.753328411758009</v>
       </c>
       <c r="L36" t="n">
         <v>20488.16</v>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.029</v>
+        <v>2.039</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>216913.47</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5568659266083079</v>
+        <v>0.5553423536216915</v>
       </c>
       <c r="L37" t="n">
         <v>39756.27</v>

--- a/inv_analysis/report.xlsx
+++ b/inv_analysis/report.xlsx
@@ -516,7 +516,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>3572189.19</v>
+        <v>3455122.3</v>
       </c>
       <c r="G2" t="n">
         <v>7272100.73</v>
@@ -525,19 +525,19 @@
         <v>5475932.48</v>
       </c>
       <c r="I2" t="n">
-        <v>2124399</v>
+        <v>1995458.32</v>
       </c>
       <c r="J2" t="n">
-        <v>5147701.73</v>
+        <v>5276642.409999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4549871368344137</v>
+        <v>0.4583530909404365</v>
       </c>
       <c r="L2" t="n">
-        <v>1447790.19</v>
+        <v>1459663.98</v>
       </c>
       <c r="M2" t="n">
-        <v>26.4392</v>
+        <v>26.656</v>
       </c>
     </row>
     <row r="3">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.09</v>
+        <v>1.083</v>
       </c>
       <c r="D3" t="n">
         <v>0.9177</v>
@@ -561,7 +561,7 @@
         <v>562953.52</v>
       </c>
       <c r="F3" t="n">
-        <v>613619.34</v>
+        <v>609678.66</v>
       </c>
       <c r="G3" t="n">
         <v>653308.6</v>
@@ -576,13 +576,13 @@
         <v>136662.31</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3018826931256118</v>
+        <v>0.3002397941154044</v>
       </c>
       <c r="L3" t="n">
-        <v>96973.05</v>
+        <v>93032.37</v>
       </c>
       <c r="M3" t="n">
-        <v>14.8434</v>
+        <v>14.2402</v>
       </c>
     </row>
     <row r="4">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.471</v>
+        <v>3.501</v>
       </c>
       <c r="D4" t="n">
         <v>3.468</v>
@@ -606,7 +606,7 @@
         <v>102846.38</v>
       </c>
       <c r="F4" t="n">
-        <v>356979.78</v>
+        <v>360065.18</v>
       </c>
       <c r="G4" t="n">
         <v>356668.2</v>
@@ -621,13 +621,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5.214285714285714</v>
+        <v>4.67948717948718</v>
       </c>
       <c r="L4" t="n">
-        <v>311.58</v>
+        <v>3396.98</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08740000000000001</v>
+        <v>0.9524</v>
       </c>
     </row>
     <row r="5">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.1241</v>
+        <v>2.109</v>
       </c>
       <c r="D5" t="n">
         <v>1.662</v>
@@ -651,7 +651,7 @@
         <v>146453.77</v>
       </c>
       <c r="F5" t="n">
-        <v>311082.45</v>
+        <v>308871</v>
       </c>
       <c r="G5" t="n">
         <v>243400</v>
@@ -666,13 +666,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2496580027359781</v>
+        <v>0.2482993197278912</v>
       </c>
       <c r="L5" t="n">
-        <v>67682.45</v>
+        <v>65471</v>
       </c>
       <c r="M5" t="n">
-        <v>27.8071</v>
+        <v>26.8985</v>
       </c>
     </row>
     <row r="6">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.493</v>
+        <v>1.505</v>
       </c>
       <c r="D6" t="n">
         <v>1.6293</v>
@@ -696,7 +696,7 @@
         <v>203900</v>
       </c>
       <c r="F6" t="n">
-        <v>304422.7</v>
+        <v>306869.5</v>
       </c>
       <c r="G6" t="n">
         <v>332206.6</v>
@@ -711,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.932432432432432</v>
+        <v>4.451219512195122</v>
       </c>
       <c r="L6" t="n">
-        <v>-27783.9</v>
+        <v>-25337.1</v>
       </c>
       <c r="M6" t="n">
-        <v>-8.3634</v>
+        <v>-7.6269</v>
       </c>
     </row>
     <row r="7">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1627</v>
+        <v>1.1576</v>
       </c>
       <c r="D7" t="n">
         <v>1.101</v>
@@ -741,7 +741,7 @@
         <v>258053.33</v>
       </c>
       <c r="F7" t="n">
-        <v>300038.61</v>
+        <v>298722.53</v>
       </c>
       <c r="G7" t="n">
         <v>284108.9</v>
@@ -756,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2496580027359781</v>
+        <v>0.2482993197278912</v>
       </c>
       <c r="L7" t="n">
-        <v>15929.71</v>
+        <v>14613.63</v>
       </c>
       <c r="M7" t="n">
-        <v>5.6069</v>
+        <v>5.1437</v>
       </c>
     </row>
     <row r="8">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.794</v>
+        <v>0.799</v>
       </c>
       <c r="D8" t="n">
         <v>0.8778</v>
@@ -786,7 +786,7 @@
         <v>359200</v>
       </c>
       <c r="F8" t="n">
-        <v>285204.8</v>
+        <v>287000.8</v>
       </c>
       <c r="G8" t="n">
         <v>315322.73</v>
@@ -801,13 +801,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2493169398907104</v>
+        <v>0.2479619565217391</v>
       </c>
       <c r="L8" t="n">
-        <v>-30117.93</v>
+        <v>-28321.93</v>
       </c>
       <c r="M8" t="n">
-        <v>-9.551500000000001</v>
+        <v>-8.9819</v>
       </c>
     </row>
     <row r="9">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8731</v>
+        <v>0.8703</v>
       </c>
       <c r="D9" t="n">
         <v>0.4004</v>
@@ -831,7 +831,7 @@
         <v>303649.3</v>
       </c>
       <c r="F9" t="n">
-        <v>265116.2</v>
+        <v>264265.99</v>
       </c>
       <c r="G9" t="n">
         <v>323557.7</v>
@@ -846,13 +846,13 @@
         <v>201989.43</v>
       </c>
       <c r="K9" t="n">
-        <v>0.405513597171155</v>
+        <v>0.4033067204518563</v>
       </c>
       <c r="L9" t="n">
-        <v>143547.93</v>
+        <v>142697.72</v>
       </c>
       <c r="M9" t="n">
-        <v>44.3655</v>
+        <v>44.1027</v>
       </c>
     </row>
     <row r="10">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.832</v>
+        <v>3.883</v>
       </c>
       <c r="D10" t="n">
         <v>1.8758</v>
@@ -876,7 +876,7 @@
         <v>65660.31</v>
       </c>
       <c r="F10" t="n">
-        <v>251610.31</v>
+        <v>254958.98</v>
       </c>
       <c r="G10" t="n">
         <v>218819.8</v>
@@ -891,13 +891,13 @@
         <v>95653.39</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3587917936558382</v>
+        <v>0.3568391852549901</v>
       </c>
       <c r="L10" t="n">
-        <v>128443.9</v>
+        <v>131792.57</v>
       </c>
       <c r="M10" t="n">
-        <v>58.6985</v>
+        <v>60.2288</v>
       </c>
     </row>
     <row r="11">
@@ -912,16 +912,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.2754</v>
+        <v>1.2866</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09950000000000001</v>
+        <v>0.0946</v>
       </c>
       <c r="E11" t="n">
         <v>119373.64</v>
       </c>
       <c r="F11" t="n">
-        <v>152249.14</v>
+        <v>153586.13</v>
       </c>
       <c r="G11" t="n">
         <v>618155.4</v>
@@ -930,19 +930,19 @@
         <v>618155.4</v>
       </c>
       <c r="I11" t="n">
-        <v>11873.33999999997</v>
+        <v>11288.53000000003</v>
       </c>
       <c r="J11" t="n">
-        <v>606282.0600000001</v>
+        <v>606866.87</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4945206508569107</v>
+        <v>0.4920642872205224</v>
       </c>
       <c r="L11" t="n">
-        <v>140375.8</v>
+        <v>142297.6</v>
       </c>
       <c r="M11" t="n">
-        <v>22.7088</v>
+        <v>23.0197</v>
       </c>
     </row>
     <row r="12">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.035</v>
+        <v>5.2</v>
       </c>
       <c r="D12" t="n">
         <v>-0.8339</v>
@@ -966,7 +966,7 @@
         <v>27986.17</v>
       </c>
       <c r="F12" t="n">
-        <v>140910.37</v>
+        <v>145528.08</v>
       </c>
       <c r="G12" t="n">
         <v>222919.2</v>
@@ -981,13 +981,13 @@
         <v>246256.39</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6330213808911421</v>
+        <v>0.6295763665733672</v>
       </c>
       <c r="L12" t="n">
-        <v>164247.56</v>
+        <v>168865.27</v>
       </c>
       <c r="M12" t="n">
-        <v>88.76390000000001</v>
+        <v>91.2594</v>
       </c>
     </row>
     <row r="13">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.948</v>
+        <v>1.938</v>
       </c>
       <c r="D13" t="n">
         <v>1.85</v>
@@ -1011,7 +1011,7 @@
         <v>68491.67999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>133421.79</v>
+        <v>132736.88</v>
       </c>
       <c r="G13" t="n">
         <v>126709.6</v>
@@ -1026,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.843434343434343</v>
+        <v>1.771844660194175</v>
       </c>
       <c r="L13" t="n">
-        <v>6712.19</v>
+        <v>6027.28</v>
       </c>
       <c r="M13" t="n">
-        <v>5.2973</v>
+        <v>4.7568</v>
       </c>
     </row>
     <row r="14">
@@ -1047,16 +1047,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.5828</v>
+        <v>3.6109</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9522</v>
+        <v>-0.9802999999999999</v>
       </c>
       <c r="E14" t="n">
         <v>27400.8</v>
       </c>
       <c r="F14" t="n">
-        <v>98171.59</v>
+        <v>98941.55</v>
       </c>
       <c r="G14" t="n">
         <v>226649.6</v>
@@ -1065,313 +1065,313 @@
         <v>226649.6</v>
       </c>
       <c r="I14" t="n">
-        <v>-26089.92999999999</v>
+        <v>-26859.89999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>252739.53</v>
+        <v>253509.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5280544626116178</v>
+        <v>0.5260242148724571</v>
       </c>
       <c r="L14" t="n">
-        <v>124261.52</v>
+        <v>125801.45</v>
       </c>
       <c r="M14" t="n">
-        <v>54.8254</v>
+        <v>55.5048</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>H股ETF</t>
+          <t>易方达证券公司(LOF)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SH510900</t>
+          <t>502010</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.215</v>
+        <v>1.1826</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1707</v>
+        <v>1.1314</v>
       </c>
       <c r="E15" t="n">
-        <v>78400</v>
+        <v>57016.21</v>
       </c>
       <c r="F15" t="n">
-        <v>95256</v>
+        <v>67427.37</v>
       </c>
       <c r="G15" t="n">
-        <v>172687.68</v>
+        <v>64507.2</v>
       </c>
       <c r="H15" t="n">
-        <v>172687.68</v>
+        <v>64507.2</v>
       </c>
       <c r="I15" t="n">
-        <v>91779.76999999999</v>
+        <v>64507.2</v>
       </c>
       <c r="J15" t="n">
-        <v>80907.91</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3661273141695993</v>
+        <v>0.2482993197278912</v>
       </c>
       <c r="L15" t="n">
-        <v>3476.23</v>
+        <v>2920.17</v>
       </c>
       <c r="M15" t="n">
-        <v>2.013</v>
+        <v>4.5269</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>易方达证券公司(LOF)</t>
+          <t>易方达蓝筹精选混合</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>502010</t>
+          <t>005827</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.1808</v>
+        <v>2.9855</v>
       </c>
       <c r="D16" t="n">
-        <v>1.1314</v>
+        <v>3.2481</v>
       </c>
       <c r="E16" t="n">
-        <v>57016.21</v>
+        <v>20249.89</v>
       </c>
       <c r="F16" t="n">
-        <v>67324.74000000001</v>
+        <v>60456.05</v>
       </c>
       <c r="G16" t="n">
-        <v>64507.2</v>
+        <v>65774.2</v>
       </c>
       <c r="H16" t="n">
-        <v>64507.2</v>
+        <v>65774.2</v>
       </c>
       <c r="I16" t="n">
-        <v>64507.2</v>
+        <v>65774.2</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2496580027359781</v>
+        <v>2.683823529411764</v>
       </c>
       <c r="L16" t="n">
-        <v>2817.54</v>
+        <v>-5318.15</v>
       </c>
       <c r="M16" t="n">
-        <v>4.3678</v>
+        <v>-8.0855</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>易方达蓝筹精选混合</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005827</t>
+          <t>001180</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.9347</v>
+        <v>1.2585</v>
       </c>
       <c r="D17" t="n">
-        <v>3.2481</v>
+        <v>-9.857100000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>20249.89</v>
+        <v>23739.51</v>
       </c>
       <c r="F17" t="n">
-        <v>59427.35</v>
+        <v>29876.17</v>
       </c>
       <c r="G17" t="n">
-        <v>65774.2</v>
+        <v>496666</v>
       </c>
       <c r="H17" t="n">
-        <v>65774.2</v>
+        <v>480892</v>
       </c>
       <c r="I17" t="n">
-        <v>65774.2</v>
+        <v>-234002.59</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>730668.59</v>
       </c>
       <c r="K17" t="n">
-        <v>2.8515625</v>
+        <v>0.6337105707217217</v>
       </c>
       <c r="L17" t="n">
-        <v>-6346.85</v>
+        <v>263878.76</v>
       </c>
       <c r="M17" t="n">
-        <v>-9.6495</v>
+        <v>54.8728</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SZ159920</t>
+          <t>000614</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.516</v>
+        <v>1.42</v>
       </c>
       <c r="D18" t="n">
-        <v>1.5175</v>
+        <v>-0.0593</v>
       </c>
       <c r="E18" t="n">
-        <v>20800</v>
+        <v>11217.96</v>
       </c>
       <c r="F18" t="n">
-        <v>31532.8</v>
+        <v>15929.5</v>
       </c>
       <c r="G18" t="n">
-        <v>31564</v>
+        <v>85714</v>
       </c>
       <c r="H18" t="n">
-        <v>31564</v>
+        <v>70726.8</v>
       </c>
       <c r="I18" t="n">
-        <v>31564</v>
+        <v>-664.7599999999948</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>86378.75999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2493169398907104</v>
+        <v>0.6041629939159588</v>
       </c>
       <c r="L18" t="n">
-        <v>-31.2</v>
+        <v>16594.26</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0988</v>
+        <v>23.4625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>鹏扬泓利债券C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001180</t>
+          <t>006060</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.2545</v>
+        <v>1.0745</v>
       </c>
       <c r="D19" t="n">
-        <v>-9.8531</v>
+        <v>1.0603</v>
       </c>
       <c r="E19" t="n">
-        <v>23739.51</v>
+        <v>11317.23</v>
       </c>
       <c r="F19" t="n">
-        <v>29781.22</v>
+        <v>12160.36</v>
       </c>
       <c r="G19" t="n">
-        <v>496666</v>
+        <v>12000</v>
       </c>
       <c r="H19" t="n">
-        <v>480892</v>
+        <v>12000</v>
       </c>
       <c r="I19" t="n">
-        <v>-233907.92</v>
+        <v>12000</v>
       </c>
       <c r="J19" t="n">
-        <v>730573.92</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6371290587180938</v>
+        <v>2.027777777777778</v>
       </c>
       <c r="L19" t="n">
-        <v>263689.14</v>
+        <v>160.36</v>
       </c>
       <c r="M19" t="n">
-        <v>54.8333</v>
+        <v>1.3363</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>东方红策略精选混合C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>000614</t>
+          <t>001406</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.413</v>
+        <v>1.2799</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0593</v>
+        <v>1.2729</v>
       </c>
       <c r="E20" t="n">
-        <v>11217.96</v>
+        <v>9427.66</v>
       </c>
       <c r="F20" t="n">
-        <v>15850.98</v>
+        <v>12066.46</v>
       </c>
       <c r="G20" t="n">
-        <v>85714</v>
+        <v>12000</v>
       </c>
       <c r="H20" t="n">
-        <v>70726.8</v>
+        <v>12000</v>
       </c>
       <c r="I20" t="n">
-        <v>-664.7599999999948</v>
+        <v>12000</v>
       </c>
       <c r="J20" t="n">
-        <v>86378.75999999999</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6074689473710393</v>
+        <v>2.027777777777778</v>
       </c>
       <c r="L20" t="n">
-        <v>16515.74</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>23.3515</v>
+        <v>0.5538</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>鹏扬泓利债券C</t>
+          <t>广发趋势优选灵活配置混合C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006060</t>
+          <t>008127</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.0752</v>
+        <v>1.6208</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0603</v>
+        <v>1.6147</v>
       </c>
       <c r="E21" t="n">
-        <v>11317.23</v>
+        <v>7431.56</v>
       </c>
       <c r="F21" t="n">
-        <v>12168.29</v>
+        <v>12045.07</v>
       </c>
       <c r="G21" t="n">
         <v>12000</v>
@@ -1386,37 +1386,37 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.122093023255814</v>
+        <v>2.027777777777778</v>
       </c>
       <c r="L21" t="n">
-        <v>168.29</v>
+        <v>45.07</v>
       </c>
       <c r="M21" t="n">
-        <v>1.4024</v>
+        <v>0.3756</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>东方红策略精选混合C</t>
+          <t>工银瑞信双利债券B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001406</t>
+          <t>485011</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.2792</v>
+        <v>1.639</v>
       </c>
       <c r="D22" t="n">
-        <v>1.2729</v>
+        <v>1.6455</v>
       </c>
       <c r="E22" t="n">
-        <v>9427.66</v>
+        <v>7292.68</v>
       </c>
       <c r="F22" t="n">
-        <v>12059.86</v>
+        <v>11952.7</v>
       </c>
       <c r="G22" t="n">
         <v>12000</v>
@@ -1431,238 +1431,238 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.122093023255814</v>
+        <v>2.027777777777778</v>
       </c>
       <c r="L22" t="n">
-        <v>59.86</v>
+        <v>-47.3</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4988</v>
+        <v>-0.3942</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>广发趋势优选灵活配置混合C</t>
+          <t>南方安裕混合C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008127</t>
+          <t>006586</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.619</v>
+        <v>1.1418</v>
       </c>
       <c r="D23" t="n">
-        <v>1.6147</v>
+        <v>1.1438</v>
       </c>
       <c r="E23" t="n">
-        <v>7431.56</v>
+        <v>6994.4</v>
       </c>
       <c r="F23" t="n">
-        <v>12031.7</v>
+        <v>7986.21</v>
       </c>
       <c r="G23" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="H23" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="I23" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2.122093023255814</v>
+        <v>2.433333333333333</v>
       </c>
       <c r="L23" t="n">
-        <v>31.7</v>
+        <v>-13.79</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2642</v>
+        <v>-0.1724</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>工银瑞信双利债券B</t>
+          <t>南方宝元债券C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>485011</t>
+          <t>006585</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.638</v>
+        <v>2.4914</v>
       </c>
       <c r="D24" t="n">
-        <v>1.6455</v>
+        <v>2.4932</v>
       </c>
       <c r="E24" t="n">
-        <v>7292.68</v>
+        <v>1604.37</v>
       </c>
       <c r="F24" t="n">
-        <v>11945.41</v>
+        <v>3997.13</v>
       </c>
       <c r="G24" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="H24" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="I24" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>2.122093023255814</v>
+        <v>2.027777777777778</v>
       </c>
       <c r="L24" t="n">
-        <v>-54.59</v>
+        <v>-2.87</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.4549</v>
+        <v>-0.0718</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>南方安裕混合C</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006586</t>
+          <t>000478</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.142</v>
+        <v>2.663</v>
       </c>
       <c r="D25" t="n">
-        <v>1.1438</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6994.4</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>7987.6</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>8000</v>
+        <v>976159.2</v>
       </c>
       <c r="H25" t="n">
-        <v>8000</v>
+        <v>696985</v>
       </c>
       <c r="I25" t="n">
-        <v>8000</v>
+        <v>-90684.41000000015</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1066843.61</v>
       </c>
       <c r="K25" t="n">
-        <v>2.570422535211268</v>
+        <v>0.727815100648034</v>
       </c>
       <c r="L25" t="n">
-        <v>-12.4</v>
+        <v>90684.41</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.155</v>
+        <v>13.011</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>南方宝元债券C</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006585</t>
+          <t>340001</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.4908</v>
+        <v>1.1726</v>
       </c>
       <c r="D26" t="n">
-        <v>2.4932</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1604.37</v>
+        <v>-0</v>
       </c>
       <c r="F26" t="n">
-        <v>3996.16</v>
+        <v>-0</v>
       </c>
       <c r="G26" t="n">
-        <v>4000</v>
+        <v>211467.6</v>
       </c>
       <c r="H26" t="n">
-        <v>4000</v>
+        <v>211467.6</v>
       </c>
       <c r="I26" t="n">
-        <v>4000</v>
+        <v>-51549.76999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>263017.37</v>
       </c>
       <c r="K26" t="n">
-        <v>2.122093023255814</v>
+        <v>0.5571269323154414</v>
       </c>
       <c r="L26" t="n">
-        <v>-3.84</v>
+        <v>51549.77</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.096</v>
+        <v>24.3771</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>161017</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.6508</v>
+        <v>2.24</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G27" t="n">
-        <v>976159.2</v>
+        <v>55205.1</v>
       </c>
       <c r="H27" t="n">
-        <v>696985</v>
+        <v>55205.1</v>
       </c>
       <c r="I27" t="n">
-        <v>-90684.41000000015</v>
+        <v>-12455.15</v>
       </c>
       <c r="J27" t="n">
-        <v>1066843.61</v>
+        <v>67660.25</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7317976730182011</v>
+        <v>0.5526189214969135</v>
       </c>
       <c r="L27" t="n">
-        <v>90684.41</v>
+        <v>12455.15</v>
       </c>
       <c r="M27" t="n">
-        <v>13.011</v>
+        <v>22.5616</v>
       </c>
     </row>
     <row r="28">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.718</v>
+        <v>2.756</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>230025</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7354402119302779</v>
+        <v>0.7314432542567438</v>
       </c>
       <c r="L28" t="n">
         <v>112052.6</v>
@@ -1713,46 +1713,46 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>恒生ETF</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>340001</t>
+          <t>SZ159920</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.1706</v>
+        <v>1.523</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>211467.6</v>
+        <v>31564</v>
       </c>
       <c r="H29" t="n">
-        <v>211467.6</v>
+        <v>31564</v>
       </c>
       <c r="I29" t="n">
-        <v>-51549.76999999999</v>
+        <v>-132.0299999999988</v>
       </c>
       <c r="J29" t="n">
-        <v>263017.37</v>
+        <v>31696.03</v>
       </c>
       <c r="K29" t="n">
-        <v>0.560175506500478</v>
+        <v>0.4969611205304751</v>
       </c>
       <c r="L29" t="n">
-        <v>51549.77</v>
+        <v>132.03</v>
       </c>
       <c r="M29" t="n">
-        <v>24.3771</v>
+        <v>0.4183</v>
       </c>
     </row>
     <row r="30">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.567</v>
+        <v>3.601</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>101718.23</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5794304334296887</v>
+        <v>0.5762813549871361</v>
       </c>
       <c r="L30" t="n">
         <v>24895.93</v>
@@ -1803,46 +1803,46 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>H股ETF</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>SH510900</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.237</v>
+        <v>1.22</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>55205.1</v>
+        <v>172687.68</v>
       </c>
       <c r="H31" t="n">
-        <v>55205.1</v>
+        <v>172687.68</v>
       </c>
       <c r="I31" t="n">
-        <v>-12455.15</v>
+        <v>-4015.429999999993</v>
       </c>
       <c r="J31" t="n">
-        <v>67660.25</v>
+        <v>176703.11</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5556428280440922</v>
+        <v>0.5016896623955808</v>
       </c>
       <c r="L31" t="n">
-        <v>12455.15</v>
+        <v>4015.43</v>
       </c>
       <c r="M31" t="n">
-        <v>22.5616</v>
+        <v>2.3253</v>
       </c>
     </row>
     <row r="32">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.4066</v>
+        <v>1.4196</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>30059.92</v>
       </c>
       <c r="K32" t="n">
-        <v>3.177082724637681</v>
+        <v>3.070290028011204</v>
       </c>
       <c r="L32" t="n">
         <v>59.92</v>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.208</v>
+        <v>1.215</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>19166.88</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5440756290624634</v>
+        <v>0.5411186962958195</v>
       </c>
       <c r="L33" t="n">
         <v>2954.88</v>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.401</v>
+        <v>0.417</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>96605.34</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6566443811920727</v>
+        <v>0.6521698027853124</v>
       </c>
       <c r="L34" t="n">
         <v>8595.4</v>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.626</v>
+        <v>0.637</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>332315.8</v>
       </c>
       <c r="K35" t="n">
-        <v>5.491820787117679</v>
+        <v>5.168772505522521</v>
       </c>
       <c r="L35" t="n">
         <v>-26595.78</v>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.0969</v>
+        <v>1.1106</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>285932.16</v>
       </c>
       <c r="K36" t="n">
-        <v>3.753328411758009</v>
+        <v>3.610344472262466</v>
       </c>
       <c r="L36" t="n">
         <v>20488.16</v>
@@ -2106,7 +2106,7 @@
         <v>216913.47</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5553423536216915</v>
+        <v>0.5523200823094646</v>
       </c>
       <c r="L37" t="n">
         <v>39756.27</v>

--- a/inv_analysis/report.xlsx
+++ b/inv_analysis/report.xlsx
@@ -516,298 +516,298 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>3455122.3</v>
+        <v>2642458.63</v>
       </c>
       <c r="G2" t="n">
-        <v>7272100.73</v>
+        <v>7573424.659999999</v>
       </c>
       <c r="H2" t="n">
         <v>5475932.48</v>
       </c>
       <c r="I2" t="n">
-        <v>1995458.32</v>
+        <v>1225322.71</v>
       </c>
       <c r="J2" t="n">
-        <v>5276642.409999999</v>
+        <v>6348101.95</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4583530909404365</v>
+        <v>0.4898983676967289</v>
       </c>
       <c r="L2" t="n">
-        <v>1459663.98</v>
+        <v>1417135.92</v>
       </c>
       <c r="M2" t="n">
-        <v>26.656</v>
+        <v>25.8794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强A</t>
+          <t>中欧医疗健康混合A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>003095</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.083</v>
+        <v>3.445</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9177</v>
+        <v>3.468</v>
       </c>
       <c r="E3" t="n">
-        <v>562953.52</v>
+        <v>102846.38</v>
       </c>
       <c r="F3" t="n">
-        <v>609678.66</v>
+        <v>354305.78</v>
       </c>
       <c r="G3" t="n">
-        <v>653308.6</v>
+        <v>356668.2</v>
       </c>
       <c r="H3" t="n">
-        <v>653308.6</v>
+        <v>356668.2</v>
       </c>
       <c r="I3" t="n">
-        <v>516646.29</v>
+        <v>356668.2</v>
       </c>
       <c r="J3" t="n">
-        <v>136662.31</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3002397941154044</v>
+        <v>4.147727272727272</v>
       </c>
       <c r="L3" t="n">
-        <v>93032.37</v>
+        <v>-2362.42</v>
       </c>
       <c r="M3" t="n">
-        <v>14.2402</v>
+        <v>-0.6624</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>中欧医疗健康混合A</t>
+          <t>中欧价值发现混合A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003095</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.501</v>
+        <v>2.1039</v>
       </c>
       <c r="D4" t="n">
-        <v>3.468</v>
+        <v>1.662</v>
       </c>
       <c r="E4" t="n">
-        <v>102846.38</v>
+        <v>146453.77</v>
       </c>
       <c r="F4" t="n">
-        <v>360065.18</v>
+        <v>308124.09</v>
       </c>
       <c r="G4" t="n">
-        <v>356668.2</v>
+        <v>243400</v>
       </c>
       <c r="H4" t="n">
-        <v>356668.2</v>
+        <v>243400</v>
       </c>
       <c r="I4" t="n">
-        <v>356668.2</v>
+        <v>243400</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.67948717948718</v>
+        <v>0.2466216216216216</v>
       </c>
       <c r="L4" t="n">
-        <v>3396.98</v>
+        <v>64724.09</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9524</v>
+        <v>26.5917</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>中欧价值发现混合A</t>
+          <t>创成长</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>SZ159967</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.109</v>
+        <v>0.626</v>
       </c>
       <c r="D5" t="n">
-        <v>1.662</v>
+        <v>0.6813</v>
       </c>
       <c r="E5" t="n">
-        <v>146453.77</v>
+        <v>481300</v>
       </c>
       <c r="F5" t="n">
-        <v>308871</v>
+        <v>301293.8</v>
       </c>
       <c r="G5" t="n">
-        <v>243400</v>
+        <v>660235.51</v>
       </c>
       <c r="H5" t="n">
-        <v>243400</v>
+        <v>358911.58</v>
       </c>
       <c r="I5" t="n">
-        <v>243400</v>
+        <v>327919.71</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>332315.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2482993197278912</v>
+        <v>6.913619992422646</v>
       </c>
       <c r="L5" t="n">
-        <v>65471</v>
+        <v>-26625.91</v>
       </c>
       <c r="M5" t="n">
-        <v>26.8985</v>
+        <v>-7.4185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>中证100ETF</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SH512910</t>
+          <t>001469</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.505</v>
+        <v>1.1449</v>
       </c>
       <c r="D6" t="n">
-        <v>1.6293</v>
+        <v>1.101</v>
       </c>
       <c r="E6" t="n">
-        <v>203900</v>
+        <v>258053.33</v>
       </c>
       <c r="F6" t="n">
-        <v>306869.5</v>
+        <v>295445.26</v>
       </c>
       <c r="G6" t="n">
-        <v>332206.6</v>
+        <v>284108.9</v>
       </c>
       <c r="H6" t="n">
-        <v>332206.6</v>
+        <v>284108.9</v>
       </c>
       <c r="I6" t="n">
-        <v>332206.6</v>
+        <v>284108.9</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.451219512195122</v>
+        <v>0.2466216216216216</v>
       </c>
       <c r="L6" t="n">
-        <v>-25337.1</v>
+        <v>11336.36</v>
       </c>
       <c r="M6" t="n">
-        <v>-7.6269</v>
+        <v>3.9901</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001469</t>
+          <t>SH512980</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1576</v>
+        <v>0.802</v>
       </c>
       <c r="D7" t="n">
-        <v>1.101</v>
+        <v>0.8778</v>
       </c>
       <c r="E7" t="n">
-        <v>258053.33</v>
+        <v>359200</v>
       </c>
       <c r="F7" t="n">
-        <v>298722.53</v>
+        <v>288078.4</v>
       </c>
       <c r="G7" t="n">
-        <v>284108.9</v>
+        <v>315322.73</v>
       </c>
       <c r="H7" t="n">
-        <v>284108.9</v>
+        <v>315322.73</v>
       </c>
       <c r="I7" t="n">
-        <v>284108.9</v>
+        <v>315322.73</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2482993197278912</v>
+        <v>0.2462887989203779</v>
       </c>
       <c r="L7" t="n">
-        <v>14613.63</v>
+        <v>-27244.33</v>
       </c>
       <c r="M7" t="n">
-        <v>5.1437</v>
+        <v>-8.6401</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>汇添富价值精选混合A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SH512980</t>
+          <t>519069</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.799</v>
+        <v>3.741</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8778</v>
+        <v>1.8758</v>
       </c>
       <c r="E8" t="n">
-        <v>359200</v>
+        <v>65660.31</v>
       </c>
       <c r="F8" t="n">
-        <v>287000.8</v>
+        <v>245635.22</v>
       </c>
       <c r="G8" t="n">
-        <v>315322.73</v>
+        <v>218819.8</v>
       </c>
       <c r="H8" t="n">
-        <v>315322.73</v>
+        <v>218819.8</v>
       </c>
       <c r="I8" t="n">
-        <v>315322.73</v>
+        <v>123166.41</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>95653.39</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2479619565217391</v>
+        <v>0.3544281096789428</v>
       </c>
       <c r="L8" t="n">
-        <v>-28321.93</v>
+        <v>122468.81</v>
       </c>
       <c r="M8" t="n">
-        <v>-8.9819</v>
+        <v>55.9679</v>
       </c>
     </row>
     <row r="9">
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8703</v>
+        <v>0.8442</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4004</v>
+        <v>0.2476</v>
       </c>
       <c r="E9" t="n">
-        <v>303649.3</v>
+        <v>230149.3</v>
       </c>
       <c r="F9" t="n">
-        <v>264265.99</v>
+        <v>194292.04</v>
       </c>
       <c r="G9" t="n">
         <v>323557.7</v>
@@ -840,448 +840,448 @@
         <v>323557.7</v>
       </c>
       <c r="I9" t="n">
-        <v>121568.27</v>
+        <v>56983.82000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>201989.43</v>
+        <v>266573.88</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4033067204518563</v>
+        <v>0.4498091290355003</v>
       </c>
       <c r="L9" t="n">
-        <v>142697.72</v>
+        <v>137308.22</v>
       </c>
       <c r="M9" t="n">
-        <v>44.1027</v>
+        <v>42.437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>汇添富价值精选混合A</t>
+          <t>易方达消费行业股票</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519069</t>
+          <t>110022</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.883</v>
+        <v>4.928</v>
       </c>
       <c r="D10" t="n">
-        <v>1.8758</v>
+        <v>-0.8339</v>
       </c>
       <c r="E10" t="n">
-        <v>65660.31</v>
+        <v>27986.17</v>
       </c>
       <c r="F10" t="n">
-        <v>254958.98</v>
+        <v>137915.85</v>
       </c>
       <c r="G10" t="n">
-        <v>218819.8</v>
+        <v>222919.2</v>
       </c>
       <c r="H10" t="n">
-        <v>218819.8</v>
+        <v>185038.68</v>
       </c>
       <c r="I10" t="n">
-        <v>123166.41</v>
+        <v>-23337.19</v>
       </c>
       <c r="J10" t="n">
-        <v>95653.39</v>
+        <v>246256.39</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3568391852549901</v>
+        <v>0.6253224722046282</v>
       </c>
       <c r="L10" t="n">
-        <v>131792.57</v>
+        <v>161253.04</v>
       </c>
       <c r="M10" t="n">
-        <v>60.2288</v>
+        <v>87.1456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000968</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.2866</v>
+        <v>1.959</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0946</v>
+        <v>1.85</v>
       </c>
       <c r="E11" t="n">
-        <v>119373.64</v>
+        <v>68491.67999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>153586.13</v>
+        <v>134175.2</v>
       </c>
       <c r="G11" t="n">
-        <v>618155.4</v>
+        <v>126709.6</v>
       </c>
       <c r="H11" t="n">
-        <v>618155.4</v>
+        <v>126709.6</v>
       </c>
       <c r="I11" t="n">
-        <v>11288.53000000003</v>
+        <v>126709.6</v>
       </c>
       <c r="J11" t="n">
-        <v>606866.87</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4920642872205224</v>
+        <v>1.689814814814815</v>
       </c>
       <c r="L11" t="n">
-        <v>142297.6</v>
+        <v>7465.6</v>
       </c>
       <c r="M11" t="n">
-        <v>23.0197</v>
+        <v>5.8919</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>易方达消费行业股票</t>
+          <t>申万菱信沪深300指数增强A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>110022</t>
+          <t>310318</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.2</v>
+        <v>3.5401</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.8339</v>
+        <v>-0.9802999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>27986.17</v>
+        <v>27400.8</v>
       </c>
       <c r="F12" t="n">
-        <v>145528.08</v>
+        <v>97001.57000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>222919.2</v>
+        <v>226649.6</v>
       </c>
       <c r="H12" t="n">
-        <v>185038.68</v>
+        <v>226649.6</v>
       </c>
       <c r="I12" t="n">
-        <v>-23337.19</v>
+        <v>-26859.89999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>246256.39</v>
+        <v>253509.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6295763665733672</v>
+        <v>0.5224699972044</v>
       </c>
       <c r="L12" t="n">
-        <v>168865.27</v>
+        <v>123861.47</v>
       </c>
       <c r="M12" t="n">
-        <v>91.2594</v>
+        <v>54.6489</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>000968</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.938</v>
+        <v>1.2732</v>
       </c>
       <c r="D13" t="n">
-        <v>1.85</v>
+        <v>-0.8241000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>68491.67999999999</v>
+        <v>67093.14</v>
       </c>
       <c r="F13" t="n">
-        <v>132736.88</v>
+        <v>85422.99000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>126709.6</v>
+        <v>618155.4</v>
       </c>
       <c r="H13" t="n">
-        <v>126709.6</v>
+        <v>618155.4</v>
       </c>
       <c r="I13" t="n">
-        <v>126709.6</v>
+        <v>-55292.48999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>673447.89</v>
       </c>
       <c r="K13" t="n">
-        <v>1.771844660194175</v>
+        <v>0.5153029446505225</v>
       </c>
       <c r="L13" t="n">
-        <v>6027.28</v>
+        <v>140715.48</v>
       </c>
       <c r="M13" t="n">
-        <v>4.7568</v>
+        <v>22.7638</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强A</t>
+          <t>易方达证券公司(LOF)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>310318</t>
+          <t>502010</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.6109</v>
+        <v>1.1723</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9802999999999999</v>
+        <v>1.1314</v>
       </c>
       <c r="E14" t="n">
-        <v>27400.8</v>
+        <v>57016.21</v>
       </c>
       <c r="F14" t="n">
-        <v>98941.55</v>
+        <v>66840.10000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>226649.6</v>
+        <v>64507.2</v>
       </c>
       <c r="H14" t="n">
-        <v>226649.6</v>
+        <v>64507.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-26859.89999999999</v>
+        <v>64507.2</v>
       </c>
       <c r="J14" t="n">
-        <v>253509.5</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5260242148724571</v>
+        <v>0.2466216216216216</v>
       </c>
       <c r="L14" t="n">
-        <v>125801.45</v>
+        <v>2332.9</v>
       </c>
       <c r="M14" t="n">
-        <v>55.5048</v>
+        <v>3.6165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>易方达证券公司(LOF)</t>
+          <t>易方达蓝筹精选混合</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>502010</t>
+          <t>005827</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.1826</v>
+        <v>2.8442</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1314</v>
+        <v>3.2481</v>
       </c>
       <c r="E15" t="n">
-        <v>57016.21</v>
+        <v>20249.89</v>
       </c>
       <c r="F15" t="n">
-        <v>67427.37</v>
+        <v>57594.74</v>
       </c>
       <c r="G15" t="n">
-        <v>64507.2</v>
+        <v>65774.2</v>
       </c>
       <c r="H15" t="n">
-        <v>64507.2</v>
+        <v>65774.2</v>
       </c>
       <c r="I15" t="n">
-        <v>64507.2</v>
+        <v>65774.2</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2482993197278912</v>
+        <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>2920.17</v>
+        <v>-8179.46</v>
       </c>
       <c r="M15" t="n">
-        <v>4.5269</v>
+        <v>-12.4357</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>易方达蓝筹精选混合</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005827</t>
+          <t>000614</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.9855</v>
+        <v>1.441</v>
       </c>
       <c r="D16" t="n">
-        <v>3.2481</v>
+        <v>-0.0593</v>
       </c>
       <c r="E16" t="n">
-        <v>20249.89</v>
+        <v>11217.96</v>
       </c>
       <c r="F16" t="n">
-        <v>60456.05</v>
+        <v>16165.08</v>
       </c>
       <c r="G16" t="n">
-        <v>65774.2</v>
+        <v>85714</v>
       </c>
       <c r="H16" t="n">
-        <v>65774.2</v>
+        <v>70726.8</v>
       </c>
       <c r="I16" t="n">
-        <v>65774.2</v>
+        <v>-664.7599999999948</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>86378.75999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>2.683823529411764</v>
+        <v>0.6000808115246348</v>
       </c>
       <c r="L16" t="n">
-        <v>-5318.15</v>
+        <v>16829.84</v>
       </c>
       <c r="M16" t="n">
-        <v>-8.0855</v>
+        <v>23.7956</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>鹏扬泓利债券C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001180</t>
+          <t>006060</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.2585</v>
+        <v>1.073</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.857100000000001</v>
+        <v>1.0603</v>
       </c>
       <c r="E17" t="n">
-        <v>23739.51</v>
+        <v>11317.23</v>
       </c>
       <c r="F17" t="n">
-        <v>29876.17</v>
+        <v>12143.39</v>
       </c>
       <c r="G17" t="n">
-        <v>496666</v>
+        <v>12000</v>
       </c>
       <c r="H17" t="n">
-        <v>480892</v>
+        <v>12000</v>
       </c>
       <c r="I17" t="n">
-        <v>-234002.59</v>
+        <v>12000</v>
       </c>
       <c r="J17" t="n">
-        <v>730668.59</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6337105707217217</v>
+        <v>1.921052631578947</v>
       </c>
       <c r="L17" t="n">
-        <v>263878.76</v>
+        <v>143.39</v>
       </c>
       <c r="M17" t="n">
-        <v>54.8728</v>
+        <v>1.1949</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>广发趋势优选灵活配置混合C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000614</t>
+          <t>008127</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.42</v>
+        <v>1.6223</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0593</v>
+        <v>1.6147</v>
       </c>
       <c r="E18" t="n">
-        <v>11217.96</v>
+        <v>7431.56</v>
       </c>
       <c r="F18" t="n">
-        <v>15929.5</v>
+        <v>12056.22</v>
       </c>
       <c r="G18" t="n">
-        <v>85714</v>
+        <v>12000</v>
       </c>
       <c r="H18" t="n">
-        <v>70726.8</v>
+        <v>12000</v>
       </c>
       <c r="I18" t="n">
-        <v>-664.7599999999948</v>
+        <v>12000</v>
       </c>
       <c r="J18" t="n">
-        <v>86378.75999999999</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6041629939159588</v>
+        <v>1.921052631578947</v>
       </c>
       <c r="L18" t="n">
-        <v>16594.26</v>
+        <v>56.22</v>
       </c>
       <c r="M18" t="n">
-        <v>23.4625</v>
+        <v>0.4685</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>鹏扬泓利债券C</t>
+          <t>东方红策略精选混合C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006060</t>
+          <t>001406</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.0745</v>
+        <v>1.2772</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0603</v>
+        <v>1.2729</v>
       </c>
       <c r="E19" t="n">
-        <v>11317.23</v>
+        <v>9427.66</v>
       </c>
       <c r="F19" t="n">
-        <v>12160.36</v>
+        <v>12041.01</v>
       </c>
       <c r="G19" t="n">
         <v>12000</v>
@@ -1296,37 +1296,37 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2.027777777777778</v>
+        <v>1.921052631578947</v>
       </c>
       <c r="L19" t="n">
-        <v>160.36</v>
+        <v>41.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.3363</v>
+        <v>0.3417</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>东方红策略精选混合C</t>
+          <t>工银瑞信双利债券B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001406</t>
+          <t>485011</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.2799</v>
+        <v>1.641</v>
       </c>
       <c r="D20" t="n">
-        <v>1.2729</v>
+        <v>1.6455</v>
       </c>
       <c r="E20" t="n">
-        <v>9427.66</v>
+        <v>7292.68</v>
       </c>
       <c r="F20" t="n">
-        <v>12066.46</v>
+        <v>11967.29</v>
       </c>
       <c r="G20" t="n">
         <v>12000</v>
@@ -1341,328 +1341,328 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2.027777777777778</v>
+        <v>1.921052631578947</v>
       </c>
       <c r="L20" t="n">
-        <v>66.45999999999999</v>
+        <v>-32.71</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5538</v>
+        <v>-0.2726</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>广发趋势优选灵活配置混合C</t>
+          <t>南方安裕混合C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008127</t>
+          <t>006586</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.6208</v>
+        <v>1.1405</v>
       </c>
       <c r="D21" t="n">
-        <v>1.6147</v>
+        <v>1.1438</v>
       </c>
       <c r="E21" t="n">
-        <v>7431.56</v>
+        <v>6994.4</v>
       </c>
       <c r="F21" t="n">
-        <v>12045.07</v>
+        <v>7977.11</v>
       </c>
       <c r="G21" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="H21" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="I21" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.027777777777778</v>
+        <v>2.28125</v>
       </c>
       <c r="L21" t="n">
-        <v>45.07</v>
+        <v>-22.89</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3756</v>
+        <v>-0.2861</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>工银瑞信双利债券B</t>
+          <t>南方宝元债券C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>485011</t>
+          <t>006585</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.639</v>
+        <v>2.4829</v>
       </c>
       <c r="D22" t="n">
-        <v>1.6455</v>
+        <v>2.4932</v>
       </c>
       <c r="E22" t="n">
-        <v>7292.68</v>
+        <v>1604.37</v>
       </c>
       <c r="F22" t="n">
-        <v>11952.7</v>
+        <v>3983.49</v>
       </c>
       <c r="G22" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="H22" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="I22" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.027777777777778</v>
+        <v>1.921052631578947</v>
       </c>
       <c r="L22" t="n">
-        <v>-47.3</v>
+        <v>-16.51</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.3942</v>
+        <v>-0.4128</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>南方安裕混合C</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006586</t>
+          <t>000478</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.1418</v>
+        <v>2.667</v>
       </c>
       <c r="D23" t="n">
-        <v>1.1438</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>6994.4</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>7986.21</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>8000</v>
+        <v>976159.2</v>
       </c>
       <c r="H23" t="n">
-        <v>8000</v>
+        <v>696985</v>
       </c>
       <c r="I23" t="n">
-        <v>8000</v>
+        <v>-90684.41000000015</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1066843.61</v>
       </c>
       <c r="K23" t="n">
-        <v>2.433333333333333</v>
+        <v>0.7228974310490608</v>
       </c>
       <c r="L23" t="n">
-        <v>-13.79</v>
+        <v>90684.41</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.1724</v>
+        <v>13.011</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>南方宝元债券C</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006585</t>
+          <t>340001</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.4914</v>
+        <v>1.1704</v>
       </c>
       <c r="D24" t="n">
-        <v>2.4932</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1604.37</v>
+        <v>-0</v>
       </c>
       <c r="F24" t="n">
-        <v>3997.13</v>
+        <v>-0</v>
       </c>
       <c r="G24" t="n">
-        <v>4000</v>
+        <v>211467.6</v>
       </c>
       <c r="H24" t="n">
-        <v>4000</v>
+        <v>211467.6</v>
       </c>
       <c r="I24" t="n">
-        <v>4000</v>
+        <v>-51549.76999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>263017.37</v>
       </c>
       <c r="K24" t="n">
-        <v>2.027777777777778</v>
+        <v>0.5533625611511479</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.87</v>
+        <v>51549.77</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0718</v>
+        <v>24.3771</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>161017</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.663</v>
+        <v>2.243</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G25" t="n">
-        <v>976159.2</v>
+        <v>55205.1</v>
       </c>
       <c r="H25" t="n">
-        <v>696985</v>
+        <v>55205.1</v>
       </c>
       <c r="I25" t="n">
-        <v>-90684.41000000015</v>
+        <v>-12455.15</v>
       </c>
       <c r="J25" t="n">
-        <v>1066843.61</v>
+        <v>67660.25</v>
       </c>
       <c r="K25" t="n">
-        <v>0.727815100648034</v>
+        <v>0.5488850098651775</v>
       </c>
       <c r="L25" t="n">
-        <v>90684.41</v>
+        <v>12455.15</v>
       </c>
       <c r="M25" t="n">
-        <v>13.011</v>
+        <v>22.5616</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>富国中证红利指数增强A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>340001</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.1726</v>
+        <v>1.096</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>211467.6</v>
+        <v>653308.6</v>
       </c>
       <c r="H26" t="n">
-        <v>211467.6</v>
+        <v>653308.6</v>
       </c>
       <c r="I26" t="n">
-        <v>-51549.76999999999</v>
+        <v>-92784.68000000005</v>
       </c>
       <c r="J26" t="n">
-        <v>263017.37</v>
+        <v>746093.28</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5571269323154414</v>
+        <v>0.5282691226564994</v>
       </c>
       <c r="L26" t="n">
-        <v>51549.77</v>
+        <v>92784.67999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>24.3771</v>
+        <v>14.2023</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>广发中证100ETF联接C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>007136</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.24</v>
+        <v>1.3801</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>55205.1</v>
+        <v>30000</v>
       </c>
       <c r="H27" t="n">
-        <v>55205.1</v>
+        <v>30000</v>
       </c>
       <c r="I27" t="n">
-        <v>-12455.15</v>
+        <v>-59.91999999999825</v>
       </c>
       <c r="J27" t="n">
-        <v>67660.25</v>
+        <v>30059.92</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5526189214969135</v>
+        <v>2.946488010752688</v>
       </c>
       <c r="L27" t="n">
-        <v>12455.15</v>
+        <v>59.92</v>
       </c>
       <c r="M27" t="n">
-        <v>22.5616</v>
+        <v>0.1997</v>
       </c>
     </row>
     <row r="28">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.756</v>
+        <v>2.69</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>230025</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7314432542567438</v>
+        <v>0.7265077397205985</v>
       </c>
       <c r="L28" t="n">
         <v>112052.6</v>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.523</v>
+        <v>1.508</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>31696.03</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4969611205304751</v>
+        <v>0.4936078066267607</v>
       </c>
       <c r="L29" t="n">
         <v>132.03</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.601</v>
+        <v>3.506</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>101718.23</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5762813549871361</v>
+        <v>0.5723928168293281</v>
       </c>
       <c r="L30" t="n">
         <v>24895.93</v>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.22</v>
+        <v>1.194</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>176703.11</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5016896623955808</v>
+        <v>0.4983044420015484</v>
       </c>
       <c r="L31" t="n">
         <v>4015.43</v>
@@ -1848,16 +1848,16 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>广发中证100ETF联接C</t>
+          <t>天弘创业板ETF联接基金C</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>007136</t>
+          <t>001593</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.4196</v>
+        <v>1.0855</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1869,25 +1869,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>30000</v>
+        <v>265444</v>
       </c>
       <c r="H32" t="n">
-        <v>30000</v>
+        <v>265444</v>
       </c>
       <c r="I32" t="n">
-        <v>-59.91999999999825</v>
+        <v>-20488.15999999997</v>
       </c>
       <c r="J32" t="n">
-        <v>30059.92</v>
+        <v>285932.16</v>
       </c>
       <c r="K32" t="n">
-        <v>3.070290028011204</v>
+        <v>3.446237905341444</v>
       </c>
       <c r="L32" t="n">
-        <v>59.92</v>
+        <v>20488.16</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1997</v>
+        <v>7.7184</v>
       </c>
     </row>
     <row r="33">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.215</v>
+        <v>1.235</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>19166.88</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5411186962958195</v>
+        <v>0.5374674230414618</v>
       </c>
       <c r="L33" t="n">
         <v>2954.88</v>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.417</v>
+        <v>0.395</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>96605.34</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6521698027853124</v>
+        <v>0.6466616118834094</v>
       </c>
       <c r="L34" t="n">
         <v>8595.4</v>
@@ -1983,16 +1983,16 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>创成长</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SZ159967</t>
+          <t>001180</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.637</v>
+        <v>1.2458</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2004,40 +2004,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>358911.58</v>
+        <v>496666</v>
       </c>
       <c r="H35" t="n">
-        <v>358911.58</v>
+        <v>480892</v>
       </c>
       <c r="I35" t="n">
-        <v>26595.78000000003</v>
+        <v>-263521.52</v>
       </c>
       <c r="J35" t="n">
-        <v>332315.8</v>
+        <v>760187.52</v>
       </c>
       <c r="K35" t="n">
-        <v>5.168772505522521</v>
+        <v>0.6445672900427605</v>
       </c>
       <c r="L35" t="n">
-        <v>-26595.78</v>
+        <v>263521.52</v>
       </c>
       <c r="M35" t="n">
-        <v>-7.4101</v>
+        <v>54.7985</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>天弘创业板ETF联接基金C</t>
+          <t>中证100ETF</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>001593</t>
+          <t>SH512910</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.1106</v>
+        <v>1.463</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>265444</v>
+        <v>332206.6</v>
       </c>
       <c r="H36" t="n">
-        <v>265444</v>
+        <v>332206.6</v>
       </c>
       <c r="I36" t="n">
-        <v>-20488.15999999997</v>
+        <v>30862.42999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>285932.16</v>
+        <v>301344.17</v>
       </c>
       <c r="K36" t="n">
-        <v>3.610344472262466</v>
+        <v>7.566206739302801</v>
       </c>
       <c r="L36" t="n">
-        <v>20488.16</v>
+        <v>-30862.43</v>
       </c>
       <c r="M36" t="n">
-        <v>7.7184</v>
+        <v>-9.290100000000001</v>
       </c>
     </row>
     <row r="37">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.039</v>
+        <v>2.022</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>216913.47</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5523200823094646</v>
+        <v>0.5485881898614277</v>
       </c>
       <c r="L37" t="n">
         <v>39756.27</v>

--- a/inv_analysis/report.xlsx
+++ b/inv_analysis/report.xlsx
@@ -516,7 +516,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>2642458.63</v>
+        <v>3193695.69</v>
       </c>
       <c r="G2" t="n">
         <v>7573424.659999999</v>
@@ -525,718 +525,718 @@
         <v>5475932.48</v>
       </c>
       <c r="I2" t="n">
-        <v>1225322.71</v>
+        <v>1769800.08</v>
       </c>
       <c r="J2" t="n">
-        <v>6348101.95</v>
+        <v>5803624.579999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4898983676967289</v>
+        <v>0.4654096293884314</v>
       </c>
       <c r="L2" t="n">
-        <v>1417135.92</v>
+        <v>1423895.61</v>
       </c>
       <c r="M2" t="n">
-        <v>25.8794</v>
+        <v>26.0028</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>中欧医疗健康混合A</t>
+          <t>富国中证红利指数增强A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003095</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.445</v>
+        <v>1.096</v>
       </c>
       <c r="D3" t="n">
-        <v>3.468</v>
+        <v>0.8981</v>
       </c>
       <c r="E3" t="n">
-        <v>102846.38</v>
+        <v>502953.52</v>
       </c>
       <c r="F3" t="n">
-        <v>354305.78</v>
+        <v>551237.0600000001</v>
       </c>
       <c r="G3" t="n">
-        <v>356668.2</v>
+        <v>653308.6</v>
       </c>
       <c r="H3" t="n">
-        <v>356668.2</v>
+        <v>653308.6</v>
       </c>
       <c r="I3" t="n">
-        <v>356668.2</v>
+        <v>451692.6899999999</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>201615.91</v>
       </c>
       <c r="K3" t="n">
-        <v>4.147727272727272</v>
+        <v>0.3227308947414289</v>
       </c>
       <c r="L3" t="n">
-        <v>-2362.42</v>
+        <v>99544.37</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.6624</v>
+        <v>15.237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>中欧价值发现混合A</t>
+          <t>中欧医疗健康混合A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>003095</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.1039</v>
+        <v>3.445</v>
       </c>
       <c r="D4" t="n">
-        <v>1.662</v>
+        <v>3.468</v>
       </c>
       <c r="E4" t="n">
-        <v>146453.77</v>
+        <v>102846.38</v>
       </c>
       <c r="F4" t="n">
-        <v>308124.09</v>
+        <v>354305.78</v>
       </c>
       <c r="G4" t="n">
-        <v>243400</v>
+        <v>356668.2</v>
       </c>
       <c r="H4" t="n">
-        <v>243400</v>
+        <v>356668.2</v>
       </c>
       <c r="I4" t="n">
-        <v>243400</v>
+        <v>356668.2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2466216216216216</v>
+        <v>4.147727272727272</v>
       </c>
       <c r="L4" t="n">
-        <v>64724.09</v>
+        <v>-2362.42</v>
       </c>
       <c r="M4" t="n">
-        <v>26.5917</v>
+        <v>-0.6624</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>创成长</t>
+          <t>中欧价值发现混合A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SZ159967</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.626</v>
+        <v>2.1039</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6813</v>
+        <v>1.662</v>
       </c>
       <c r="E5" t="n">
-        <v>481300</v>
+        <v>146453.77</v>
       </c>
       <c r="F5" t="n">
-        <v>301293.8</v>
+        <v>308124.09</v>
       </c>
       <c r="G5" t="n">
-        <v>660235.51</v>
+        <v>243400</v>
       </c>
       <c r="H5" t="n">
-        <v>358911.58</v>
+        <v>243400</v>
       </c>
       <c r="I5" t="n">
-        <v>327919.71</v>
+        <v>243400</v>
       </c>
       <c r="J5" t="n">
-        <v>332315.8</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6.913619992422646</v>
+        <v>0.2466216216216216</v>
       </c>
       <c r="L5" t="n">
-        <v>-26625.91</v>
+        <v>64724.09</v>
       </c>
       <c r="M5" t="n">
-        <v>-7.4185</v>
+        <v>26.5917</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>创成长</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001469</t>
+          <t>SZ159967</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.1449</v>
+        <v>0.626</v>
       </c>
       <c r="D6" t="n">
-        <v>1.101</v>
+        <v>0.6813</v>
       </c>
       <c r="E6" t="n">
-        <v>258053.33</v>
+        <v>481300</v>
       </c>
       <c r="F6" t="n">
-        <v>295445.26</v>
+        <v>301293.8</v>
       </c>
       <c r="G6" t="n">
-        <v>284108.9</v>
+        <v>660235.51</v>
       </c>
       <c r="H6" t="n">
-        <v>284108.9</v>
+        <v>358911.58</v>
       </c>
       <c r="I6" t="n">
-        <v>284108.9</v>
+        <v>327919.71</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>332315.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2466216216216216</v>
+        <v>6.913619992422646</v>
       </c>
       <c r="L6" t="n">
-        <v>11336.36</v>
+        <v>-26625.91</v>
       </c>
       <c r="M6" t="n">
-        <v>3.9901</v>
+        <v>-7.4185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SH512980</t>
+          <t>001469</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.802</v>
+        <v>1.1449</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8778</v>
+        <v>1.101</v>
       </c>
       <c r="E7" t="n">
-        <v>359200</v>
+        <v>258053.33</v>
       </c>
       <c r="F7" t="n">
-        <v>288078.4</v>
+        <v>295445.26</v>
       </c>
       <c r="G7" t="n">
-        <v>315322.73</v>
+        <v>284108.9</v>
       </c>
       <c r="H7" t="n">
-        <v>315322.73</v>
+        <v>284108.9</v>
       </c>
       <c r="I7" t="n">
-        <v>315322.73</v>
+        <v>284108.9</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2462887989203779</v>
+        <v>0.2466216216216216</v>
       </c>
       <c r="L7" t="n">
-        <v>-27244.33</v>
+        <v>11336.36</v>
       </c>
       <c r="M7" t="n">
-        <v>-8.6401</v>
+        <v>3.9901</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>汇添富价值精选混合A</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519069</t>
+          <t>SH512980</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.741</v>
+        <v>0.802</v>
       </c>
       <c r="D8" t="n">
-        <v>1.8758</v>
+        <v>0.8778</v>
       </c>
       <c r="E8" t="n">
-        <v>65660.31</v>
+        <v>359200</v>
       </c>
       <c r="F8" t="n">
-        <v>245635.22</v>
+        <v>288078.4</v>
       </c>
       <c r="G8" t="n">
-        <v>218819.8</v>
+        <v>315322.73</v>
       </c>
       <c r="H8" t="n">
-        <v>218819.8</v>
+        <v>315322.73</v>
       </c>
       <c r="I8" t="n">
-        <v>123166.41</v>
+        <v>315322.73</v>
       </c>
       <c r="J8" t="n">
-        <v>95653.39</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3544281096789428</v>
+        <v>0.2462887989203779</v>
       </c>
       <c r="L8" t="n">
-        <v>122468.81</v>
+        <v>-27244.33</v>
       </c>
       <c r="M8" t="n">
-        <v>55.9679</v>
+        <v>-8.6401</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>汇添富价值精选混合A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001064</t>
+          <t>519069</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8442</v>
+        <v>3.741</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2476</v>
+        <v>1.8758</v>
       </c>
       <c r="E9" t="n">
-        <v>230149.3</v>
+        <v>65660.31</v>
       </c>
       <c r="F9" t="n">
-        <v>194292.04</v>
+        <v>245635.22</v>
       </c>
       <c r="G9" t="n">
-        <v>323557.7</v>
+        <v>218819.8</v>
       </c>
       <c r="H9" t="n">
-        <v>323557.7</v>
+        <v>218819.8</v>
       </c>
       <c r="I9" t="n">
-        <v>56983.82000000001</v>
+        <v>123166.41</v>
       </c>
       <c r="J9" t="n">
-        <v>266573.88</v>
+        <v>95653.39</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4498091290355003</v>
+        <v>0.3544281096789428</v>
       </c>
       <c r="L9" t="n">
-        <v>137308.22</v>
+        <v>122468.81</v>
       </c>
       <c r="M9" t="n">
-        <v>42.437</v>
+        <v>55.9679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>易方达消费行业股票</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>110022</t>
+          <t>001064</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.928</v>
+        <v>0.8442</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.8339</v>
+        <v>0.2476</v>
       </c>
       <c r="E10" t="n">
-        <v>27986.17</v>
+        <v>230149.3</v>
       </c>
       <c r="F10" t="n">
-        <v>137915.85</v>
+        <v>194292.04</v>
       </c>
       <c r="G10" t="n">
-        <v>222919.2</v>
+        <v>323557.7</v>
       </c>
       <c r="H10" t="n">
-        <v>185038.68</v>
+        <v>323557.7</v>
       </c>
       <c r="I10" t="n">
-        <v>-23337.19</v>
+        <v>56983.82000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>246256.39</v>
+        <v>266573.88</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6253224722046282</v>
+        <v>0.4498091290355003</v>
       </c>
       <c r="L10" t="n">
-        <v>161253.04</v>
+        <v>137308.22</v>
       </c>
       <c r="M10" t="n">
-        <v>87.1456</v>
+        <v>42.437</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>易方达消费行业股票</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>110022</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.959</v>
+        <v>4.928</v>
       </c>
       <c r="D11" t="n">
-        <v>1.85</v>
+        <v>-0.8339</v>
       </c>
       <c r="E11" t="n">
-        <v>68491.67999999999</v>
+        <v>27986.17</v>
       </c>
       <c r="F11" t="n">
-        <v>134175.2</v>
+        <v>137915.85</v>
       </c>
       <c r="G11" t="n">
-        <v>126709.6</v>
+        <v>222919.2</v>
       </c>
       <c r="H11" t="n">
-        <v>126709.6</v>
+        <v>185038.68</v>
       </c>
       <c r="I11" t="n">
-        <v>126709.6</v>
+        <v>-23337.19</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>246256.39</v>
       </c>
       <c r="K11" t="n">
-        <v>1.689814814814815</v>
+        <v>0.6253224722046282</v>
       </c>
       <c r="L11" t="n">
-        <v>7465.6</v>
+        <v>161253.04</v>
       </c>
       <c r="M11" t="n">
-        <v>5.8919</v>
+        <v>87.1456</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强A</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>310318</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.5401</v>
+        <v>1.959</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.9802999999999999</v>
+        <v>1.85</v>
       </c>
       <c r="E12" t="n">
-        <v>27400.8</v>
+        <v>68491.67999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>97001.57000000001</v>
+        <v>134175.2</v>
       </c>
       <c r="G12" t="n">
-        <v>226649.6</v>
+        <v>126709.6</v>
       </c>
       <c r="H12" t="n">
-        <v>226649.6</v>
+        <v>126709.6</v>
       </c>
       <c r="I12" t="n">
-        <v>-26859.89999999999</v>
+        <v>126709.6</v>
       </c>
       <c r="J12" t="n">
-        <v>253509.5</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5224699972044</v>
+        <v>1.689814814814815</v>
       </c>
       <c r="L12" t="n">
-        <v>123861.47</v>
+        <v>7465.6</v>
       </c>
       <c r="M12" t="n">
-        <v>54.6489</v>
+        <v>5.8919</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>申万菱信沪深300指数增强A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000968</t>
+          <t>310318</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.2732</v>
+        <v>3.5401</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8241000000000001</v>
+        <v>-0.9802999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>67093.14</v>
+        <v>27400.8</v>
       </c>
       <c r="F13" t="n">
-        <v>85422.99000000001</v>
+        <v>97001.57000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>618155.4</v>
+        <v>226649.6</v>
       </c>
       <c r="H13" t="n">
-        <v>618155.4</v>
+        <v>226649.6</v>
       </c>
       <c r="I13" t="n">
-        <v>-55292.48999999999</v>
+        <v>-26859.89999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>673447.89</v>
+        <v>253509.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5153029446505225</v>
+        <v>0.5224699972044</v>
       </c>
       <c r="L13" t="n">
-        <v>140715.48</v>
+        <v>123861.47</v>
       </c>
       <c r="M13" t="n">
-        <v>22.7638</v>
+        <v>54.6489</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>易方达证券公司(LOF)</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>502010</t>
+          <t>000968</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.1723</v>
+        <v>1.2732</v>
       </c>
       <c r="D14" t="n">
-        <v>1.1314</v>
+        <v>-0.8241000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>57016.21</v>
+        <v>67093.14</v>
       </c>
       <c r="F14" t="n">
-        <v>66840.10000000001</v>
+        <v>85422.99000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>64507.2</v>
+        <v>618155.4</v>
       </c>
       <c r="H14" t="n">
-        <v>64507.2</v>
+        <v>618155.4</v>
       </c>
       <c r="I14" t="n">
-        <v>64507.2</v>
+        <v>-55292.48999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>673447.89</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2466216216216216</v>
+        <v>0.5153029446505225</v>
       </c>
       <c r="L14" t="n">
-        <v>2332.9</v>
+        <v>140715.48</v>
       </c>
       <c r="M14" t="n">
-        <v>3.6165</v>
+        <v>22.7638</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>易方达蓝筹精选混合</t>
+          <t>易方达证券公司(LOF)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005827</t>
+          <t>502010</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.8442</v>
+        <v>1.1723</v>
       </c>
       <c r="D15" t="n">
-        <v>3.2481</v>
+        <v>1.1314</v>
       </c>
       <c r="E15" t="n">
-        <v>20249.89</v>
+        <v>57016.21</v>
       </c>
       <c r="F15" t="n">
-        <v>57594.74</v>
+        <v>66840.10000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>65774.2</v>
+        <v>64507.2</v>
       </c>
       <c r="H15" t="n">
-        <v>65774.2</v>
+        <v>64507.2</v>
       </c>
       <c r="I15" t="n">
-        <v>65774.2</v>
+        <v>64507.2</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2.5</v>
+        <v>0.2466216216216216</v>
       </c>
       <c r="L15" t="n">
-        <v>-8179.46</v>
+        <v>2332.9</v>
       </c>
       <c r="M15" t="n">
-        <v>-12.4357</v>
+        <v>3.6165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达蓝筹精选混合</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000614</t>
+          <t>005827</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.441</v>
+        <v>2.8442</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0593</v>
+        <v>3.2481</v>
       </c>
       <c r="E16" t="n">
-        <v>11217.96</v>
+        <v>20249.89</v>
       </c>
       <c r="F16" t="n">
-        <v>16165.08</v>
+        <v>57594.74</v>
       </c>
       <c r="G16" t="n">
-        <v>85714</v>
+        <v>65774.2</v>
       </c>
       <c r="H16" t="n">
-        <v>70726.8</v>
+        <v>65774.2</v>
       </c>
       <c r="I16" t="n">
-        <v>-664.7599999999948</v>
+        <v>65774.2</v>
       </c>
       <c r="J16" t="n">
-        <v>86378.75999999999</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6000808115246348</v>
+        <v>2.5</v>
       </c>
       <c r="L16" t="n">
-        <v>16829.84</v>
+        <v>-8179.46</v>
       </c>
       <c r="M16" t="n">
-        <v>23.7956</v>
+        <v>-12.4357</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>鹏扬泓利债券C</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006060</t>
+          <t>000614</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.073</v>
+        <v>1.441</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0603</v>
+        <v>-0.0593</v>
       </c>
       <c r="E17" t="n">
-        <v>11317.23</v>
+        <v>11217.96</v>
       </c>
       <c r="F17" t="n">
-        <v>12143.39</v>
+        <v>16165.08</v>
       </c>
       <c r="G17" t="n">
-        <v>12000</v>
+        <v>85714</v>
       </c>
       <c r="H17" t="n">
-        <v>12000</v>
+        <v>70726.8</v>
       </c>
       <c r="I17" t="n">
-        <v>12000</v>
+        <v>-664.7599999999948</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>86378.75999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>1.921052631578947</v>
+        <v>0.6000808115246348</v>
       </c>
       <c r="L17" t="n">
-        <v>143.39</v>
+        <v>16829.84</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1949</v>
+        <v>23.7956</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>广发趋势优选灵活配置混合C</t>
+          <t>鹏扬泓利债券C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008127</t>
+          <t>006060</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.6223</v>
+        <v>1.073</v>
       </c>
       <c r="D18" t="n">
-        <v>1.6147</v>
+        <v>1.0603</v>
       </c>
       <c r="E18" t="n">
-        <v>7431.56</v>
+        <v>11317.23</v>
       </c>
       <c r="F18" t="n">
-        <v>12056.22</v>
+        <v>12143.39</v>
       </c>
       <c r="G18" t="n">
         <v>12000</v>
@@ -1254,34 +1254,34 @@
         <v>1.921052631578947</v>
       </c>
       <c r="L18" t="n">
-        <v>56.22</v>
+        <v>143.39</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4685</v>
+        <v>1.1949</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>东方红策略精选混合C</t>
+          <t>广发趋势优选灵活配置混合C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001406</t>
+          <t>008127</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.2772</v>
+        <v>1.6223</v>
       </c>
       <c r="D19" t="n">
-        <v>1.2729</v>
+        <v>1.6147</v>
       </c>
       <c r="E19" t="n">
-        <v>9427.66</v>
+        <v>7431.56</v>
       </c>
       <c r="F19" t="n">
-        <v>12041.01</v>
+        <v>12056.22</v>
       </c>
       <c r="G19" t="n">
         <v>12000</v>
@@ -1299,34 +1299,34 @@
         <v>1.921052631578947</v>
       </c>
       <c r="L19" t="n">
-        <v>41.01</v>
+        <v>56.22</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3417</v>
+        <v>0.4685</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>工银瑞信双利债券B</t>
+          <t>东方红策略精选混合C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>485011</t>
+          <t>001406</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.641</v>
+        <v>1.2772</v>
       </c>
       <c r="D20" t="n">
-        <v>1.6455</v>
+        <v>1.2729</v>
       </c>
       <c r="E20" t="n">
-        <v>7292.68</v>
+        <v>9427.66</v>
       </c>
       <c r="F20" t="n">
-        <v>11967.29</v>
+        <v>12041.01</v>
       </c>
       <c r="G20" t="n">
         <v>12000</v>
@@ -1344,205 +1344,205 @@
         <v>1.921052631578947</v>
       </c>
       <c r="L20" t="n">
-        <v>-32.71</v>
+        <v>41.01</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.2726</v>
+        <v>0.3417</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>南方安裕混合C</t>
+          <t>工银瑞信双利债券B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006586</t>
+          <t>485011</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.1405</v>
+        <v>1.641</v>
       </c>
       <c r="D21" t="n">
-        <v>1.1438</v>
+        <v>1.6455</v>
       </c>
       <c r="E21" t="n">
-        <v>6994.4</v>
+        <v>7292.68</v>
       </c>
       <c r="F21" t="n">
-        <v>7977.11</v>
+        <v>11967.29</v>
       </c>
       <c r="G21" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="H21" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="I21" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.28125</v>
+        <v>1.921052631578947</v>
       </c>
       <c r="L21" t="n">
-        <v>-22.89</v>
+        <v>-32.71</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.2861</v>
+        <v>-0.2726</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>南方宝元债券C</t>
+          <t>南方安裕混合C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006585</t>
+          <t>006586</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.4829</v>
+        <v>1.1405</v>
       </c>
       <c r="D22" t="n">
-        <v>2.4932</v>
+        <v>1.1438</v>
       </c>
       <c r="E22" t="n">
-        <v>1604.37</v>
+        <v>6994.4</v>
       </c>
       <c r="F22" t="n">
-        <v>3983.49</v>
+        <v>7977.11</v>
       </c>
       <c r="G22" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="H22" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="I22" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.921052631578947</v>
+        <v>2.28125</v>
       </c>
       <c r="L22" t="n">
-        <v>-16.51</v>
+        <v>-22.89</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.4128</v>
+        <v>-0.2861</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>南方宝元债券C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>006585</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.667</v>
+        <v>2.4829</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2.4932</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1604.37</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3983.49</v>
       </c>
       <c r="G23" t="n">
-        <v>976159.2</v>
+        <v>4000</v>
       </c>
       <c r="H23" t="n">
-        <v>696985</v>
+        <v>4000</v>
       </c>
       <c r="I23" t="n">
-        <v>-90684.41000000015</v>
+        <v>4000</v>
       </c>
       <c r="J23" t="n">
-        <v>1066843.61</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7228974310490608</v>
+        <v>1.921052631578947</v>
       </c>
       <c r="L23" t="n">
-        <v>90684.41</v>
+        <v>-16.51</v>
       </c>
       <c r="M23" t="n">
-        <v>13.011</v>
+        <v>-0.4128</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>340001</t>
+          <t>000478</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.1704</v>
+        <v>2.667</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>211467.6</v>
+        <v>976159.2</v>
       </c>
       <c r="H24" t="n">
-        <v>211467.6</v>
+        <v>696985</v>
       </c>
       <c r="I24" t="n">
-        <v>-51549.76999999999</v>
+        <v>-90684.41000000015</v>
       </c>
       <c r="J24" t="n">
-        <v>263017.37</v>
+        <v>1066843.61</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5533625611511479</v>
+        <v>0.7228974310490608</v>
       </c>
       <c r="L24" t="n">
-        <v>51549.77</v>
+        <v>90684.41</v>
       </c>
       <c r="M24" t="n">
-        <v>24.3771</v>
+        <v>13.011</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>340001</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.243</v>
+        <v>1.1704</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1554,70 +1554,70 @@
         <v>-0</v>
       </c>
       <c r="G25" t="n">
-        <v>55205.1</v>
+        <v>211467.6</v>
       </c>
       <c r="H25" t="n">
-        <v>55205.1</v>
+        <v>211467.6</v>
       </c>
       <c r="I25" t="n">
-        <v>-12455.15</v>
+        <v>-51549.76999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>67660.25</v>
+        <v>263017.37</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5488850098651775</v>
+        <v>0.5533625611511479</v>
       </c>
       <c r="L25" t="n">
-        <v>12455.15</v>
+        <v>51549.77</v>
       </c>
       <c r="M25" t="n">
-        <v>22.5616</v>
+        <v>24.3771</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>161017</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.096</v>
+        <v>2.243</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G26" t="n">
-        <v>653308.6</v>
+        <v>55205.1</v>
       </c>
       <c r="H26" t="n">
-        <v>653308.6</v>
+        <v>55205.1</v>
       </c>
       <c r="I26" t="n">
-        <v>-92784.68000000005</v>
+        <v>-12455.15</v>
       </c>
       <c r="J26" t="n">
-        <v>746093.28</v>
+        <v>67660.25</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5282691226564994</v>
+        <v>0.5488850098651775</v>
       </c>
       <c r="L26" t="n">
-        <v>92784.67999999999</v>
+        <v>12455.15</v>
       </c>
       <c r="M26" t="n">
-        <v>14.2023</v>
+        <v>22.5616</v>
       </c>
     </row>
     <row r="27">

--- a/inv_analysis/report.xlsx
+++ b/inv_analysis/report.xlsx
@@ -516,7 +516,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>3193695.69</v>
+        <v>3254837.27</v>
       </c>
       <c r="G2" t="n">
         <v>7573424.659999999</v>
@@ -531,13 +531,13 @@
         <v>5803624.579999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4654096293884314</v>
+        <v>0.4586017757670581</v>
       </c>
       <c r="L2" t="n">
-        <v>1423895.61</v>
+        <v>1485037.19</v>
       </c>
       <c r="M2" t="n">
-        <v>26.0028</v>
+        <v>27.1193</v>
       </c>
     </row>
     <row r="3">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.096</v>
+        <v>1.107</v>
       </c>
       <c r="D3" t="n">
         <v>0.8981</v>
@@ -561,7 +561,7 @@
         <v>502953.52</v>
       </c>
       <c r="F3" t="n">
-        <v>551237.0600000001</v>
+        <v>556769.55</v>
       </c>
       <c r="G3" t="n">
         <v>653308.6</v>
@@ -576,13 +576,13 @@
         <v>201615.91</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3227308947414289</v>
+        <v>0.3180038110634585</v>
       </c>
       <c r="L3" t="n">
-        <v>99544.37</v>
+        <v>105076.86</v>
       </c>
       <c r="M3" t="n">
-        <v>15.237</v>
+        <v>16.0838</v>
       </c>
     </row>
     <row r="4">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.445</v>
+        <v>3.548</v>
       </c>
       <c r="D4" t="n">
         <v>3.468</v>
@@ -606,7 +606,7 @@
         <v>102846.38</v>
       </c>
       <c r="F4" t="n">
-        <v>354305.78</v>
+        <v>364898.96</v>
       </c>
       <c r="G4" t="n">
         <v>356668.2</v>
@@ -621,103 +621,103 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.147727272727272</v>
+        <v>3.318181818181818</v>
       </c>
       <c r="L4" t="n">
-        <v>-2362.42</v>
+        <v>8230.76</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.6624</v>
+        <v>2.3077</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>中欧价值发现混合A</t>
+          <t>创成长</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>SZ159967</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.1039</v>
+        <v>0.65</v>
       </c>
       <c r="D5" t="n">
-        <v>1.662</v>
+        <v>0.6813</v>
       </c>
       <c r="E5" t="n">
-        <v>146453.77</v>
+        <v>481300</v>
       </c>
       <c r="F5" t="n">
-        <v>308124.09</v>
+        <v>312845</v>
       </c>
       <c r="G5" t="n">
-        <v>243400</v>
+        <v>660235.51</v>
       </c>
       <c r="H5" t="n">
-        <v>243400</v>
+        <v>358911.58</v>
       </c>
       <c r="I5" t="n">
-        <v>243400</v>
+        <v>327919.71</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>332315.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2466216216216216</v>
+        <v>6.008264993414919</v>
       </c>
       <c r="L5" t="n">
-        <v>64724.09</v>
+        <v>-15074.71</v>
       </c>
       <c r="M5" t="n">
-        <v>26.5917</v>
+        <v>-4.2001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>创成长</t>
+          <t>中欧价值发现混合A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SZ159967</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.626</v>
+        <v>2.1179</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6813</v>
+        <v>1.662</v>
       </c>
       <c r="E6" t="n">
-        <v>481300</v>
+        <v>146453.77</v>
       </c>
       <c r="F6" t="n">
-        <v>301293.8</v>
+        <v>310174.44</v>
       </c>
       <c r="G6" t="n">
-        <v>660235.51</v>
+        <v>243400</v>
       </c>
       <c r="H6" t="n">
-        <v>358911.58</v>
+        <v>243400</v>
       </c>
       <c r="I6" t="n">
-        <v>327919.71</v>
+        <v>243400</v>
       </c>
       <c r="J6" t="n">
-        <v>332315.8</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6.913619992422646</v>
+        <v>0.2430093209054594</v>
       </c>
       <c r="L6" t="n">
-        <v>-26625.91</v>
+        <v>66774.44</v>
       </c>
       <c r="M6" t="n">
-        <v>-7.4185</v>
+        <v>27.434</v>
       </c>
     </row>
     <row r="7">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1449</v>
+        <v>1.1489</v>
       </c>
       <c r="D7" t="n">
         <v>1.101</v>
@@ -741,7 +741,7 @@
         <v>258053.33</v>
       </c>
       <c r="F7" t="n">
-        <v>295445.26</v>
+        <v>296477.47</v>
       </c>
       <c r="G7" t="n">
         <v>284108.9</v>
@@ -756,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2466216216216216</v>
+        <v>0.2430093209054594</v>
       </c>
       <c r="L7" t="n">
-        <v>11336.36</v>
+        <v>12368.57</v>
       </c>
       <c r="M7" t="n">
-        <v>3.9901</v>
+        <v>4.3535</v>
       </c>
     </row>
     <row r="8">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.802</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>0.8778</v>
@@ -786,7 +786,7 @@
         <v>359200</v>
       </c>
       <c r="F8" t="n">
-        <v>288078.4</v>
+        <v>291311.2</v>
       </c>
       <c r="G8" t="n">
         <v>315322.73</v>
@@ -801,13 +801,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2462887989203779</v>
+        <v>0.242686170212766</v>
       </c>
       <c r="L8" t="n">
-        <v>-27244.33</v>
+        <v>-24011.53</v>
       </c>
       <c r="M8" t="n">
-        <v>-8.6401</v>
+        <v>-7.6149</v>
       </c>
     </row>
     <row r="9">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.741</v>
+        <v>3.821</v>
       </c>
       <c r="D9" t="n">
         <v>1.8758</v>
@@ -831,7 +831,7 @@
         <v>65660.31</v>
       </c>
       <c r="F9" t="n">
-        <v>245635.22</v>
+        <v>250888.04</v>
       </c>
       <c r="G9" t="n">
         <v>218819.8</v>
@@ -846,13 +846,13 @@
         <v>95653.39</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3544281096789428</v>
+        <v>0.3492367525464949</v>
       </c>
       <c r="L9" t="n">
-        <v>122468.81</v>
+        <v>127721.63</v>
       </c>
       <c r="M9" t="n">
-        <v>55.9679</v>
+        <v>58.3684</v>
       </c>
     </row>
     <row r="10">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8442</v>
+        <v>0.8815</v>
       </c>
       <c r="D10" t="n">
         <v>0.2476</v>
@@ -876,7 +876,7 @@
         <v>230149.3</v>
       </c>
       <c r="F10" t="n">
-        <v>194292.04</v>
+        <v>202876.61</v>
       </c>
       <c r="G10" t="n">
         <v>323557.7</v>
@@ -891,13 +891,13 @@
         <v>266573.88</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4498091290355003</v>
+        <v>0.4432207130309856</v>
       </c>
       <c r="L10" t="n">
-        <v>137308.22</v>
+        <v>145892.79</v>
       </c>
       <c r="M10" t="n">
-        <v>42.437</v>
+        <v>45.0902</v>
       </c>
     </row>
     <row r="11">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.928</v>
+        <v>5.182</v>
       </c>
       <c r="D11" t="n">
         <v>-0.8339</v>
@@ -921,7 +921,7 @@
         <v>27986.17</v>
       </c>
       <c r="F11" t="n">
-        <v>137915.85</v>
+        <v>145024.33</v>
       </c>
       <c r="G11" t="n">
         <v>222919.2</v>
@@ -936,13 +936,13 @@
         <v>246256.39</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6253224722046282</v>
+        <v>0.6161632881909785</v>
       </c>
       <c r="L11" t="n">
-        <v>161253.04</v>
+        <v>168361.52</v>
       </c>
       <c r="M11" t="n">
-        <v>87.1456</v>
+        <v>90.9872</v>
       </c>
     </row>
     <row r="12">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.959</v>
+        <v>1.981</v>
       </c>
       <c r="D12" t="n">
         <v>1.85</v>
@@ -966,7 +966,7 @@
         <v>68491.67999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>134175.2</v>
+        <v>135682.02</v>
       </c>
       <c r="G12" t="n">
         <v>126709.6</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.689814814814815</v>
+        <v>1.533613445378151</v>
       </c>
       <c r="L12" t="n">
-        <v>7465.6</v>
+        <v>8972.42</v>
       </c>
       <c r="M12" t="n">
-        <v>5.8919</v>
+        <v>7.0811</v>
       </c>
     </row>
     <row r="13">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.5401</v>
+        <v>3.5905</v>
       </c>
       <c r="D13" t="n">
         <v>-0.9802999999999999</v>
@@ -1011,7 +1011,7 @@
         <v>27400.8</v>
       </c>
       <c r="F13" t="n">
-        <v>97001.57000000001</v>
+        <v>98382.57000000001</v>
       </c>
       <c r="G13" t="n">
         <v>226649.6</v>
@@ -1026,13 +1026,13 @@
         <v>253509.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5224699972044</v>
+        <v>0.5148173074983435</v>
       </c>
       <c r="L13" t="n">
-        <v>123861.47</v>
+        <v>125242.47</v>
       </c>
       <c r="M13" t="n">
-        <v>54.6489</v>
+        <v>55.2582</v>
       </c>
     </row>
     <row r="14">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.2732</v>
+        <v>1.2983</v>
       </c>
       <c r="D14" t="n">
         <v>-0.8241000000000001</v>
@@ -1056,7 +1056,7 @@
         <v>67093.14</v>
       </c>
       <c r="F14" t="n">
-        <v>85422.99000000001</v>
+        <v>87107.02</v>
       </c>
       <c r="G14" t="n">
         <v>618155.4</v>
@@ -1071,13 +1071,13 @@
         <v>673447.89</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5153029446505225</v>
+        <v>0.5077552317461873</v>
       </c>
       <c r="L14" t="n">
-        <v>140715.48</v>
+        <v>142399.51</v>
       </c>
       <c r="M14" t="n">
-        <v>22.7638</v>
+        <v>23.0362</v>
       </c>
     </row>
     <row r="15">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.1723</v>
+        <v>1.1733</v>
       </c>
       <c r="D15" t="n">
         <v>1.1314</v>
@@ -1101,7 +1101,7 @@
         <v>57016.21</v>
       </c>
       <c r="F15" t="n">
-        <v>66840.10000000001</v>
+        <v>66897.12</v>
       </c>
       <c r="G15" t="n">
         <v>64507.2</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2466216216216216</v>
+        <v>0.2430093209054594</v>
       </c>
       <c r="L15" t="n">
-        <v>2332.9</v>
+        <v>2389.92</v>
       </c>
       <c r="M15" t="n">
-        <v>3.6165</v>
+        <v>3.7049</v>
       </c>
     </row>
     <row r="16">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.8442</v>
+        <v>2.9122</v>
       </c>
       <c r="D16" t="n">
         <v>3.2481</v>
@@ -1146,7 +1146,7 @@
         <v>20249.89</v>
       </c>
       <c r="F16" t="n">
-        <v>57594.74</v>
+        <v>58971.73</v>
       </c>
       <c r="G16" t="n">
         <v>65774.2</v>
@@ -1161,13 +1161,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.5</v>
+        <v>2.172619047619047</v>
       </c>
       <c r="L16" t="n">
-        <v>-8179.46</v>
+        <v>-6802.47</v>
       </c>
       <c r="M16" t="n">
-        <v>-12.4357</v>
+        <v>-10.3422</v>
       </c>
     </row>
     <row r="17">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.441</v>
+        <v>1.445</v>
       </c>
       <c r="D17" t="n">
         <v>-0.0593</v>
@@ -1191,7 +1191,7 @@
         <v>11217.96</v>
       </c>
       <c r="F17" t="n">
-        <v>16165.08</v>
+        <v>16209.95</v>
       </c>
       <c r="G17" t="n">
         <v>85714</v>
@@ -1206,13 +1206,13 @@
         <v>86378.75999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6000808115246348</v>
+        <v>0.5912913455768705</v>
       </c>
       <c r="L17" t="n">
-        <v>16829.84</v>
+        <v>16874.71</v>
       </c>
       <c r="M17" t="n">
-        <v>23.7956</v>
+        <v>23.859</v>
       </c>
     </row>
     <row r="18">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.073</v>
+        <v>1.0758</v>
       </c>
       <c r="D18" t="n">
         <v>1.0603</v>
@@ -1236,7 +1236,7 @@
         <v>11317.23</v>
       </c>
       <c r="F18" t="n">
-        <v>12143.39</v>
+        <v>12175.08</v>
       </c>
       <c r="G18" t="n">
         <v>12000</v>
@@ -1251,37 +1251,37 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1.921052631578947</v>
+        <v>1.721698113207547</v>
       </c>
       <c r="L18" t="n">
-        <v>143.39</v>
+        <v>175.08</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1949</v>
+        <v>1.459</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>广发趋势优选灵活配置混合C</t>
+          <t>东方红策略精选混合C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008127</t>
+          <t>001406</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.6223</v>
+        <v>1.2826</v>
       </c>
       <c r="D19" t="n">
-        <v>1.6147</v>
+        <v>1.2729</v>
       </c>
       <c r="E19" t="n">
-        <v>7431.56</v>
+        <v>9427.66</v>
       </c>
       <c r="F19" t="n">
-        <v>12056.22</v>
+        <v>12091.92</v>
       </c>
       <c r="G19" t="n">
         <v>12000</v>
@@ -1296,37 +1296,37 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.921052631578947</v>
+        <v>1.721698113207547</v>
       </c>
       <c r="L19" t="n">
-        <v>56.22</v>
+        <v>91.92</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4685</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>东方红策略精选混合C</t>
+          <t>广发趋势优选灵活配置混合C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001406</t>
+          <t>008127</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.2772</v>
+        <v>1.6212</v>
       </c>
       <c r="D20" t="n">
-        <v>1.2729</v>
+        <v>1.6147</v>
       </c>
       <c r="E20" t="n">
-        <v>9427.66</v>
+        <v>7431.56</v>
       </c>
       <c r="F20" t="n">
-        <v>12041.01</v>
+        <v>12048.05</v>
       </c>
       <c r="G20" t="n">
         <v>12000</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.921052631578947</v>
+        <v>1.721698113207547</v>
       </c>
       <c r="L20" t="n">
-        <v>41.01</v>
+        <v>48.05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3417</v>
+        <v>0.4004</v>
       </c>
     </row>
     <row r="21">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.641</v>
+        <v>1.644</v>
       </c>
       <c r="D21" t="n">
         <v>1.6455</v>
@@ -1371,7 +1371,7 @@
         <v>7292.68</v>
       </c>
       <c r="F21" t="n">
-        <v>11967.29</v>
+        <v>11989.17</v>
       </c>
       <c r="G21" t="n">
         <v>12000</v>
@@ -1386,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.921052631578947</v>
+        <v>1.721698113207547</v>
       </c>
       <c r="L21" t="n">
-        <v>-32.71</v>
+        <v>-10.83</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.2726</v>
+        <v>-0.0902</v>
       </c>
     </row>
     <row r="22">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.1405</v>
+        <v>1.146</v>
       </c>
       <c r="D22" t="n">
         <v>1.1438</v>
@@ -1416,7 +1416,7 @@
         <v>6994.4</v>
       </c>
       <c r="F22" t="n">
-        <v>7977.11</v>
+        <v>8015.58</v>
       </c>
       <c r="G22" t="n">
         <v>8000</v>
@@ -1431,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.28125</v>
+        <v>2.005494505494505</v>
       </c>
       <c r="L22" t="n">
-        <v>-22.89</v>
+        <v>15.58</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.2861</v>
+        <v>0.1948</v>
       </c>
     </row>
     <row r="23">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.4829</v>
+        <v>2.4941</v>
       </c>
       <c r="D23" t="n">
         <v>2.4932</v>
@@ -1461,7 +1461,7 @@
         <v>1604.37</v>
       </c>
       <c r="F23" t="n">
-        <v>3983.49</v>
+        <v>4001.46</v>
       </c>
       <c r="G23" t="n">
         <v>4000</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.921052631578947</v>
+        <v>1.721698113207547</v>
       </c>
       <c r="L23" t="n">
-        <v>-16.51</v>
+        <v>1.46</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.4128</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="24">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.667</v>
+        <v>2.7148</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>1066843.61</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7228974310490608</v>
+        <v>0.7123090532307657</v>
       </c>
       <c r="L24" t="n">
         <v>90684.41</v>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.1704</v>
+        <v>1.1792</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>263017.37</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5533625611511479</v>
+        <v>0.5452573838240339</v>
       </c>
       <c r="L25" t="n">
         <v>51549.77</v>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.243</v>
+        <v>2.256</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1611,7 +1611,7 @@
         <v>67660.25</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5488850098651775</v>
+        <v>0.5408454158458473</v>
       </c>
       <c r="L26" t="n">
         <v>12455.15</v>
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.3801</v>
+        <v>1.3932</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>30059.92</v>
       </c>
       <c r="K27" t="n">
-        <v>2.946488010752688</v>
+        <v>2.706403802469136</v>
       </c>
       <c r="L27" t="n">
         <v>59.92</v>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.69</v>
+        <v>2.814</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>230025</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7265077397205985</v>
+        <v>0.7158806318257492</v>
       </c>
       <c r="L28" t="n">
         <v>112052.6</v>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.508</v>
+        <v>1.493</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>31696.03</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4936078066267607</v>
+        <v>0.4863874796681245</v>
       </c>
       <c r="L29" t="n">
         <v>132.03</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.506</v>
+        <v>3.498</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>101718.23</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5723928168293281</v>
+        <v>0.5640200495618778</v>
       </c>
       <c r="L30" t="n">
         <v>24895.93</v>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.194</v>
+        <v>1.174</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>176703.11</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4983044420015484</v>
+        <v>0.4910154142595046</v>
       </c>
       <c r="L31" t="n">
         <v>4015.43</v>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.0855</v>
+        <v>1.1346</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>285932.16</v>
       </c>
       <c r="K32" t="n">
-        <v>3.446237905341444</v>
+        <v>3.132943550310404</v>
       </c>
       <c r="L32" t="n">
         <v>20488.16</v>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.235</v>
+        <v>1.233</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>19166.88</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5374674230414618</v>
+        <v>0.5296055325448447</v>
       </c>
       <c r="L33" t="n">
         <v>2954.88</v>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.395</v>
+        <v>0.374</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>96605.34</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6466616118834094</v>
+        <v>0.6348651314012909</v>
       </c>
       <c r="L34" t="n">
         <v>8595.4</v>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.2458</v>
+        <v>1.2772</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>760187.52</v>
       </c>
       <c r="K35" t="n">
-        <v>0.6445672900427605</v>
+        <v>0.6351262245428</v>
       </c>
       <c r="L35" t="n">
         <v>263521.52</v>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.463</v>
+        <v>1.476</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>301344.17</v>
       </c>
       <c r="K36" t="n">
-        <v>7.566206739302801</v>
+        <v>6.106061579086471</v>
       </c>
       <c r="L36" t="n">
         <v>-30862.43</v>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.022</v>
+        <v>2.046</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>216913.47</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5485881898614277</v>
+        <v>0.5405529434054015</v>
       </c>
       <c r="L37" t="n">
         <v>39756.27</v>

--- a/inv_analysis/report.xlsx
+++ b/inv_analysis/report.xlsx
@@ -516,7 +516,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>3254837.27</v>
+        <v>3322348.93</v>
       </c>
       <c r="G2" t="n">
         <v>7573424.659999999</v>
@@ -531,13 +531,13 @@
         <v>5803624.579999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4586017757670581</v>
+        <v>0.4531781016778288</v>
       </c>
       <c r="L2" t="n">
-        <v>1485037.19</v>
+        <v>1552548.85</v>
       </c>
       <c r="M2" t="n">
-        <v>27.1193</v>
+        <v>28.3522</v>
       </c>
     </row>
     <row r="3">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.107</v>
+        <v>1.106</v>
       </c>
       <c r="D3" t="n">
         <v>0.8981</v>
@@ -561,7 +561,7 @@
         <v>502953.52</v>
       </c>
       <c r="F3" t="n">
-        <v>556769.55</v>
+        <v>556266.59</v>
       </c>
       <c r="G3" t="n">
         <v>653308.6</v>
@@ -576,13 +576,13 @@
         <v>201615.91</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3180038110634585</v>
+        <v>0.3142379764587597</v>
       </c>
       <c r="L3" t="n">
-        <v>105076.86</v>
+        <v>104573.9</v>
       </c>
       <c r="M3" t="n">
-        <v>16.0838</v>
+        <v>16.0068</v>
       </c>
     </row>
     <row r="4">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.548</v>
+        <v>3.823</v>
       </c>
       <c r="D4" t="n">
         <v>3.468</v>
@@ -606,7 +606,7 @@
         <v>102846.38</v>
       </c>
       <c r="F4" t="n">
-        <v>364898.96</v>
+        <v>393181.71</v>
       </c>
       <c r="G4" t="n">
         <v>356668.2</v>
@@ -621,13 +621,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.318181818181818</v>
+        <v>2.8515625</v>
       </c>
       <c r="L4" t="n">
-        <v>8230.76</v>
+        <v>36513.51</v>
       </c>
       <c r="M4" t="n">
-        <v>2.3077</v>
+        <v>10.2374</v>
       </c>
     </row>
     <row r="5">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.65</v>
+        <v>0.713</v>
       </c>
       <c r="D5" t="n">
         <v>0.6813</v>
@@ -651,7 +651,7 @@
         <v>481300</v>
       </c>
       <c r="F5" t="n">
-        <v>312845</v>
+        <v>343166.9</v>
       </c>
       <c r="G5" t="n">
         <v>660235.51</v>
@@ -666,13 +666,13 @@
         <v>332315.8</v>
       </c>
       <c r="K5" t="n">
-        <v>6.008264993414919</v>
+        <v>5.426819994052185</v>
       </c>
       <c r="L5" t="n">
-        <v>-15074.71</v>
+        <v>15247.19</v>
       </c>
       <c r="M5" t="n">
-        <v>-4.2001</v>
+        <v>4.2482</v>
       </c>
     </row>
     <row r="6">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.1179</v>
+        <v>2.1008</v>
       </c>
       <c r="D6" t="n">
         <v>1.662</v>
@@ -696,7 +696,7 @@
         <v>146453.77</v>
       </c>
       <c r="F6" t="n">
-        <v>310174.44</v>
+        <v>307670.08</v>
       </c>
       <c r="G6" t="n">
         <v>243400</v>
@@ -711,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2430093209054594</v>
+        <v>0.2401315789473684</v>
       </c>
       <c r="L6" t="n">
-        <v>66774.44</v>
+        <v>64270.08</v>
       </c>
       <c r="M6" t="n">
-        <v>27.434</v>
+        <v>26.4051</v>
       </c>
     </row>
     <row r="7">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.1489</v>
+        <v>1.1358</v>
       </c>
       <c r="D7" t="n">
         <v>1.101</v>
@@ -741,7 +741,7 @@
         <v>258053.33</v>
       </c>
       <c r="F7" t="n">
-        <v>296477.47</v>
+        <v>293096.97</v>
       </c>
       <c r="G7" t="n">
         <v>284108.9</v>
@@ -756,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2430093209054594</v>
+        <v>0.2401315789473684</v>
       </c>
       <c r="L7" t="n">
-        <v>12368.57</v>
+        <v>8988.07</v>
       </c>
       <c r="M7" t="n">
-        <v>4.3535</v>
+        <v>3.1636</v>
       </c>
     </row>
     <row r="8">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.805</v>
       </c>
       <c r="D8" t="n">
         <v>0.8778</v>
@@ -786,7 +786,7 @@
         <v>359200</v>
       </c>
       <c r="F8" t="n">
-        <v>291311.2</v>
+        <v>289156</v>
       </c>
       <c r="G8" t="n">
         <v>315322.73</v>
@@ -801,13 +801,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.242686170212766</v>
+        <v>0.2398160315374507</v>
       </c>
       <c r="L8" t="n">
-        <v>-24011.53</v>
+        <v>-26166.73</v>
       </c>
       <c r="M8" t="n">
-        <v>-7.6149</v>
+        <v>-8.298400000000001</v>
       </c>
     </row>
     <row r="9">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.821</v>
+        <v>3.883</v>
       </c>
       <c r="D9" t="n">
         <v>1.8758</v>
@@ -831,7 +831,7 @@
         <v>65660.31</v>
       </c>
       <c r="F9" t="n">
-        <v>250888.04</v>
+        <v>254958.98</v>
       </c>
       <c r="G9" t="n">
         <v>218819.8</v>
@@ -846,13 +846,13 @@
         <v>95653.39</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3492367525464949</v>
+        <v>0.3451010541610759</v>
       </c>
       <c r="L9" t="n">
-        <v>127721.63</v>
+        <v>131792.57</v>
       </c>
       <c r="M9" t="n">
-        <v>58.3684</v>
+        <v>60.2288</v>
       </c>
     </row>
     <row r="10">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8815</v>
+        <v>0.9106</v>
       </c>
       <c r="D10" t="n">
         <v>0.2476</v>
@@ -876,7 +876,7 @@
         <v>230149.3</v>
       </c>
       <c r="F10" t="n">
-        <v>202876.61</v>
+        <v>209573.95</v>
       </c>
       <c r="G10" t="n">
         <v>323557.7</v>
@@ -891,13 +891,13 @@
         <v>266573.88</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4432207130309856</v>
+        <v>0.4379720466924609</v>
       </c>
       <c r="L10" t="n">
-        <v>145892.79</v>
+        <v>152590.13</v>
       </c>
       <c r="M10" t="n">
-        <v>45.0902</v>
+        <v>47.1601</v>
       </c>
     </row>
     <row r="11">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.182</v>
+        <v>5.253</v>
       </c>
       <c r="D11" t="n">
         <v>-0.8339</v>
@@ -921,7 +921,7 @@
         <v>27986.17</v>
       </c>
       <c r="F11" t="n">
-        <v>145024.33</v>
+        <v>147011.35</v>
       </c>
       <c r="G11" t="n">
         <v>222919.2</v>
@@ -936,13 +936,13 @@
         <v>246256.39</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6161632881909785</v>
+        <v>0.6088666176729275</v>
       </c>
       <c r="L11" t="n">
-        <v>168361.52</v>
+        <v>170348.54</v>
       </c>
       <c r="M11" t="n">
-        <v>90.9872</v>
+        <v>92.06100000000001</v>
       </c>
     </row>
     <row r="12">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.981</v>
+        <v>1.986</v>
       </c>
       <c r="D12" t="n">
         <v>1.85</v>
@@ -966,7 +966,7 @@
         <v>68491.67999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>135682.02</v>
+        <v>136024.48</v>
       </c>
       <c r="G12" t="n">
         <v>126709.6</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.533613445378151</v>
+        <v>1.42578125</v>
       </c>
       <c r="L12" t="n">
-        <v>8972.42</v>
+        <v>9314.879999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>7.0811</v>
+        <v>7.3514</v>
       </c>
     </row>
     <row r="13">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.5905</v>
+        <v>3.6105</v>
       </c>
       <c r="D13" t="n">
         <v>-0.9802999999999999</v>
@@ -1011,7 +1011,7 @@
         <v>27400.8</v>
       </c>
       <c r="F13" t="n">
-        <v>98382.57000000001</v>
+        <v>98930.59</v>
       </c>
       <c r="G13" t="n">
         <v>226649.6</v>
@@ -1026,13 +1026,13 @@
         <v>253509.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5148173074983435</v>
+        <v>0.5087207867516527</v>
       </c>
       <c r="L13" t="n">
-        <v>125242.47</v>
+        <v>125790.49</v>
       </c>
       <c r="M13" t="n">
-        <v>55.2582</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="14">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.2983</v>
+        <v>1.3398</v>
       </c>
       <c r="D14" t="n">
         <v>-0.8241000000000001</v>
@@ -1056,7 +1056,7 @@
         <v>67093.14</v>
       </c>
       <c r="F14" t="n">
-        <v>87107.02</v>
+        <v>89891.39</v>
       </c>
       <c r="G14" t="n">
         <v>618155.4</v>
@@ -1071,13 +1071,13 @@
         <v>673447.89</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5077552317461873</v>
+        <v>0.5017423408439298</v>
       </c>
       <c r="L14" t="n">
-        <v>142399.51</v>
+        <v>145183.88</v>
       </c>
       <c r="M14" t="n">
-        <v>23.0362</v>
+        <v>23.4866</v>
       </c>
     </row>
     <row r="15">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.1733</v>
+        <v>1.1696</v>
       </c>
       <c r="D15" t="n">
         <v>1.1314</v>
@@ -1101,7 +1101,7 @@
         <v>57016.21</v>
       </c>
       <c r="F15" t="n">
-        <v>66897.12</v>
+        <v>66686.16</v>
       </c>
       <c r="G15" t="n">
         <v>64507.2</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2430093209054594</v>
+        <v>0.2401315789473684</v>
       </c>
       <c r="L15" t="n">
-        <v>2389.92</v>
+        <v>2178.96</v>
       </c>
       <c r="M15" t="n">
-        <v>3.7049</v>
+        <v>3.3779</v>
       </c>
     </row>
     <row r="16">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.9122</v>
+        <v>2.9722</v>
       </c>
       <c r="D16" t="n">
         <v>3.2481</v>
@@ -1146,7 +1146,7 @@
         <v>20249.89</v>
       </c>
       <c r="F16" t="n">
-        <v>58971.73</v>
+        <v>60186.72</v>
       </c>
       <c r="G16" t="n">
         <v>65774.2</v>
@@ -1161,13 +1161,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.172619047619047</v>
+        <v>1.962365591397849</v>
       </c>
       <c r="L16" t="n">
-        <v>-6802.47</v>
+        <v>-5587.48</v>
       </c>
       <c r="M16" t="n">
-        <v>-10.3422</v>
+        <v>-8.494899999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.445</v>
+        <v>1.448</v>
       </c>
       <c r="D17" t="n">
         <v>-0.0593</v>
@@ -1191,7 +1191,7 @@
         <v>11217.96</v>
       </c>
       <c r="F17" t="n">
-        <v>16209.95</v>
+        <v>16243.61</v>
       </c>
       <c r="G17" t="n">
         <v>85714</v>
@@ -1206,13 +1206,13 @@
         <v>86378.75999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5912913455768705</v>
+        <v>0.5842892112213549</v>
       </c>
       <c r="L17" t="n">
-        <v>16874.71</v>
+        <v>16908.37</v>
       </c>
       <c r="M17" t="n">
-        <v>23.859</v>
+        <v>23.9066</v>
       </c>
     </row>
     <row r="18">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.0758</v>
+        <v>1.0702</v>
       </c>
       <c r="D18" t="n">
         <v>1.0603</v>
@@ -1236,7 +1236,7 @@
         <v>11317.23</v>
       </c>
       <c r="F18" t="n">
-        <v>12175.08</v>
+        <v>12111.7</v>
       </c>
       <c r="G18" t="n">
         <v>12000</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1.721698113207547</v>
+        <v>1.58695652173913</v>
       </c>
       <c r="L18" t="n">
-        <v>175.08</v>
+        <v>111.7</v>
       </c>
       <c r="M18" t="n">
-        <v>1.459</v>
+        <v>0.9308</v>
       </c>
     </row>
     <row r="19">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.2826</v>
+        <v>1.2842</v>
       </c>
       <c r="D19" t="n">
         <v>1.2729</v>
@@ -1281,7 +1281,7 @@
         <v>9427.66</v>
       </c>
       <c r="F19" t="n">
-        <v>12091.92</v>
+        <v>12107</v>
       </c>
       <c r="G19" t="n">
         <v>12000</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.721698113207547</v>
+        <v>1.58695652173913</v>
       </c>
       <c r="L19" t="n">
-        <v>91.92</v>
+        <v>107</v>
       </c>
       <c r="M19" t="n">
-        <v>0.766</v>
+        <v>0.8917</v>
       </c>
     </row>
     <row r="20">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.6212</v>
+        <v>1.6227</v>
       </c>
       <c r="D20" t="n">
         <v>1.6147</v>
@@ -1326,7 +1326,7 @@
         <v>7431.56</v>
       </c>
       <c r="F20" t="n">
-        <v>12048.05</v>
+        <v>12059.19</v>
       </c>
       <c r="G20" t="n">
         <v>12000</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.721698113207547</v>
+        <v>1.58695652173913</v>
       </c>
       <c r="L20" t="n">
-        <v>48.05</v>
+        <v>59.19</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4004</v>
+        <v>0.4932</v>
       </c>
     </row>
     <row r="21">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.644</v>
+        <v>1.647</v>
       </c>
       <c r="D21" t="n">
         <v>1.6455</v>
@@ -1371,7 +1371,7 @@
         <v>7292.68</v>
       </c>
       <c r="F21" t="n">
-        <v>11989.17</v>
+        <v>12011.04</v>
       </c>
       <c r="G21" t="n">
         <v>12000</v>
@@ -1386,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.721698113207547</v>
+        <v>1.58695652173913</v>
       </c>
       <c r="L21" t="n">
-        <v>-10.83</v>
+        <v>11.04</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.0902</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="22">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.146</v>
+        <v>1.1458</v>
       </c>
       <c r="D22" t="n">
         <v>1.1438</v>
@@ -1416,7 +1416,7 @@
         <v>6994.4</v>
       </c>
       <c r="F22" t="n">
-        <v>8015.58</v>
+        <v>8014.18</v>
       </c>
       <c r="G22" t="n">
         <v>8000</v>
@@ -1431,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.005494505494505</v>
+        <v>1.825</v>
       </c>
       <c r="L22" t="n">
-        <v>15.58</v>
+        <v>14.18</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1948</v>
+        <v>0.1772</v>
       </c>
     </row>
     <row r="23">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.4941</v>
+        <v>2.4934</v>
       </c>
       <c r="D23" t="n">
         <v>2.4932</v>
@@ -1461,7 +1461,7 @@
         <v>1604.37</v>
       </c>
       <c r="F23" t="n">
-        <v>4001.46</v>
+        <v>4000.34</v>
       </c>
       <c r="G23" t="n">
         <v>4000</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.721698113207547</v>
+        <v>1.58695652173913</v>
       </c>
       <c r="L23" t="n">
-        <v>1.46</v>
+        <v>0.34</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0365</v>
+        <v>0.008500000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.7148</v>
+        <v>2.7387</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>1066843.61</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7123090532307657</v>
+        <v>0.7038738144425065</v>
       </c>
       <c r="L24" t="n">
         <v>90684.41</v>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.1792</v>
+        <v>1.1766</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>263017.37</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5452573838240339</v>
+        <v>0.5388003884892756</v>
       </c>
       <c r="L25" t="n">
         <v>51549.77</v>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.256</v>
+        <v>2.304</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1611,7 +1611,7 @@
         <v>67660.25</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5408454158458473</v>
+        <v>0.5344406675003045</v>
       </c>
       <c r="L26" t="n">
         <v>12455.15</v>
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.3932</v>
+        <v>1.3995</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>30059.92</v>
       </c>
       <c r="K27" t="n">
-        <v>2.706403802469136</v>
+        <v>2.537253564814815</v>
       </c>
       <c r="L27" t="n">
         <v>59.92</v>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.814</v>
+        <v>2.989</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>230025</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7158806318257492</v>
+        <v>0.7074142380196629</v>
       </c>
       <c r="L28" t="n">
         <v>112052.6</v>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.493</v>
+        <v>1.5</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>31696.03</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4863874796681245</v>
+        <v>0.4806351967285541</v>
       </c>
       <c r="L29" t="n">
         <v>132.03</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.498</v>
+        <v>3.482</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>101718.23</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5640200495618778</v>
+        <v>0.5573496416169935</v>
       </c>
       <c r="L30" t="n">
         <v>24895.93</v>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.174</v>
+        <v>1.167</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>176703.11</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4910154142595046</v>
+        <v>0.4852083988477627</v>
       </c>
       <c r="L31" t="n">
         <v>4015.43</v>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.1346</v>
+        <v>1.2016</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>285932.16</v>
       </c>
       <c r="K32" t="n">
-        <v>3.132943550310404</v>
+        <v>2.916047458365838</v>
       </c>
       <c r="L32" t="n">
         <v>20488.16</v>
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.233</v>
+        <v>1.236</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>19166.88</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5296055325448447</v>
+        <v>0.5233421294004247</v>
       </c>
       <c r="L33" t="n">
         <v>2954.88</v>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.374</v>
+        <v>0.396</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>96605.34</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6348651314012909</v>
+        <v>0.625528879468919</v>
       </c>
       <c r="L34" t="n">
         <v>8595.4</v>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.2772</v>
+        <v>1.3543</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>760187.52</v>
       </c>
       <c r="K35" t="n">
-        <v>0.6351262245428</v>
+        <v>0.6276049929363721</v>
       </c>
       <c r="L35" t="n">
         <v>263521.52</v>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.476</v>
+        <v>1.485</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>301344.17</v>
       </c>
       <c r="K36" t="n">
-        <v>6.106061579086471</v>
+        <v>5.273416818301953</v>
       </c>
       <c r="L36" t="n">
         <v>-30862.43</v>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.046</v>
+        <v>2.059</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>216913.47</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5405529434054015</v>
+        <v>0.5341516585492848</v>
       </c>
       <c r="L37" t="n">
         <v>39756.27</v>
